--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
     <t>884255.WI</t>
   </si>
   <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
     <t>884132.WI</t>
   </si>
   <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
   </si>
   <si>
     <t>884227.WI</t>
   </si>
   <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
   </si>
   <si>
     <t>884158.WI</t>
   </si>
   <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
     <t>884189.WI</t>
   </si>
   <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
     <t>3D传感指数</t>
   </si>
   <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
     <t>智能物流指数</t>
   </si>
   <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
   </si>
   <si>
     <t>新零售指数</t>
   </si>
   <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
   </si>
   <si>
     <t>移动转售指数</t>
   </si>
   <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
     <t>次新股指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1906048488346495</v>
+        <v>0.05760625320502211</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.1595810740225516</v>
+        <v>0.005226888103262661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.07569353390670974</v>
+        <v>-2.277231573089011e-05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.07366987413586412</v>
+        <v>-0.01421193201432103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.06274131413534167</v>
+        <v>-0.0153425845202847</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.05437802905187783</v>
+        <v>-0.01598984029422557</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.04724184197115688</v>
+        <v>-0.01979642051493624</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.04651066065991061</v>
+        <v>-0.02360422736504464</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.03940448421501319</v>
+        <v>-0.02378162363521397</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.03796476046494601</v>
+        <v>-0.02379313491404644</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.03504111526781228</v>
+        <v>-0.02439041579972345</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.03395505582488267</v>
+        <v>-0.02487002184101184</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.03361022602139219</v>
+        <v>-0.02743598429574046</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.03341685888198942</v>
+        <v>-0.02762325978419333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.03302777998067064</v>
+        <v>-0.02804499050677178</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.03261230226147394</v>
+        <v>-0.02838619466991565</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.03149559731578533</v>
+        <v>-0.02921228292777533</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.0305239716029202</v>
+        <v>-0.0295632626991037</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.02868374858839196</v>
+        <v>-0.02964343885969078</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.02835536603397637</v>
+        <v>-0.02971385528350934</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.02603982076838385</v>
+        <v>-0.02987302253038204</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.02591982386220471</v>
+        <v>-0.03067737730849218</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.0235580861281941</v>
+        <v>-0.03195132900042374</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.02287708261672861</v>
+        <v>-0.0322086621943769</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.02177996696394313</v>
+        <v>-0.03235807541885338</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.02135452486919109</v>
+        <v>-0.03399569188189033</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.02053127072978622</v>
+        <v>-0.03422724912024644</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.02030799903584279</v>
+        <v>-0.03457147305523189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.02014521853116835</v>
+        <v>-0.03458968130345919</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.01975079920772393</v>
+        <v>-0.03515350071892653</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.01940728874750119</v>
+        <v>-0.03555465052840567</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.01777512265018388</v>
+        <v>-0.0359369355708371</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.01722926015236181</v>
+        <v>-0.03608074285991569</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.0166588954834237</v>
+        <v>-0.03626943868705979</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.01584988298545631</v>
+        <v>-0.03681555017562743</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.01583132419974276</v>
+        <v>-0.03682300001015615</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.01555995785980846</v>
+        <v>-0.03688045780200966</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.0155333045679551</v>
+        <v>-0.03716801288291494</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.01479771392918305</v>
+        <v>-0.03718603608500171</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.01464116808290772</v>
+        <v>-0.03739700711782956</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.01421067503610862</v>
+        <v>-0.03771591769092253</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.01343163837203853</v>
+        <v>-0.03793441176879431</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.0129717451996989</v>
+        <v>-0.03801556241352655</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.01275859255312439</v>
+        <v>-0.03858807670842013</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.01271761806602711</v>
+        <v>-0.03863457902005418</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.01236930262036484</v>
+        <v>-0.03904915149226207</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.01229217875114297</v>
+        <v>-0.03942940257440819</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.01212354131193005</v>
+        <v>-0.03962245211329096</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.01024811723369345</v>
+        <v>-0.03992897756981406</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.01007615206170409</v>
+        <v>-0.04025110728545522</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.009340657399410368</v>
+        <v>-0.04033529520607382</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.00921391090648771</v>
+        <v>-0.04034833517323633</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.009030769412240014</v>
+        <v>-0.04058587211943099</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.008618614666109803</v>
+        <v>-0.04070557402320063</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.0076205713816202</v>
+        <v>-0.04085471599093748</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.006770422899512907</v>
+        <v>-0.04108383654290704</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>0.005958312129477727</v>
+        <v>-0.04177379464508568</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>0.004869918464951661</v>
+        <v>-0.04185780297356179</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>0.003752088240647211</v>
+        <v>-0.04201297899783074</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>0.003750605856881473</v>
+        <v>-0.04204685810074815</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>0.003636254438514674</v>
+        <v>-0.04220193036161779</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>0.003570064419110341</v>
+        <v>-0.04229550054170184</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>0.003488845562688692</v>
+        <v>-0.0427498958697955</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>0.003280197541501995</v>
+        <v>-0.04300346615735362</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>0.003271411747961972</v>
+        <v>-0.04305831768599311</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>0.003018991580486352</v>
+        <v>-0.04415037222616947</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>0.00244636764449857</v>
+        <v>-0.04434719418861799</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>0.002418309530107354</v>
+        <v>-0.04446870133768954</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>0.002241108964041727</v>
+        <v>-0.04454211624843118</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>0.001238408481022413</v>
+        <v>-0.04487948054272339</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>0.001017955750280075</v>
+        <v>-0.04513016086387034</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>0.0008661939804763819</v>
+        <v>-0.04577105688966865</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>0.00040827447830738</v>
+        <v>-0.04635979687879188</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>0.0003873326791883347</v>
+        <v>-0.04640566722794504</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.0005677876548454419</v>
+        <v>-0.04642270085234823</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.0008864526845284715</v>
+        <v>-0.04649736788069203</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.001340116021946391</v>
+        <v>-0.04653128026988218</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.001936964682204612</v>
+        <v>-0.04659421657240514</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.002254980507678472</v>
+        <v>-0.04683636242578781</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.003058738612088607</v>
+        <v>-0.04701703892725673</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.003273835430014471</v>
+        <v>-0.04726227145632733</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.00331260765783592</v>
+        <v>-0.04726426327119038</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.003417444623022292</v>
+        <v>-0.0483350910266731</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.003956899680266357</v>
+        <v>-0.04866654879615628</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.003959623642355137</v>
+        <v>-0.04870855235428007</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.004234697072763138</v>
+        <v>-0.04880641671491315</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.004520476450714406</v>
+        <v>-0.04933352129398527</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.004660924906474406</v>
+        <v>-0.04945437840982614</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.005342375838026547</v>
+        <v>-0.04956092219958896</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.005345378716164917</v>
+        <v>-0.04958741331613015</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.005378469061985691</v>
+        <v>-0.04968120869672765</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.005552277277523165</v>
+        <v>-0.0501548708359727</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.00572529424021484</v>
+        <v>-0.05023128440359947</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.005762516998773171</v>
+        <v>-0.05045697831020046</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.00581644520916702</v>
+        <v>-0.05065600149661542</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.006032256755486687</v>
+        <v>-0.05093172034575277</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.006778330409924815</v>
+        <v>-0.05126984047015526</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.006799966231822774</v>
+        <v>-0.05162172077148131</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.007019438512297471</v>
+        <v>-0.05170017019158868</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.007776374996711022</v>
+        <v>-0.05206462218448238</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.007924661722449211</v>
+        <v>-0.05259611177040013</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.007955163266010645</v>
+        <v>-0.0528839766999285</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.008517855238427074</v>
+        <v>-0.05290648035802348</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.008864943154119009</v>
+        <v>-0.0530487677000494</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.008923116255033503</v>
+        <v>-0.05329788451983986</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.009369689106032086</v>
+        <v>-0.05385234487468227</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.0100817429782516</v>
+        <v>-0.05416440677891698</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.01054121266578456</v>
+        <v>-0.05436724865404441</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.01069798363235042</v>
+        <v>-0.05454612158346761</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.01070995148264398</v>
+        <v>-0.05456391185948239</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.01096684273781456</v>
+        <v>-0.05481173352786139</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.01122160128833882</v>
+        <v>-0.05538492025687813</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.01169248018389635</v>
+        <v>-0.0553948624397882</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.01180675068659509</v>
+        <v>-0.05542917645502077</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.0118890824104263</v>
+        <v>-0.05580630775357676</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.01268392958117814</v>
+        <v>-0.05627333011779656</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.0130963256973371</v>
+        <v>-0.05649484973415675</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.01322015530564702</v>
+        <v>-0.0566613890036709</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.01450327613966673</v>
+        <v>-0.05671552183400264</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.01499065165645674</v>
+        <v>-0.05682839208317303</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.01506593250668353</v>
+        <v>-0.05693791003762605</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.01506776136495347</v>
+        <v>-0.05716031286788892</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.01531254572214147</v>
+        <v>-0.05723324334075419</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.01584389879746495</v>
+        <v>-0.05729331271765059</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.01629640051716807</v>
+        <v>-0.05736218913984614</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.01761511499990287</v>
+        <v>-0.05749164935930995</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.01789168128437835</v>
+        <v>-0.05773538334473005</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.01822925896514527</v>
+        <v>-0.05782515453256509</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.01917669979610537</v>
+        <v>-0.05821550466688741</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.01967095649265405</v>
+        <v>-0.05824776709933066</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.02161237129049076</v>
+        <v>-0.05836343336582339</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.02177926814729425</v>
+        <v>-0.05851797341690879</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.02204166214873393</v>
+        <v>-0.05881114723236613</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.02250315773228106</v>
+        <v>-0.05906359944403416</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.02260905149540393</v>
+        <v>-0.05988430597148631</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.02338856432115755</v>
+        <v>-0.05990493449036272</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.02388408555433685</v>
+        <v>-0.06049858081971693</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.02410436654388282</v>
+        <v>-0.0605296427333375</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.0248603240869969</v>
+        <v>-0.06055870990656687</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.02497574929270419</v>
+        <v>-0.06074395640954922</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.02507161178112327</v>
+        <v>-0.06146935927301944</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.02520478273091575</v>
+        <v>-0.06155896156539742</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.02541061682900736</v>
+        <v>-0.06163705757571958</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.02562846065076696</v>
+        <v>-0.06195998993491825</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.02590181862472785</v>
+        <v>-0.06265448757090508</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.02653770693380852</v>
+        <v>-0.06339854558460944</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.02687809365795368</v>
+        <v>-0.06350024530356002</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.026933152526326</v>
+        <v>-0.06423649645682439</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.02763372530905361</v>
+        <v>-0.0642810476019805</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.02846049512710347</v>
+        <v>-0.06496536181749335</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.02856671295721869</v>
+        <v>-0.06525466533116842</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.02894676401057905</v>
+        <v>-0.06553847402678759</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.02900104075915566</v>
+        <v>-0.06555104311950155</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.02929640029717584</v>
+        <v>-0.065774289222847</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.02942838438149353</v>
+        <v>-0.06634600151022274</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.02980397170401128</v>
+        <v>-0.06635958384470364</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.03054014138278982</v>
+        <v>-0.06758822075582493</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.03185501580024097</v>
+        <v>-0.06771308512902963</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.03256184255248074</v>
+        <v>-0.06789175130869807</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.03458138655223753</v>
+        <v>-0.06789321758388756</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.03502938787784327</v>
+        <v>-0.06792367561030688</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.03599930940583373</v>
+        <v>-0.06836573811510349</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.03646017426452219</v>
+        <v>-0.068405190928578</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.03677885677385206</v>
+        <v>-0.06997907274904347</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.03700212054303909</v>
+        <v>-0.07243179006514766</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.03844013448043293</v>
+        <v>-0.07310666750747596</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.03881835472908501</v>
+        <v>-0.0734066082852598</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.03918538062105414</v>
+        <v>-0.07379357063427394</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.03955327121701513</v>
+        <v>-0.07446755755807677</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.04150989523583304</v>
+        <v>-0.07533022821440982</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.0425212826622493</v>
+        <v>-0.07540502716803232</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.0429436777230171</v>
+        <v>-0.07584885990184664</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.04458685499790238</v>
+        <v>-0.07707185604923505</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.04544476000526598</v>
+        <v>-0.07708241093192469</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.04773223511863578</v>
+        <v>-0.0785240656040308</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.05086778577114404</v>
+        <v>-0.08285199155526612</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.05424632498873017</v>
+        <v>-0.08542160727665937</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.05510105980855995</v>
+        <v>-0.08614708038816277</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.06038633027852414</v>
+        <v>-0.08739346907851742</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.06496988081372301</v>
+        <v>-0.08998973186749315</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.06513660951729017</v>
+        <v>-0.09488321490790108</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.07672818694996453</v>
+        <v>-0.1382094865173118</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
     <t>884177.WI</t>
   </si>
   <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
   </si>
   <si>
     <t>884204.WI</t>
   </si>
   <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
   </si>
   <si>
     <t>884222.WI</t>
   </si>
   <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
+    <t>884189.WI</t>
   </si>
   <si>
     <t>884228.WI</t>
   </si>
   <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
     <t>沪股通50指数</t>
   </si>
   <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
   </si>
   <si>
     <t>金控平台指数</t>
   </si>
   <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
   </si>
   <si>
     <t>共享单车指数</t>
   </si>
   <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
+    <t>次新股指数</t>
   </si>
   <si>
     <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.05760625320502211</v>
+        <v>0.1029068619486651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.005226888103262661</v>
+        <v>0.07610437032603645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>-2.277231573089011e-05</v>
+        <v>0.05122580300371671</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>-0.01421193201432103</v>
+        <v>0.04672498131218705</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>-0.0153425845202847</v>
+        <v>0.04179631200671485</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>-0.01598984029422557</v>
+        <v>0.03617192399665581</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>-0.01979642051493624</v>
+        <v>0.03474118128868264</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>-0.02360422736504464</v>
+        <v>0.03214571844917358</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>-0.02378162363521397</v>
+        <v>0.0317746926168756</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>-0.02379313491404644</v>
+        <v>0.02794317318618611</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>-0.02439041579972345</v>
+        <v>0.02685606018675268</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>-0.02487002184101184</v>
+        <v>0.02680652195867705</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>-0.02743598429574046</v>
+        <v>0.0252448897451687</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>-0.02762325978419333</v>
+        <v>0.02523261768411267</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>-0.02804499050677178</v>
+        <v>0.0230616529940848</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>-0.02838619466991565</v>
+        <v>0.02246973282060094</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>-0.02921228292777533</v>
+        <v>0.02142133466213325</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>-0.0295632626991037</v>
+        <v>0.01944577837263695</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>-0.02964343885969078</v>
+        <v>0.01943730542002853</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>-0.02971385528350934</v>
+        <v>0.01927376568392147</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>-0.02987302253038204</v>
+        <v>0.01916140768421348</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>-0.03067737730849218</v>
+        <v>0.0181957452473458</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>-0.03195132900042374</v>
+        <v>0.01784660770157265</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>-0.0322086621943769</v>
+        <v>0.01782912310305074</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>-0.03235807541885338</v>
+        <v>0.01699467988181036</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>-0.03399569188189033</v>
+        <v>0.01689530824162699</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>-0.03422724912024644</v>
+        <v>0.01681540415986182</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>-0.03457147305523189</v>
+        <v>0.01643260551608949</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>-0.03458968130345919</v>
+        <v>0.01620470812174002</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>-0.03515350071892653</v>
+        <v>0.01620328243903835</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>-0.03555465052840567</v>
+        <v>0.01616710952087352</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>-0.0359369355708371</v>
+        <v>0.01577464507081161</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>-0.03608074285991569</v>
+        <v>0.01538266003204569</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>-0.03626943868705979</v>
+        <v>0.01533166169130196</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>-0.03681555017562743</v>
+        <v>0.01510226928397307</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>-0.03682300001015615</v>
+        <v>0.01488372871844601</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>-0.03688045780200966</v>
+        <v>0.01480109565762389</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>-0.03716801288291494</v>
+        <v>0.01474834158662097</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>-0.03718603608500171</v>
+        <v>0.01439218289938249</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>-0.03739700711782956</v>
+        <v>0.01428499303092767</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>-0.03771591769092253</v>
+        <v>0.01366477665137422</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>-0.03793441176879431</v>
+        <v>0.01351029247489777</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>-0.03801556241352655</v>
+        <v>0.01303774075007258</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>-0.03858807670842013</v>
+        <v>0.01244228831787897</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>-0.03863457902005418</v>
+        <v>0.01230081808857952</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>-0.03904915149226207</v>
+        <v>0.0121900158613073</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>-0.03942940257440819</v>
+        <v>0.01207500166452347</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>-0.03962245211329096</v>
+        <v>0.01204085944735045</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>-0.03992897756981406</v>
+        <v>0.01184477929802497</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>-0.04025110728545522</v>
+        <v>0.01161038641673096</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>-0.04033529520607382</v>
+        <v>0.01099914311572392</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>-0.04034833517323633</v>
+        <v>0.01063606166100151</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>-0.04058587211943099</v>
+        <v>0.01059523267634677</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>-0.04070557402320063</v>
+        <v>0.01042542190945972</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>-0.04085471599093748</v>
+        <v>0.01041430726169223</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>-0.04108383654290704</v>
+        <v>0.01041166472233135</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.04177379464508568</v>
+        <v>0.01036242917451458</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.04185780297356179</v>
+        <v>0.01032938364310443</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.04201297899783074</v>
+        <v>0.009901644898147044</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.04204685810074815</v>
+        <v>0.009823051762806401</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.04220193036161779</v>
+        <v>0.009801587321246252</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.04229550054170184</v>
+        <v>0.009675083766903292</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.0427498958697955</v>
+        <v>0.009672789531914416</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.04300346615735362</v>
+        <v>0.009566322539696026</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.04305831768599311</v>
+        <v>0.009186619947560759</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.04415037222616947</v>
+        <v>0.008905837802250405</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.04434719418861799</v>
+        <v>0.008856978172896657</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.04446870133768954</v>
+        <v>0.008835805332114699</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.04454211624843118</v>
+        <v>0.008697230195204853</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.04487948054272339</v>
+        <v>0.008596715006461642</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.04513016086387034</v>
+        <v>0.008444032041059701</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.04577105688966865</v>
+        <v>0.00832419542930718</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.04635979687879188</v>
+        <v>0.008323183397959566</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.04640566722794504</v>
+        <v>0.007422340650829584</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.04642270085234823</v>
+        <v>0.007373033478743851</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.04649736788069203</v>
+        <v>0.00702116796522767</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.04653128026988218</v>
+        <v>0.006884007212402565</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.04659421657240514</v>
+        <v>0.006844513749502568</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.04683636242578781</v>
+        <v>0.006343409018381818</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.04701703892725673</v>
+        <v>0.005906399520430483</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.04726227145632733</v>
+        <v>0.005763784897329982</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.04726426327119038</v>
+        <v>0.005737815195470564</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.0483350910266731</v>
+        <v>0.005537405387698424</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.04866654879615628</v>
+        <v>0.005453006191037169</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.04870855235428007</v>
+        <v>0.005236149625617914</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.04880641671491315</v>
+        <v>0.005177948680105349</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.04933352129398527</v>
+        <v>0.005177112174767018</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.04945437840982614</v>
+        <v>0.005115513007017514</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.04956092219958896</v>
+        <v>0.005078552724056884</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.04958741331613015</v>
+        <v>0.004583237082879776</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.04968120869672765</v>
+        <v>0.004399985220054914</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.0501548708359727</v>
+        <v>0.004366906806298143</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.05023128440359947</v>
+        <v>0.004145538410667005</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.05045697831020046</v>
+        <v>0.004115767143425764</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.05065600149661542</v>
+        <v>0.004013324190085488</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.05093172034575277</v>
+        <v>0.003882416910724329</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.05126984047015526</v>
+        <v>0.00375911734026424</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.05162172077148131</v>
+        <v>0.003630525234566528</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.05170017019158868</v>
+        <v>0.003565604279451628</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.05206462218448238</v>
+        <v>0.003496808520627726</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.05259611177040013</v>
+        <v>0.003442301759882804</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.0528839766999285</v>
+        <v>0.003437989562515842</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.05290648035802348</v>
+        <v>0.00335853356441973</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.0530487677000494</v>
+        <v>0.003093980252374395</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.05329788451983986</v>
+        <v>0.002862916787979009</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.05385234487468227</v>
+        <v>0.002810533699813877</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.05416440677891698</v>
+        <v>0.002716797771842971</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.05436724865404441</v>
+        <v>0.002572726603407016</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.05454612158346761</v>
+        <v>0.002557036934056844</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.05456391185948239</v>
+        <v>0.002468913781833448</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.05481173352786139</v>
+        <v>0.002459525170571908</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.05538492025687813</v>
+        <v>0.002457669425325104</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.0553948624397882</v>
+        <v>0.002366620845703826</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.05542917645502077</v>
+        <v>0.002328854891529009</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.05580630775357676</v>
+        <v>0.002242647721620195</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.05627333011779656</v>
+        <v>0.002240317850281004</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.05649484973415675</v>
+        <v>0.001794062306366806</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.0566613890036709</v>
+        <v>0.001708545199875511</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.05671552183400264</v>
+        <v>0.001673894294152989</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.05682839208317303</v>
+        <v>0.001630995009209713</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.05693791003762605</v>
+        <v>0.001604796385605178</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.05716031286788892</v>
+        <v>0.00147823556126947</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.05723324334075419</v>
+        <v>0.001357862082347117</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.05729331271765059</v>
+        <v>0.001284358223481163</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.05736218913984614</v>
+        <v>0.001226504529241002</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.05749164935930995</v>
+        <v>0.001192842942345784</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.05773538334473005</v>
+        <v>0.001097523611210516</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.05782515453256509</v>
+        <v>0.001091327009034693</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.05821550466688741</v>
+        <v>0.000509920603174896</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.05824776709933066</v>
+        <v>0.0002778437513057952</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.05836343336582339</v>
+        <v>0.0001005564835925288</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.05851797341690879</v>
+        <v>7.940071815326633e-05</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.05881114723236613</v>
+        <v>-0.0002101748355630706</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.05906359944403416</v>
+        <v>-0.0002778000533623093</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.05988430597148631</v>
+        <v>-0.0003696492873404011</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.05990493449036272</v>
+        <v>-0.0007450917168281279</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.06049858081971693</v>
+        <v>-0.000845372559521107</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.0605296427333375</v>
+        <v>-0.001207547811997833</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.06055870990656687</v>
+        <v>-0.001242630299765568</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.06074395640954922</v>
+        <v>-0.001247531605685248</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.06146935927301944</v>
+        <v>-0.001421586844760125</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.06155896156539742</v>
+        <v>-0.001687290010247144</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.06163705757571958</v>
+        <v>-0.001728480836306612</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.06195998993491825</v>
+        <v>-0.002320689085013927</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.06265448757090508</v>
+        <v>-0.002626684702044857</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.06339854558460944</v>
+        <v>-0.003252852412394591</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.06350024530356002</v>
+        <v>-0.003338050658217573</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.06423649645682439</v>
+        <v>-0.003360068908781932</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.0642810476019805</v>
+        <v>-0.0034017912925699</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.06496536181749335</v>
+        <v>-0.003402699138472576</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.06525466533116842</v>
+        <v>-0.003431720200478994</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.06553847402678759</v>
+        <v>-0.003479411004608135</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.06555104311950155</v>
+        <v>-0.003843664951170167</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.065774289222847</v>
+        <v>-0.004212786868920571</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.06634600151022274</v>
+        <v>-0.004828453721631765</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.06635958384470364</v>
+        <v>-0.005094501555844677</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.06758822075582493</v>
+        <v>-0.005355511507523558</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.06771308512902963</v>
+        <v>-0.005422094229755703</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.06789175130869807</v>
+        <v>-0.00650468406855309</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.06789321758388756</v>
+        <v>-0.006668902825903267</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.06792367561030688</v>
+        <v>-0.006699540964362094</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.06836573811510349</v>
+        <v>-0.006969190556742055</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.068405190928578</v>
+        <v>-0.007235207592018456</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.06997907274904347</v>
+        <v>-0.007383493285023746</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.07243179006514766</v>
+        <v>-0.007672064356898378</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.07310666750747596</v>
+        <v>-0.008374736913065783</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.0734066082852598</v>
+        <v>-0.008796620130326116</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.07379357063427394</v>
+        <v>-0.008887188551888525</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.07446755755807677</v>
+        <v>-0.009525148367388714</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.07533022821440982</v>
+        <v>-0.009546896835008201</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.07540502716803232</v>
+        <v>-0.009807588579898163</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.07584885990184664</v>
+        <v>-0.009808638476607512</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.07707185604923505</v>
+        <v>-0.01046861049221304</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.07708241093192469</v>
+        <v>-0.01112940967482023</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.0785240656040308</v>
+        <v>-0.01225602176072949</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.08285199155526612</v>
+        <v>-0.01231522580636613</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.08542160727665937</v>
+        <v>-0.01248951975689772</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.08614708038816277</v>
+        <v>-0.01318212689138809</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.08739346907851742</v>
+        <v>-0.01360503053983475</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.08998973186749315</v>
+        <v>-0.01543198328022788</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.09488321490790108</v>
+        <v>-0.01575209844377135</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.1382094865173118</v>
+        <v>-0.02171215646666258</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
     <t>884227.WI</t>
   </si>
   <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
     <t>新零售指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1029068619486651</v>
+        <v>0.03832231102335282</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.07610437032603645</v>
+        <v>0.03655698967480348</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.05122580300371671</v>
+        <v>0.02628395219062574</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.04672498131218705</v>
+        <v>0.0218083456991216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.04179631200671485</v>
+        <v>0.02153334619473113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.03617192399665581</v>
+        <v>0.02059937131283163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.03474118128868264</v>
+        <v>0.01934501525681731</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.03214571844917358</v>
+        <v>0.01675198700441216</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.0317746926168756</v>
+        <v>0.01582166300095</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.02794317318618611</v>
+        <v>0.01316193135348631</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.02685606018675268</v>
+        <v>0.01014339282943566</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.02680652195867705</v>
+        <v>0.009803333321931174</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.0252448897451687</v>
+        <v>0.007982443014269647</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.02523261768411267</v>
+        <v>0.006834457494125035</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.0230616529940848</v>
+        <v>0.006059234754761222</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.02246973282060094</v>
+        <v>0.005287329420924802</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.02142133466213325</v>
+        <v>0.005067331253811647</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.01944577837263695</v>
+        <v>0.00496411150764331</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.01943730542002853</v>
+        <v>0.004801098000137616</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.01927376568392147</v>
+        <v>0.004220490319262193</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.01916140768421348</v>
+        <v>0.004103097307756487</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.0181957452473458</v>
+        <v>0.003982461883264898</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.01784660770157265</v>
+        <v>0.003838901891494162</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.01782912310305074</v>
+        <v>0.0033482743263753</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.01699467988181036</v>
+        <v>0.002717867800654306</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.01689530824162699</v>
+        <v>0.0025194133702926</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.01681540415986182</v>
+        <v>0.002319105430567792</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.01643260551608949</v>
+        <v>0.001833773864362565</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.01620470812174002</v>
+        <v>0.0009993219823296595</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.01620328243903835</v>
+        <v>-0.0002660270866436942</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.01616710952087352</v>
+        <v>-0.0003696587147338226</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.01577464507081161</v>
+        <v>-0.000573429672590331</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.01538266003204569</v>
+        <v>-0.00118037334158394</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.01533166169130196</v>
+        <v>-0.001323830826744699</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.01510226928397307</v>
+        <v>-0.001821566177296008</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.01488372871844601</v>
+        <v>-0.001853006451326467</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.01480109565762389</v>
+        <v>-0.001917004475206818</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.01474834158662097</v>
+        <v>-0.002167137909881545</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.01439218289938249</v>
+        <v>-0.002220931595692921</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.01428499303092767</v>
+        <v>-0.002410479297507373</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.01366477665137422</v>
+        <v>-0.002812789246732006</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.01351029247489777</v>
+        <v>-0.003043700844929553</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.01303774075007258</v>
+        <v>-0.004199616709560261</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.01244228831787897</v>
+        <v>-0.004212107722940117</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.01230081808857952</v>
+        <v>-0.004214018519286711</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.0121900158613073</v>
+        <v>-0.004379956067067536</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.01207500166452347</v>
+        <v>-0.004542718514123467</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.01204085944735045</v>
+        <v>-0.004623290752471809</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.01184477929802497</v>
+        <v>-0.004763111604729531</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.01161038641673096</v>
+        <v>-0.00516414898171369</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.01099914311572392</v>
+        <v>-0.005365295589080943</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.01063606166100151</v>
+        <v>-0.005513229329100477</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.01059523267634677</v>
+        <v>-0.005519005400211774</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.01042542190945972</v>
+        <v>-0.005532857440638361</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.01041430726169223</v>
+        <v>-0.005538360216196914</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.01041166472233135</v>
+        <v>-0.005574465494590175</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>0.01036242917451458</v>
+        <v>-0.005576683151201745</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>0.01032938364310443</v>
+        <v>-0.005767201640595854</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>0.009901644898147044</v>
+        <v>-0.005777847403830583</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>0.009823051762806401</v>
+        <v>-0.005812313899778654</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>0.009801587321246252</v>
+        <v>-0.006136377787509195</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>0.009675083766903292</v>
+        <v>-0.00625770843709339</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>0.009672789531914416</v>
+        <v>-0.006448929903674516</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>0.009566322539696026</v>
+        <v>-0.006863517728826984</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>0.009186619947560759</v>
+        <v>-0.007011627862501979</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>0.008905837802250405</v>
+        <v>-0.007259287040554896</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>0.008856978172896657</v>
+        <v>-0.007512834714188732</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>0.008835805332114699</v>
+        <v>-0.007852282677559996</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>0.008697230195204853</v>
+        <v>-0.008327293881804199</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>0.008596715006461642</v>
+        <v>-0.008800220074865583</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>0.008444032041059701</v>
+        <v>-0.008800579257693064</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>0.00832419542930718</v>
+        <v>-0.009117471586666315</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>0.008323183397959566</v>
+        <v>-0.009142339114001419</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>0.007422340650829584</v>
+        <v>-0.009440544151231189</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>0.007373033478743851</v>
+        <v>-0.009477245671400625</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>0.00702116796522767</v>
+        <v>-0.009566188729392855</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>0.006884007212402565</v>
+        <v>-0.009634536754126732</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>0.006844513749502568</v>
+        <v>-0.0098112660787808</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>0.006343409018381818</v>
+        <v>-0.009850299885979075</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>0.005906399520430483</v>
+        <v>-0.009930257420151078</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>0.005763784897329982</v>
+        <v>-0.01011129155002966</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>0.005737815195470564</v>
+        <v>-0.01024859208293272</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>0.005537405387698424</v>
+        <v>-0.01074294181464386</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>0.005453006191037169</v>
+        <v>-0.01075457065784435</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>0.005236149625617914</v>
+        <v>-0.01123247358326884</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>0.005177948680105349</v>
+        <v>-0.01150521350212208</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>0.005177112174767018</v>
+        <v>-0.01163525862975423</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>0.005115513007017514</v>
+        <v>-0.01186171914003731</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>0.005078552724056884</v>
+        <v>-0.01197953675880858</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>0.004583237082879776</v>
+        <v>-0.01236738767339673</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>0.004399985220054914</v>
+        <v>-0.01268292463212373</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>0.004366906806298143</v>
+        <v>-0.0128028131471547</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>0.004145538410667005</v>
+        <v>-0.01293452021296992</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>0.004115767143425764</v>
+        <v>-0.01307538287563148</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>0.004013324190085488</v>
+        <v>-0.01351254733124152</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>0.003882416910724329</v>
+        <v>-0.01353008557669333</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>0.00375911734026424</v>
+        <v>-0.01356720824459823</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>0.003630525234566528</v>
+        <v>-0.01359014871721476</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>0.003565604279451628</v>
+        <v>-0.01401368626386945</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>0.003496808520627726</v>
+        <v>-0.01406039362403955</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>0.003442301759882804</v>
+        <v>-0.01411479108661562</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>0.003437989562515842</v>
+        <v>-0.0141402548099514</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>0.00335853356441973</v>
+        <v>-0.0142269290071908</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>0.003093980252374395</v>
+        <v>-0.01461554041264534</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>0.002862916787979009</v>
+        <v>-0.01539045976824716</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>0.002810533699813877</v>
+        <v>-0.01557811840069623</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>0.002716797771842971</v>
+        <v>-0.01585029359378709</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>0.002572726603407016</v>
+        <v>-0.01615611354321722</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>0.002557036934056844</v>
+        <v>-0.01639731868418182</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>0.002468913781833448</v>
+        <v>-0.01648040229750569</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>0.002459525170571908</v>
+        <v>-0.01663254375051715</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>0.002457669425325104</v>
+        <v>-0.01680008806890376</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>0.002366620845703826</v>
+        <v>-0.01684105935003211</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>0.002328854891529009</v>
+        <v>-0.01685210880372678</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>0.002242647721620195</v>
+        <v>-0.0171076441494642</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>0.002240317850281004</v>
+        <v>-0.01768715909607033</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>0.001794062306366806</v>
+        <v>-0.01770890213650167</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>0.001708545199875511</v>
+        <v>-0.01781888173047319</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>0.001673894294152989</v>
+        <v>-0.01783744129473175</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>0.001630995009209713</v>
+        <v>-0.01786093448902626</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>0.001604796385605178</v>
+        <v>-0.01813019717428055</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>0.00147823556126947</v>
+        <v>-0.01823177527526987</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>0.001357862082347117</v>
+        <v>-0.01872015349341338</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>0.001284358223481163</v>
+        <v>-0.01879861782351655</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>0.001226504529241002</v>
+        <v>-0.01907601928457592</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>0.001192842942345784</v>
+        <v>-0.01925077052236479</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>0.001097523611210516</v>
+        <v>-0.01950652821266774</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>0.001091327009034693</v>
+        <v>-0.0195146476107263</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>0.000509920603174896</v>
+        <v>-0.01960006539051951</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>0.0002778437513057952</v>
+        <v>-0.01994749767869819</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>0.0001005564835925288</v>
+        <v>-0.02038005092943851</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>7.940071815326633e-05</v>
+        <v>-0.02044568352106113</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.0002101748355630706</v>
+        <v>-0.02073625185431793</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.0002778000533623093</v>
+        <v>-0.02104679001566201</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.0003696492873404011</v>
+        <v>-0.02111035929993943</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.0007450917168281279</v>
+        <v>-0.0213302092345431</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.000845372559521107</v>
+        <v>-0.02155053916579142</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.001207547811997833</v>
+        <v>-0.02166609292694555</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.001242630299765568</v>
+        <v>-0.02223790976195739</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.001247531605685248</v>
+        <v>-0.02230669695975662</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.001421586844760125</v>
+        <v>-0.02239201389607581</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.001687290010247144</v>
+        <v>-0.02241623532807679</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.001728480836306612</v>
+        <v>-0.02276695924779715</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.002320689085013927</v>
+        <v>-0.02299557738156566</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.002626684702044857</v>
+        <v>-0.02300546936658665</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.003252852412394591</v>
+        <v>-0.02335937448192194</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.003338050658217573</v>
+        <v>-0.02360306536422097</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.003360068908781932</v>
+        <v>-0.02379116121711455</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.0034017912925699</v>
+        <v>-0.02407396231059655</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.003402699138472576</v>
+        <v>-0.02470323041083333</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.003431720200478994</v>
+        <v>-0.02486184144627535</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.003479411004608135</v>
+        <v>-0.02496169705791695</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.003843664951170167</v>
+        <v>-0.02503964084424892</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.004212786868920571</v>
+        <v>-0.02516670331038884</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.004828453721631765</v>
+        <v>-0.02540805472290764</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.005094501555844677</v>
+        <v>-0.02588078737026822</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.005355511507523558</v>
+        <v>-0.0259549825575377</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.005422094229755703</v>
+        <v>-0.02641824581333274</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.00650468406855309</v>
+        <v>-0.02648910274030991</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.006668902825903267</v>
+        <v>-0.02734573686403075</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.006699540964362094</v>
+        <v>-0.0273827250568851</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.006969190556742055</v>
+        <v>-0.02770472369178434</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.007235207592018456</v>
+        <v>-0.0285803990831992</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.007383493285023746</v>
+        <v>-0.0289759045284248</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.007672064356898378</v>
+        <v>-0.02908957935644885</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.008374736913065783</v>
+        <v>-0.02949066988514659</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.008796620130326116</v>
+        <v>-0.02992356617768788</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.008887188551888525</v>
+        <v>-0.03081274883182661</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.009525148367388714</v>
+        <v>-0.03154857512775988</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.009546896835008201</v>
+        <v>-0.0317209148536417</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.009807588579898163</v>
+        <v>-0.03175400208739187</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.009808638476607512</v>
+        <v>-0.03218778854777016</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.01046861049221304</v>
+        <v>-0.0324270179235796</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.01112940967482023</v>
+        <v>-0.03365248839541901</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.01225602176072949</v>
+        <v>-0.03381916310281985</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.01231522580636613</v>
+        <v>-0.0346894727732725</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.01248951975689772</v>
+        <v>-0.03544247252077548</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.01318212689138809</v>
+        <v>-0.03554181315175475</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.01360503053983475</v>
+        <v>-0.03672811401056186</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.01543198328022788</v>
+        <v>-0.03857696601345972</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.01575209844377135</v>
+        <v>-0.04799002890599902</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.02171215646666258</v>
+        <v>-0.05126021760425326</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
     <t>884130.WI</t>
   </si>
   <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
     <t>884149.WI</t>
   </si>
   <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
   </si>
   <si>
     <t>884124.WI</t>
   </si>
   <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
   </si>
   <si>
     <t>884228.WI</t>
   </si>
   <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
     <t>LNG指数</t>
   </si>
   <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
     <t>油气改革指数</t>
   </si>
   <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
   </si>
   <si>
     <t>PM2.5指数</t>
   </si>
   <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
   </si>
   <si>
     <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.03832231102335282</v>
+        <v>0.1614979853646497</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.03655698967480348</v>
+        <v>0.1200917173545977</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.02628395219062574</v>
+        <v>0.1119044009508643</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.0218083456991216</v>
+        <v>0.04712121938714309</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.02153334619473113</v>
+        <v>0.03837519703805192</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.02059937131283163</v>
+        <v>0.02882327110947736</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.01934501525681731</v>
+        <v>0.02682423780715393</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.01675198700441216</v>
+        <v>0.0242543331305245</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.01582166300095</v>
+        <v>0.02377279301301516</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.01316193135348631</v>
+        <v>0.02371193830497575</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.01014339282943566</v>
+        <v>0.0235508757801135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.009803333321931174</v>
+        <v>0.01762378838786494</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.007982443014269647</v>
+        <v>0.01721517472572676</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.006834457494125035</v>
+        <v>0.0170634930091571</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.006059234754761222</v>
+        <v>0.01641687106283252</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.005287329420924802</v>
+        <v>0.01636994314648432</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.005067331253811647</v>
+        <v>0.01570943715093165</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.00496411150764331</v>
+        <v>0.01308313893455115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.004801098000137616</v>
+        <v>0.01269412602214359</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.004220490319262193</v>
+        <v>0.01248200585131687</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.004103097307756487</v>
+        <v>0.01242420712965076</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.003982461883264898</v>
+        <v>0.01043856054179848</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.003838901891494162</v>
+        <v>0.01014864136345839</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.0033482743263753</v>
+        <v>0.009603376736732949</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.002717867800654306</v>
+        <v>0.009308381710613212</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.0025194133702926</v>
+        <v>0.008953989759918235</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.002319105430567792</v>
+        <v>0.008353261159124825</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.001833773864362565</v>
+        <v>0.008223432284065302</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.0009993219823296595</v>
+        <v>0.007407058972038305</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>-0.0002660270866436942</v>
+        <v>0.00684951886373053</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>-0.0003696587147338226</v>
+        <v>0.006033981158749979</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>-0.000573429672590331</v>
+        <v>0.005383373901251209</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>-0.00118037334158394</v>
+        <v>0.005077130431951682</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>-0.001323830826744699</v>
+        <v>0.004861289791608714</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>-0.001821566177296008</v>
+        <v>0.004429307953140338</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>-0.001853006451326467</v>
+        <v>0.004388203908296529</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>-0.001917004475206818</v>
+        <v>0.004264010991519962</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>-0.002167137909881545</v>
+        <v>0.003998690100914137</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>-0.002220931595692921</v>
+        <v>0.003746172113969992</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>-0.002410479297507373</v>
+        <v>0.003179926113943354</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>-0.002812789246732006</v>
+        <v>0.003155128209795466</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>-0.003043700844929553</v>
+        <v>0.003086070916587191</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>-0.004199616709560261</v>
+        <v>0.003078364187883098</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>-0.004212107722940117</v>
+        <v>0.003018600501871971</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>-0.004214018519286711</v>
+        <v>0.002996282427582431</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>-0.004379956067067536</v>
+        <v>0.002176746440424093</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>-0.004542718514123467</v>
+        <v>0.001857922567969572</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>-0.004623290752471809</v>
+        <v>0.001730094335303356</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>-0.004763111604729531</v>
+        <v>0.00153247795505651</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>-0.00516414898171369</v>
+        <v>0.001498247822460774</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>-0.005365295589080943</v>
+        <v>0.001295446843374348</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>-0.005513229329100477</v>
+        <v>0.001030766512162051</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>-0.005519005400211774</v>
+        <v>0.001009517982558883</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>-0.005532857440638361</v>
+        <v>0.0006750806495972039</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>-0.005538360216196914</v>
+        <v>0.0006393773246431422</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>-0.005574465494590175</v>
+        <v>0.0004781697686053743</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.005576683151201745</v>
+        <v>-0.0002399384777697078</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.005767201640595854</v>
+        <v>-0.0002580835681271765</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.005777847403830583</v>
+        <v>-0.0006184612594068994</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.005812313899778654</v>
+        <v>-0.0009207440104399556</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.006136377787509195</v>
+        <v>-0.001219911896908066</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.00625770843709339</v>
+        <v>-0.001276050416784025</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.006448929903674516</v>
+        <v>-0.001699557979571664</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.006863517728826984</v>
+        <v>-0.00185483973522782</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.007011627862501979</v>
+        <v>-0.001870318454758046</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.007259287040554896</v>
+        <v>-0.001928663101887218</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.007512834714188732</v>
+        <v>-0.001975997536373453</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.007852282677559996</v>
+        <v>-0.002309343935426145</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.008327293881804199</v>
+        <v>-0.002425570857151005</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.008800220074865583</v>
+        <v>-0.002562868109461491</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.008800579257693064</v>
+        <v>-0.002581134142716213</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.009117471586666315</v>
+        <v>-0.00281550419286114</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.009142339114001419</v>
+        <v>-0.002925783055722886</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.009440544151231189</v>
+        <v>-0.0029747830262431</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.009477245671400625</v>
+        <v>-0.002993487926409188</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.009566188729392855</v>
+        <v>-0.003048714772840855</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.009634536754126732</v>
+        <v>-0.003368047746929004</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.0098112660787808</v>
+        <v>-0.00375161496232701</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.009850299885979075</v>
+        <v>-0.003906962372721701</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.009930257420151078</v>
+        <v>-0.003930458369932999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.01011129155002966</v>
+        <v>-0.003999095871711544</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.01024859208293272</v>
+        <v>-0.004003001025892905</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.01074294181464386</v>
+        <v>-0.004277431296941248</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.01075457065784435</v>
+        <v>-0.004547083932142759</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.01123247358326884</v>
+        <v>-0.004639316908901181</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.01150521350212208</v>
+        <v>-0.004762605583476742</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.01163525862975423</v>
+        <v>-0.004969537776352229</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.01186171914003731</v>
+        <v>-0.005272254967186418</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.01197953675880858</v>
+        <v>-0.005452180999028555</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.01236738767339673</v>
+        <v>-0.005522889446525237</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.01268292463212373</v>
+        <v>-0.005652903679206456</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.0128028131471547</v>
+        <v>-0.005784427071900522</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.01293452021296992</v>
+        <v>-0.006046906713735312</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.01307538287563148</v>
+        <v>-0.006196913132157311</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.01351254733124152</v>
+        <v>-0.006209515777551133</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.01353008557669333</v>
+        <v>-0.006460593079747112</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.01356720824459823</v>
+        <v>-0.006566433982938435</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.01359014871721476</v>
+        <v>-0.006610977416074193</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.01401368626386945</v>
+        <v>-0.006800740680154127</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.01406039362403955</v>
+        <v>-0.006857114104910855</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.01411479108661562</v>
+        <v>-0.006930534397271315</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.0141402548099514</v>
+        <v>-0.007092430934277916</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.0142269290071908</v>
+        <v>-0.007119419520654868</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.01461554041264534</v>
+        <v>-0.007422617642254825</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.01539045976824716</v>
+        <v>-0.007447047810842489</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.01557811840069623</v>
+        <v>-0.008188520009077549</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.01585029359378709</v>
+        <v>-0.008292945496631954</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.01615611354321722</v>
+        <v>-0.008461332284185885</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.01639731868418182</v>
+        <v>-0.008822557532149222</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.01648040229750569</v>
+        <v>-0.008872686330127499</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.01663254375051715</v>
+        <v>-0.0090712211107008</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.01680008806890376</v>
+        <v>-0.009143293277782627</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.01684105935003211</v>
+        <v>-0.009148703034980943</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.01685210880372678</v>
+        <v>-0.009665590537377033</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.0171076441494642</v>
+        <v>-0.009675321284489558</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.01768715909607033</v>
+        <v>-0.009889497390582536</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.01770890213650167</v>
+        <v>-0.009919137181533588</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.01781888173047319</v>
+        <v>-0.01036932082208553</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.01783744129473175</v>
+        <v>-0.01065940783045893</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.01786093448902626</v>
+        <v>-0.01076765506615152</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.01813019717428055</v>
+        <v>-0.01087600102812003</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.01823177527526987</v>
+        <v>-0.01095498448741683</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.01872015349341338</v>
+        <v>-0.01096362790591632</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.01879861782351655</v>
+        <v>-0.01109387954769603</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.01907601928457592</v>
+        <v>-0.01126085288298373</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.01925077052236479</v>
+        <v>-0.01131187497172836</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.01950652821266774</v>
+        <v>-0.01134952210956897</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.0195146476107263</v>
+        <v>-0.01142210721376513</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.01960006539051951</v>
+        <v>-0.01149662564316278</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.01994749767869819</v>
+        <v>-0.01154261780147481</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.02038005092943851</v>
+        <v>-0.01191271546322659</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.02044568352106113</v>
+        <v>-0.01214219670883787</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.02073625185431793</v>
+        <v>-0.01240284560636162</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.02104679001566201</v>
+        <v>-0.01250432525833634</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.02111035929993943</v>
+        <v>-0.01311351858990517</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.0213302092345431</v>
+        <v>-0.01314364388472278</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.02155053916579142</v>
+        <v>-0.01348419091740038</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.02166609292694555</v>
+        <v>-0.01369186055938254</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.02223790976195739</v>
+        <v>-0.01378511114415493</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.02230669695975662</v>
+        <v>-0.01411073454372058</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.02239201389607581</v>
+        <v>-0.01424157510406665</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.02241623532807679</v>
+        <v>-0.01433119040780284</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.02276695924779715</v>
+        <v>-0.01469047778587707</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.02299557738156566</v>
+        <v>-0.01472568568248367</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.02300546936658665</v>
+        <v>-0.01473689314232662</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.02335937448192194</v>
+        <v>-0.01483520707826269</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.02360306536422097</v>
+        <v>-0.01511361044542714</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.02379116121711455</v>
+        <v>-0.01535866571882283</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.02407396231059655</v>
+        <v>-0.01540189210807952</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.02470323041083333</v>
+        <v>-0.01559036145803727</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.02486184144627535</v>
+        <v>-0.01583082332020347</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.02496169705791695</v>
+        <v>-0.01657095919067786</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.02503964084424892</v>
+        <v>-0.01676006963715637</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.02516670331038884</v>
+        <v>-0.01678868686422563</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.02540805472290764</v>
+        <v>-0.01755352758164919</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.02588078737026822</v>
+        <v>-0.01780005097692305</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.0259549825575377</v>
+        <v>-0.01780110420051884</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.02641824581333274</v>
+        <v>-0.01796303783520881</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.02648910274030991</v>
+        <v>-0.01796662324381249</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.02734573686403075</v>
+        <v>-0.01849879074698335</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.0273827250568851</v>
+        <v>-0.01873254902798505</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.02770472369178434</v>
+        <v>-0.01891942787539325</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.0285803990831992</v>
+        <v>-0.01914685166315877</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.0289759045284248</v>
+        <v>-0.01916962573739989</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.02908957935644885</v>
+        <v>-0.01930682856971599</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.02949066988514659</v>
+        <v>-0.01974789830956858</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.02992356617768788</v>
+        <v>-0.01975103408533474</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.03081274883182661</v>
+        <v>-0.01982526141301155</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.03154857512775988</v>
+        <v>-0.02024091479752821</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.0317209148536417</v>
+        <v>-0.02027743793208669</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.03175400208739187</v>
+        <v>-0.020767266425333</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.03218778854777016</v>
+        <v>-0.02106539761319948</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.0324270179235796</v>
+        <v>-0.02130738591151837</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.03365248839541901</v>
+        <v>-0.02147964559706372</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.03381916310281985</v>
+        <v>-0.02163426280904235</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.0346894727732725</v>
+        <v>-0.02196169597812048</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.03544247252077548</v>
+        <v>-0.02329232672011661</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.03554181315175475</v>
+        <v>-0.02905821982748069</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.03672811401056186</v>
+        <v>-0.02926551610938677</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.03857696601345972</v>
+        <v>-0.03066148957582437</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.04799002890599902</v>
+        <v>-0.03572791575432477</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.05126021760425326</v>
+        <v>-0.03596175328777107</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
     <t>884215.WI</t>
   </si>
   <si>
-    <t>884223.WI</t>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
   </si>
   <si>
     <t>884189.WI</t>
   </si>
   <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
   </si>
   <si>
     <t>884249.WI</t>
   </si>
   <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
   </si>
   <si>
     <t>884177.WI</t>
   </si>
   <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
     <t>884035.WI</t>
   </si>
   <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
     <t>区块链指数</t>
   </si>
   <si>
-    <t>小程序指数</t>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
   </si>
   <si>
     <t>次新股指数</t>
   </si>
   <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
   </si>
   <si>
     <t>维生素指数</t>
   </si>
   <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
   </si>
   <si>
     <t>沪股通50指数</t>
   </si>
   <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
     <t>新能源指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1614979853646497</v>
+        <v>0.1389937531371548</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.1200917173545977</v>
+        <v>0.1306054315776584</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.1119044009508643</v>
+        <v>0.128773296561979</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.04712121938714309</v>
+        <v>0.1067257871050591</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.03837519703805192</v>
+        <v>0.1058077664018147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.02882327110947736</v>
+        <v>0.1051070651722148</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.02682423780715393</v>
+        <v>0.1036684684373239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.0242543331305245</v>
+        <v>0.09232473381441864</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.02377279301301516</v>
+        <v>0.08916118654071914</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.02371193830497575</v>
+        <v>0.08857393636139776</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.0235508757801135</v>
+        <v>0.08769636108098267</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.01762378838786494</v>
+        <v>0.08502548934353005</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.01721517472572676</v>
+        <v>0.08228201672738522</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.0170634930091571</v>
+        <v>0.08225441897306252</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.01641687106283252</v>
+        <v>0.08096596862946481</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.01636994314648432</v>
+        <v>0.08045275482093772</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.01570943715093165</v>
+        <v>0.08035725966477414</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.01308313893455115</v>
+        <v>0.07989572356714381</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.01269412602214359</v>
+        <v>0.07980725261079868</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.01248200585131687</v>
+        <v>0.07951151061835238</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.01242420712965076</v>
+        <v>0.07916372537533611</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.01043856054179848</v>
+        <v>0.07796080367994085</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.01014864136345839</v>
+        <v>0.07538483347144487</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.009603376736732949</v>
+        <v>0.07491948733338627</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.009308381710613212</v>
+        <v>0.07455270784959556</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.008953989759918235</v>
+        <v>0.07434074338803032</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.008353261159124825</v>
+        <v>0.07359282691067248</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.008223432284065302</v>
+        <v>0.07216434733634824</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.007407058972038305</v>
+        <v>0.07143976093183291</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.00684951886373053</v>
+        <v>0.07033387486087328</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.006033981158749979</v>
+        <v>0.07025938201339854</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.005383373901251209</v>
+        <v>0.06916158896764157</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.005077130431951682</v>
+        <v>0.06885980060981023</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.004861289791608714</v>
+        <v>0.06879191574490018</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.004429307953140338</v>
+        <v>0.06774745765177692</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.004388203908296529</v>
+        <v>0.06689130268404408</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.004264010991519962</v>
+        <v>0.06686370478266923</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.003998690100914137</v>
+        <v>0.06659278652338685</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.003746172113969992</v>
+        <v>0.06642170290593774</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.003179926113943354</v>
+        <v>0.0659958834318779</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.003155128209795466</v>
+        <v>0.06561773417186512</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.003086070916587191</v>
+        <v>0.06537273918465525</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.003078364187883098</v>
+        <v>0.06536691458621546</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.003018600501871971</v>
+        <v>0.06370128098820049</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.002996282427582431</v>
+        <v>0.06337099305910354</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.002176746440424093</v>
+        <v>0.06330357642428019</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.001857922567969572</v>
+        <v>0.06239790062532258</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.001730094335303356</v>
+        <v>0.06135926461819374</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.00153247795505651</v>
+        <v>0.05899023061876085</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.001498247822460774</v>
+        <v>0.05739791624509794</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.001295446843374348</v>
+        <v>0.05537856560369492</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.001030766512162051</v>
+        <v>0.05477297911780221</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.001009517982558883</v>
+        <v>0.05454777563610436</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.0006750806495972039</v>
+        <v>0.05441397681702154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.0006393773246431422</v>
+        <v>0.05436813718234923</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.0004781697686053743</v>
+        <v>0.05428128368280638</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.0002399384777697078</v>
+        <v>0.05349222955509925</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.0002580835681271765</v>
+        <v>0.05286246300185371</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.0006184612594068994</v>
+        <v>0.05265642481565269</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.0009207440104399556</v>
+        <v>0.05232742037716176</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.001219911896908066</v>
+        <v>0.05208620566266231</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.001276050416784025</v>
+        <v>0.05205603819559967</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.001699557979571664</v>
+        <v>0.05071064233164346</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.00185483973522782</v>
+        <v>0.05043904669383825</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.001870318454758046</v>
+        <v>0.04974643142288415</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.001928663101887218</v>
+        <v>0.04879994508997698</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.001975997536373453</v>
+        <v>0.04862535680623825</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.002309343935426145</v>
+        <v>0.04712728539388356</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.002425570857151005</v>
+        <v>0.04707393421770023</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.002562868109461491</v>
+        <v>0.04703279633703583</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.002581134142716213</v>
+        <v>0.04692921377132508</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.00281550419286114</v>
+        <v>0.04679117933974619</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.002925783055722886</v>
+        <v>0.04672646103555955</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.0029747830262431</v>
+        <v>0.04656814641712348</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.002993487926409188</v>
+        <v>0.04622860321505495</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.003048714772840855</v>
+        <v>0.04585966215579407</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.003368047746929004</v>
+        <v>0.04551691959916204</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.00375161496232701</v>
+        <v>0.04545137626738249</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.003906962372721701</v>
+        <v>0.04496070539703401</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.003930458369932999</v>
+        <v>0.04463939916753157</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.003999095871711544</v>
+        <v>0.0437530357696494</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.004003001025892905</v>
+        <v>0.04337965871472038</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.004277431296941248</v>
+        <v>0.04332979551841598</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.004547083932142759</v>
+        <v>0.04318348886373036</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.004639316908901181</v>
+        <v>0.04272331633517656</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.004762605583476742</v>
+        <v>0.04264951545912155</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.004969537776352229</v>
+        <v>0.04255832720724295</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.005272254967186418</v>
+        <v>0.04226906319149415</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.005452180999028555</v>
+        <v>0.04217477599455033</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.005522889446525237</v>
+        <v>0.04192535662448771</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.005652903679206456</v>
+        <v>0.04133625105169791</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.005784427071900522</v>
+        <v>0.04113414775432234</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.006046906713735312</v>
+        <v>0.04111532217879366</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.006196913132157311</v>
+        <v>0.0406754368777742</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.006209515777551133</v>
+        <v>0.03946743191495328</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.006460593079747112</v>
+        <v>0.03887014094166608</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.006566433982938435</v>
+        <v>0.03873236196283747</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.006610977416074193</v>
+        <v>0.03807506100447555</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.006800740680154127</v>
+        <v>0.03803366027191846</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.006857114104910855</v>
+        <v>0.03789038671442824</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.006930534397271315</v>
+        <v>0.03763087197950665</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.007092430934277916</v>
+        <v>0.03755606840671089</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.007119419520654868</v>
+        <v>0.03738783944370194</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.007422617642254825</v>
+        <v>0.03662372299627514</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.007447047810842489</v>
+        <v>0.03577929626748433</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.008188520009077549</v>
+        <v>0.03577210684157439</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.008292945496631954</v>
+        <v>0.03515802771714971</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.008461332284185885</v>
+        <v>0.03505878952435793</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.008822557532149222</v>
+        <v>0.03499998645240954</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.008872686330127499</v>
+        <v>0.03374451122228561</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.0090712211107008</v>
+        <v>0.03311873113543196</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.009143293277782627</v>
+        <v>0.03262261652647092</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.009148703034980943</v>
+        <v>0.03242015487277361</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.009665590537377033</v>
+        <v>0.03212409572138664</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.009675321284489558</v>
+        <v>0.03168450723285643</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.009889497390582536</v>
+        <v>0.03147167535725837</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.009919137181533588</v>
+        <v>0.03129392911376749</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.01036932082208553</v>
+        <v>0.03088078810872652</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.01065940783045893</v>
+        <v>0.02993314996239937</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.01076765506615152</v>
+        <v>0.02989319433536664</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.01087600102812003</v>
+        <v>0.02855769209005588</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.01095498448741683</v>
+        <v>0.02834966112349591</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.01096362790591632</v>
+        <v>0.02796897295093603</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.01109387954769603</v>
+        <v>0.02796593784207491</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.01126085288298373</v>
+        <v>0.02790952540437042</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.01131187497172836</v>
+        <v>0.02690723275713469</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.01134952210956897</v>
+        <v>0.02669351413823651</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.01142210721376513</v>
+        <v>0.02649121657250819</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.01149662564316278</v>
+        <v>0.02645090690123375</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.01154261780147481</v>
+        <v>0.02637977045222839</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.01191271546322659</v>
+        <v>0.0259842126889962</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.01214219670883787</v>
+        <v>0.02561979754683996</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.01240284560636162</v>
+        <v>0.02525118810074267</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.01250432525833634</v>
+        <v>0.02511115611262782</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.01311351858990517</v>
+        <v>0.02509429118064443</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.01314364388472278</v>
+        <v>0.02375720185010155</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.01348419091740038</v>
+        <v>0.02373723377374981</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.01369186055938254</v>
+        <v>0.02347804737285153</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.01378511114415493</v>
+        <v>0.02343532130048898</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.01411073454372058</v>
+        <v>0.02314848548338566</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.01424157510406665</v>
+        <v>0.02312272348431499</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.01433119040780284</v>
+        <v>0.02277853872841185</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.01469047778587707</v>
+        <v>0.02255159939369755</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.01472568568248367</v>
+        <v>0.02194770784104949</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.01473689314232662</v>
+        <v>0.02174714892280671</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.01483520707826269</v>
+        <v>0.02108005433916271</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.01511361044542714</v>
+        <v>0.02100950326429007</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.01535866571882283</v>
+        <v>0.02099306262030676</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.01540189210807952</v>
+        <v>0.02044162760141988</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.01559036145803727</v>
+        <v>0.02021098783009156</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.01583082332020347</v>
+        <v>0.02007615869683765</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.01657095919067786</v>
+        <v>0.01998776392238599</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.01676006963715637</v>
+        <v>0.01801084309568668</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.01678868686422563</v>
+        <v>0.01784268956561275</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.01755352758164919</v>
+        <v>0.01761193824618768</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.01780005097692305</v>
+        <v>0.01706911114242549</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.01780110420051884</v>
+        <v>0.01705473610005659</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.01796303783520881</v>
+        <v>0.01705071430860139</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.01796662324381249</v>
+        <v>0.01697537657499604</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.01849879074698335</v>
+        <v>0.01550153188794878</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.01873254902798505</v>
+        <v>0.01471511612183507</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.01891942787539325</v>
+        <v>0.01451475955382375</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.01914685166315877</v>
+        <v>0.01431732299680188</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.01916962573739989</v>
+        <v>0.01384637228315233</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.01930682856971599</v>
+        <v>0.01330754050525895</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.01974789830956858</v>
+        <v>0.01319522866155443</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.01975103408533474</v>
+        <v>0.01289446706063968</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.01982526141301155</v>
+        <v>0.01265708761106876</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.02024091479752821</v>
+        <v>0.0125567693400781</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.02027743793208669</v>
+        <v>0.01236167819596368</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.020767266425333</v>
+        <v>0.01191007078638129</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.02106539761319948</v>
+        <v>0.008786249303382121</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.02130738591151837</v>
+        <v>0.006954106391869219</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.02147964559706372</v>
+        <v>0.005041499866940358</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.02163426280904235</v>
+        <v>0.00493656519051533</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.02196169597812048</v>
+        <v>0.004568646413445787</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.02329232672011661</v>
+        <v>0.00435560611837249</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.02905821982748069</v>
+        <v>-0.0003674094834628105</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.02926551610938677</v>
+        <v>-0.005905885917492748</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.03066148957582437</v>
+        <v>-0.006258998318853792</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.03572791575432477</v>
+        <v>-0.01060802053849208</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.03596175328777107</v>
+        <v>-0.1349881610810559</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
     <t>884098.WI</t>
   </si>
   <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
     <t>884169.WI</t>
   </si>
   <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
+    <t>884119.WI</t>
   </si>
   <si>
     <t>884224.WI</t>
   </si>
   <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
     <t>884185.WI</t>
   </si>
   <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
+    <t>884225.WI</t>
   </si>
   <si>
     <t>884189.WI</t>
   </si>
   <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
     <t>884249.WI</t>
   </si>
   <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
     <t>IPV6指数</t>
   </si>
   <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
     <t>去IOE指数</t>
   </si>
   <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
+    <t>3D打印指数</t>
   </si>
   <si>
     <t>5G指数</t>
   </si>
   <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
     <t>高送转概念指数</t>
   </si>
   <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
+    <t>禽流感指数</t>
   </si>
   <si>
     <t>次新股指数</t>
   </si>
   <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
     <t>维生素指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1389937531371548</v>
+        <v>0.1006023046230131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.1306054315776584</v>
+        <v>0.05658573169289149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.128773296561979</v>
+        <v>0.03394614719805333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.1067257871050591</v>
+        <v>0.03111954528455896</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.1058077664018147</v>
+        <v>0.02686304407726281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.1051070651722148</v>
+        <v>0.02647295251910786</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.1036684684373239</v>
+        <v>0.0256431781015285</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.09232473381441864</v>
+        <v>0.0243710310785461</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.08916118654071914</v>
+        <v>0.02186950723228298</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.08857393636139776</v>
+        <v>0.0208005601306569</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.08769636108098267</v>
+        <v>0.02057300566253839</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.08502548934353005</v>
+        <v>0.01811508615702273</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.08228201672738522</v>
+        <v>0.01638228832027333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.08225441897306252</v>
+        <v>0.01599159545770812</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.08096596862946481</v>
+        <v>0.01576584237559131</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.08045275482093772</v>
+        <v>0.01448008270208878</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.08035725966477414</v>
+        <v>0.0141389007445607</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.07989572356714381</v>
+        <v>0.01353165956002722</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.07980725261079868</v>
+        <v>0.01165186322985656</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.07951151061835238</v>
+        <v>0.01160593798978127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.07916372537533611</v>
+        <v>0.01066245789055587</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.07796080367994085</v>
+        <v>0.01047798890421969</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.07538483347144487</v>
+        <v>0.01021286960461421</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.07491948733338627</v>
+        <v>0.009610461412853155</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.07455270784959556</v>
+        <v>0.009542985077146904</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.07434074338803032</v>
+        <v>0.008084289284152169</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.07359282691067248</v>
+        <v>0.007542891600574197</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.07216434733634824</v>
+        <v>0.007368902316799986</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.07143976093183291</v>
+        <v>0.007248149411831939</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.07033387486087328</v>
+        <v>0.006739702959187577</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.07025938201339854</v>
+        <v>0.00671937412282908</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.06916158896764157</v>
+        <v>0.006336548501800321</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.06885980060981023</v>
+        <v>0.004589242905274515</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.06879191574490018</v>
+        <v>0.003907314465614098</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.06774745765177692</v>
+        <v>0.003288804167249637</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.06689130268404408</v>
+        <v>0.002855467202246054</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.06686370478266923</v>
+        <v>0.002635879090031823</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.06659278652338685</v>
+        <v>0.002411282616633148</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.06642170290593774</v>
+        <v>0.002402994207710618</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.0659958834318779</v>
+        <v>0.002221632174574051</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.06561773417186512</v>
+        <v>0.0019467852207673</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.06537273918465525</v>
+        <v>0.001215349429822599</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.06536691458621546</v>
+        <v>0.001176658295355182</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.06370128098820049</v>
+        <v>0.001035141363538994</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.06337099305910354</v>
+        <v>0.000867955236783402</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.06330357642428019</v>
+        <v>0.000794310403993137</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.06239790062532258</v>
+        <v>0.0006769695674477827</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.06135926461819374</v>
+        <v>0.0003774878101721058</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.05899023061876085</v>
+        <v>0.0002293735561273991</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.05739791624509794</v>
+        <v>-8.762378406534932e-05</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.05537856560369492</v>
+        <v>-0.0002972600754372889</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.05477297911780221</v>
+        <v>-0.0006050342369313677</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.05454777563610436</v>
+        <v>-0.0007346491108117803</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.05441397681702154</v>
+        <v>-0.0009255563725770743</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.05436813718234923</v>
+        <v>-0.001349563986801638</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.05428128368280638</v>
+        <v>-0.001408559940966114</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>0.05349222955509925</v>
+        <v>-0.001487292013618968</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>0.05286246300185371</v>
+        <v>-0.001715306912284609</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>0.05265642481565269</v>
+        <v>-0.001776497374443076</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>0.05232742037716176</v>
+        <v>-0.002060065702721436</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>0.05208620566266231</v>
+        <v>-0.00265781401415166</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>0.05205603819559967</v>
+        <v>-0.002754376549054305</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>0.05071064233164346</v>
+        <v>-0.003590853207337541</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>0.05043904669383825</v>
+        <v>-0.003598007736454911</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>0.04974643142288415</v>
+        <v>-0.00406177170581179</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>0.04879994508997698</v>
+        <v>-0.004135738304087311</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>0.04862535680623825</v>
+        <v>-0.004150517603448978</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>0.04712728539388356</v>
+        <v>-0.004153491873282178</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>0.04707393421770023</v>
+        <v>-0.004240876904757274</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>0.04703279633703583</v>
+        <v>-0.004377844065147407</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>0.04692921377132508</v>
+        <v>-0.004656398342647083</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>0.04679117933974619</v>
+        <v>-0.004801495551386314</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>0.04672646103555955</v>
+        <v>-0.004844078593030265</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>0.04656814641712348</v>
+        <v>-0.004917286325328951</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>0.04622860321505495</v>
+        <v>-0.004927410196872595</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>0.04585966215579407</v>
+        <v>-0.005143735780931635</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>0.04551691959916204</v>
+        <v>-0.005258881695493933</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>0.04545137626738249</v>
+        <v>-0.005332753406279034</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>0.04496070539703401</v>
+        <v>-0.005409121946603923</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>0.04463939916753157</v>
+        <v>-0.005685614402388683</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>0.0437530357696494</v>
+        <v>-0.005774166990962448</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>0.04337965871472038</v>
+        <v>-0.005838369318305614</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>0.04332979551841598</v>
+        <v>-0.006130280201105842</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>0.04318348886373036</v>
+        <v>-0.006133093022853697</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>0.04272331633517656</v>
+        <v>-0.006164715837950641</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>0.04264951545912155</v>
+        <v>-0.006361890560397931</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>0.04255832720724295</v>
+        <v>-0.006695038357378058</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>0.04226906319149415</v>
+        <v>-0.006837125673232136</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>0.04217477599455033</v>
+        <v>-0.006846138434991489</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>0.04192535662448771</v>
+        <v>-0.006856586384954344</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>0.04133625105169791</v>
+        <v>-0.007354410735844086</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>0.04113414775432234</v>
+        <v>-0.007512900437989467</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>0.04111532217879366</v>
+        <v>-0.007564830940669176</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>0.0406754368777742</v>
+        <v>-0.007583488397044258</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>0.03946743191495328</v>
+        <v>-0.007690181066461022</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>0.03887014094166608</v>
+        <v>-0.007804259819527593</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>0.03873236196283747</v>
+        <v>-0.007867037288655343</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>0.03807506100447555</v>
+        <v>-0.007953320824566124</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>0.03803366027191846</v>
+        <v>-0.008337428293597071</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>0.03789038671442824</v>
+        <v>-0.008339758017560595</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>0.03763087197950665</v>
+        <v>-0.008380338744644944</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>0.03755606840671089</v>
+        <v>-0.008509676372112751</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>0.03738783944370194</v>
+        <v>-0.008514223404943233</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>0.03662372299627514</v>
+        <v>-0.008815990925951867</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>0.03577929626748433</v>
+        <v>-0.00890218282555022</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>0.03577210684157439</v>
+        <v>-0.009174426763933985</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>0.03515802771714971</v>
+        <v>-0.00928979038920863</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>0.03505878952435793</v>
+        <v>-0.009384621596455145</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>0.03499998645240954</v>
+        <v>-0.009433948696589645</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>0.03374451122228561</v>
+        <v>-0.009909124198888564</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>0.03311873113543196</v>
+        <v>-0.009965741924039317</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>0.03262261652647092</v>
+        <v>-0.01001410726661167</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>0.03242015487277361</v>
+        <v>-0.0102649575374163</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>0.03212409572138664</v>
+        <v>-0.01083166628247945</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>0.03168450723285643</v>
+        <v>-0.01123285537131136</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>0.03147167535725837</v>
+        <v>-0.01128186087968641</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>0.03129392911376749</v>
+        <v>-0.0113005385902859</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>0.03088078810872652</v>
+        <v>-0.0114074498052249</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>0.02993314996239937</v>
+        <v>-0.01156432953784492</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>0.02989319433536664</v>
+        <v>-0.01165054787647068</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>0.02855769209005588</v>
+        <v>-0.01188226452784691</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>0.02834966112349591</v>
+        <v>-0.01191097249454665</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>0.02796897295093603</v>
+        <v>-0.01202613217662929</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>0.02796593784207491</v>
+        <v>-0.01204940912846186</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>0.02790952540437042</v>
+        <v>-0.01223134075163113</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>0.02690723275713469</v>
+        <v>-0.0122764448739614</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>0.02669351413823651</v>
+        <v>-0.01242025116719392</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>0.02649121657250819</v>
+        <v>-0.01289458435287705</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>0.02645090690123375</v>
+        <v>-0.01347693526094251</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>0.02637977045222839</v>
+        <v>-0.01361516130775919</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>0.0259842126889962</v>
+        <v>-0.01371890661124053</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>0.02561979754683996</v>
+        <v>-0.01391582457122942</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>0.02525118810074267</v>
+        <v>-0.01421883842177585</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>0.02511115611262782</v>
+        <v>-0.01442773162164501</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>0.02509429118064443</v>
+        <v>-0.0144318808033177</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>0.02375720185010155</v>
+        <v>-0.01474385888445318</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>0.02373723377374981</v>
+        <v>-0.01537647084702709</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>0.02347804737285153</v>
+        <v>-0.0155897112177692</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>0.02343532130048898</v>
+        <v>-0.01571201838067127</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>0.02314848548338566</v>
+        <v>-0.0158356727869885</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>0.02312272348431499</v>
+        <v>-0.01591056297159743</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>0.02277853872841185</v>
+        <v>-0.01596413119293938</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>0.02255159939369755</v>
+        <v>-0.01633422754726743</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>0.02194770784104949</v>
+        <v>-0.01640571933185075</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>0.02174714892280671</v>
+        <v>-0.01644810205218084</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>0.02108005433916271</v>
+        <v>-0.01727726085683368</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>0.02100950326429007</v>
+        <v>-0.01734596702745528</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>0.02099306262030676</v>
+        <v>-0.01782150959661433</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>0.02044162760141988</v>
+        <v>-0.01813049152064938</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>0.02021098783009156</v>
+        <v>-0.01814499892987687</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>0.02007615869683765</v>
+        <v>-0.01860867526496979</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>0.01998776392238599</v>
+        <v>-0.01864701244651135</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>0.01801084309568668</v>
+        <v>-0.01903064050091785</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>0.01784268956561275</v>
+        <v>-0.01946346370081664</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>0.01761193824618768</v>
+        <v>-0.01950594530339134</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>0.01706911114242549</v>
+        <v>-0.01986620818131479</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>0.01705473610005659</v>
+        <v>-0.01986967257643579</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>0.01705071430860139</v>
+        <v>-0.02002635823589671</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>0.01697537657499604</v>
+        <v>-0.02020844212337092</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>0.01550153188794878</v>
+        <v>-0.02056529637432181</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>0.01471511612183507</v>
+        <v>-0.02091260125939121</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>0.01451475955382375</v>
+        <v>-0.02106370065746643</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>0.01431732299680188</v>
+        <v>-0.02114470442441541</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>0.01384637228315233</v>
+        <v>-0.02146499608769703</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>0.01330754050525895</v>
+        <v>-0.02156586049570008</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>0.01319522866155443</v>
+        <v>-0.02208429351168362</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>0.01289446706063968</v>
+        <v>-0.02228805213528662</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>0.01265708761106876</v>
+        <v>-0.02255891894454665</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>0.0125567693400781</v>
+        <v>-0.02260246466120419</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>0.01236167819596368</v>
+        <v>-0.02400935337011056</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>0.01191007078638129</v>
+        <v>-0.02448097207599931</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>0.008786249303382121</v>
+        <v>-0.02532974843673219</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>0.006954106391869219</v>
+        <v>-0.02631427398075004</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>0.005041499866940358</v>
+        <v>-0.02651151884253111</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>0.00493656519051533</v>
+        <v>-0.02756651601126592</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>0.004568646413445787</v>
+        <v>-0.02785449190978184</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>0.00435560611837249</v>
+        <v>-0.03155905578305729</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.0003674094834628105</v>
+        <v>-0.03177247394584504</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.005905885917492748</v>
+        <v>-0.0318472119785399</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.006258998318853792</v>
+        <v>-0.03248550363958802</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.01060802053849208</v>
+        <v>-0.04307520938537535</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.1349881610810559</v>
+        <v>-0.04862981624773632</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
     <t>884151.WI</t>
   </si>
   <si>
-    <t>884171.WI</t>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
   </si>
   <si>
     <t>884137.WI</t>
   </si>
   <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
   </si>
   <si>
     <t>884176.WI</t>
   </si>
   <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
     <t>创投指数</t>
   </si>
   <si>
-    <t>国资改革指数</t>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
   </si>
   <si>
     <t>智能电视指数</t>
   </si>
   <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
   </si>
   <si>
     <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1006023046230131</v>
+        <v>0.1535524224465179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.05658573169289149</v>
+        <v>0.01929602658939422</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.03394614719805333</v>
+        <v>0.009837721098345797</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.03111954528455896</v>
+        <v>0.00636422297342798</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.02686304407726281</v>
+        <v>0.00477473702605602</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.02647295251910786</v>
+        <v>-0.002290398075502131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.0256431781015285</v>
+        <v>-0.00631402742669962</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.0243710310785461</v>
+        <v>-0.01133993593691729</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.02186950723228298</v>
+        <v>-0.01276123065075097</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.0208005601306569</v>
+        <v>-0.01355426546390692</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.02057300566253839</v>
+        <v>-0.0162055717011812</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.01811508615702273</v>
+        <v>-0.01673450540155708</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.01638228832027333</v>
+        <v>-0.01694822149343578</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.01599159545770812</v>
+        <v>-0.0172995388996392</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.01576584237559131</v>
+        <v>-0.01758807055438627</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.01448008270208878</v>
+        <v>-0.01827498943533767</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.0141389007445607</v>
+        <v>-0.02017068667170052</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.01353165956002722</v>
+        <v>-0.02118355197120914</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.01165186322985656</v>
+        <v>-0.02200904690610528</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.01160593798978127</v>
+        <v>-0.02530871679476465</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.01066245789055587</v>
+        <v>-0.02740906215463501</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.01047798890421969</v>
+        <v>-0.02817223833591764</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.01021286960461421</v>
+        <v>-0.0288334589661704</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.009610461412853155</v>
+        <v>-0.02982826744000777</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.009542985077146904</v>
+        <v>-0.03057795636200544</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.008084289284152169</v>
+        <v>-0.03059645831622293</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.007542891600574197</v>
+        <v>-0.031017820111511</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.007368902316799986</v>
+        <v>-0.03205102861617726</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.007248149411831939</v>
+        <v>-0.03249042259229051</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.006739702959187577</v>
+        <v>-0.0335686967451283</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.00671937412282908</v>
+        <v>-0.03363760794310655</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.006336548501800321</v>
+        <v>-0.03386154278564579</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.004589242905274515</v>
+        <v>-0.03390112951854762</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.003907314465614098</v>
+        <v>-0.03397710785459074</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.003288804167249637</v>
+        <v>-0.03463790654748111</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.002855467202246054</v>
+        <v>-0.03650430829614981</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.002635879090031823</v>
+        <v>-0.03754980823139187</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.002411282616633148</v>
+        <v>-0.03811896426973138</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.002402994207710618</v>
+        <v>-0.03833698934195029</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.002221632174574051</v>
+        <v>-0.03861730259082208</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.0019467852207673</v>
+        <v>-0.03883852303935531</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.001215349429822599</v>
+        <v>-0.039184279875626</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.001176658295355182</v>
+        <v>-0.03965379380915657</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.001035141363538994</v>
+        <v>-0.04004000235781457</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.000867955236783402</v>
+        <v>-0.0404911836277535</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.000794310403993137</v>
+        <v>-0.04059639532247772</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.0006769695674477827</v>
+        <v>-0.04150627326632728</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.0003774878101721058</v>
+        <v>-0.04186612879309204</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.0002293735561273991</v>
+        <v>-0.04206644226976963</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>-8.762378406534932e-05</v>
+        <v>-0.04236418690839672</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>-0.0002972600754372889</v>
+        <v>-0.0428613037274358</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>-0.0006050342369313677</v>
+        <v>-0.04353690711744207</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>-0.0007346491108117803</v>
+        <v>-0.04356740231202827</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>-0.0009255563725770743</v>
+        <v>-0.0438112856369981</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>-0.001349563986801638</v>
+        <v>-0.04387732090319818</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>-0.001408559940966114</v>
+        <v>-0.04389485650375924</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.001487292013618968</v>
+        <v>-0.04402147777970677</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.001715306912284609</v>
+        <v>-0.04409182790499511</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.001776497374443076</v>
+        <v>-0.0448360510392859</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.002060065702721436</v>
+        <v>-0.04519342570218499</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.00265781401415166</v>
+        <v>-0.04521930148452946</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.002754376549054305</v>
+        <v>-0.04547227026963896</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.003590853207337541</v>
+        <v>-0.04549242898053063</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.003598007736454911</v>
+        <v>-0.0464850967868975</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.00406177170581179</v>
+        <v>-0.0470753909675572</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.004135738304087311</v>
+        <v>-0.04767969339595113</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.004150517603448978</v>
+        <v>-0.04785351212021238</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.004153491873282178</v>
+        <v>-0.04827684917362618</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.004240876904757274</v>
+        <v>-0.0485143374016489</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.004377844065147407</v>
+        <v>-0.04911227055746314</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.004656398342647083</v>
+        <v>-0.04913845248792892</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.004801495551386314</v>
+        <v>-0.04951992733606558</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.004844078593030265</v>
+        <v>-0.04993687958253246</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.004917286325328951</v>
+        <v>-0.05062463685351803</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.004927410196872595</v>
+        <v>-0.05070048527126059</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.005143735780931635</v>
+        <v>-0.05071618083629925</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.005258881695493933</v>
+        <v>-0.05090017031291205</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.005332753406279034</v>
+        <v>-0.05175411160554932</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.005409121946603923</v>
+        <v>-0.05178737780420628</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.005685614402388683</v>
+        <v>-0.05189087540888149</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.005774166990962448</v>
+        <v>-0.05197217866402004</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.005838369318305614</v>
+        <v>-0.05204802859874225</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.006130280201105842</v>
+        <v>-0.05215368766906459</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.006133093022853697</v>
+        <v>-0.05246218741805619</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.006164715837950641</v>
+        <v>-0.05260965057759515</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.006361890560397931</v>
+        <v>-0.05285225917657987</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.006695038357378058</v>
+        <v>-0.05357436376250624</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.006837125673232136</v>
+        <v>-0.05373303678045727</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.006846138434991489</v>
+        <v>-0.05376243051885587</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.006856586384954344</v>
+        <v>-0.05385313977521211</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.007354410735844086</v>
+        <v>-0.05408802975554561</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.007512900437989467</v>
+        <v>-0.05420689907149567</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.007564830940669176</v>
+        <v>-0.05458338506287364</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.007583488397044258</v>
+        <v>-0.05458920919503374</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.007690181066461022</v>
+        <v>-0.05476203559607706</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.007804259819527593</v>
+        <v>-0.05486198878132653</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.007867037288655343</v>
+        <v>-0.05493101993634386</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.007953320824566124</v>
+        <v>-0.05516522947676139</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.008337428293597071</v>
+        <v>-0.05534075051228926</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.008339758017560595</v>
+        <v>-0.05546702719546803</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.008380338744644944</v>
+        <v>-0.05561678879553966</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.008509676372112751</v>
+        <v>-0.05567976435613986</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.008514223404943233</v>
+        <v>-0.05578150109970226</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.008815990925951867</v>
+        <v>-0.05578894532272516</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.00890218282555022</v>
+        <v>-0.05580422036762078</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.009174426763933985</v>
+        <v>-0.0558281449457585</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.00928979038920863</v>
+        <v>-0.05641160659756461</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.009384621596455145</v>
+        <v>-0.0571992075432538</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.009433948696589645</v>
+        <v>-0.05723886042509696</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.009909124198888564</v>
+        <v>-0.05747381526185147</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.009965741924039317</v>
+        <v>-0.05774060301207651</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.01001410726661167</v>
+        <v>-0.05781372880110724</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.0102649575374163</v>
+        <v>-0.05812097075413569</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.01083166628247945</v>
+        <v>-0.05845309867627202</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.01123285537131136</v>
+        <v>-0.0595442312496306</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.01128186087968641</v>
+        <v>-0.05961495440554343</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.0113005385902859</v>
+        <v>-0.05972129295394368</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.0114074498052249</v>
+        <v>-0.05983012792609688</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.01156432953784492</v>
+        <v>-0.05994352925503688</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.01165054787647068</v>
+        <v>-0.06042173204530266</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.01188226452784691</v>
+        <v>-0.0607066603007016</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.01191097249454665</v>
+        <v>-0.06071619178442111</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.01202613217662929</v>
+        <v>-0.06110826284760251</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.01204940912846186</v>
+        <v>-0.06117804211547173</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.01223134075163113</v>
+        <v>-0.06121348719707109</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.0122764448739614</v>
+        <v>-0.06125571145637143</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.01242025116719392</v>
+        <v>-0.06150365087233123</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.01289458435287705</v>
+        <v>-0.06207774743032834</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.01347693526094251</v>
+        <v>-0.06209789412924815</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.01361516130775919</v>
+        <v>-0.06248269735313228</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.01371890661124053</v>
+        <v>-0.06342197520920123</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.01391582457122942</v>
+        <v>-0.06342618379134257</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.01421883842177585</v>
+        <v>-0.06362395625193273</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.01442773162164501</v>
+        <v>-0.06419304181643304</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.0144318808033177</v>
+        <v>-0.0649436444982765</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.01474385888445318</v>
+        <v>-0.06509244417136317</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.01537647084702709</v>
+        <v>-0.06537348019094258</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.0155897112177692</v>
+        <v>-0.06665808765329728</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.01571201838067127</v>
+        <v>-0.06722532544933901</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.0158356727869885</v>
+        <v>-0.06773649336507093</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.01591056297159743</v>
+        <v>-0.06778794601005733</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.01596413119293938</v>
+        <v>-0.0679415765466691</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.01633422754726743</v>
+        <v>-0.06825537340719634</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.01640571933185075</v>
+        <v>-0.06837341110085637</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.01644810205218084</v>
+        <v>-0.06845732850096553</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.01727726085683368</v>
+        <v>-0.06916023616622502</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.01734596702745528</v>
+        <v>-0.0693144504112585</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.01782150959661433</v>
+        <v>-0.06932519759708111</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.01813049152064938</v>
+        <v>-0.06958303860782911</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.01814499892987687</v>
+        <v>-0.06966777029891091</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.01860867526496979</v>
+        <v>-0.07015302487228414</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.01864701244651135</v>
+        <v>-0.07043043452272724</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.01903064050091785</v>
+        <v>-0.07068965918548598</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.01946346370081664</v>
+        <v>-0.07086978039718073</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.01950594530339134</v>
+        <v>-0.07098193164263833</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.01986620818131479</v>
+        <v>-0.07114713207879375</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.01986967257643579</v>
+        <v>-0.0722202482860933</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.02002635823589671</v>
+        <v>-0.07437580753594919</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.02020844212337092</v>
+        <v>-0.07480098016558068</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.02056529637432181</v>
+        <v>-0.07512353905218616</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.02091260125939121</v>
+        <v>-0.07608370617619098</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.02106370065746643</v>
+        <v>-0.07619348603935916</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.02114470442441541</v>
+        <v>-0.07639410605695507</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.02146499608769703</v>
+        <v>-0.07700819686218519</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.02156586049570008</v>
+        <v>-0.07731813625907746</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.02208429351168362</v>
+        <v>-0.07741612758536243</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.02228805213528662</v>
+        <v>-0.07757719563061083</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.02255891894454665</v>
+        <v>-0.07772683016401083</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.02260246466120419</v>
+        <v>-0.07845293508684636</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.02400935337011056</v>
+        <v>-0.07925167835987035</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.02448097207599931</v>
+        <v>-0.07932314129848994</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.02532974843673219</v>
+        <v>-0.08084095687729631</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.02631427398075004</v>
+        <v>-0.08296646847889455</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.02651151884253111</v>
+        <v>-0.0834974757870196</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.02756651601126592</v>
+        <v>-0.0841176226162107</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.02785449190978184</v>
+        <v>-0.08468856870549968</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.03155905578305729</v>
+        <v>-0.08749245494005242</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.03177247394584504</v>
+        <v>-0.09038514916775275</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.0318472119785399</v>
+        <v>-0.09192857838470558</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.03248550363958802</v>
+        <v>-0.09455812618610115</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.04307520938537535</v>
+        <v>-0.09940079764121212</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.04862981624773632</v>
+        <v>-0.099628476692049</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -25,1096 +25,1096 @@
     <t>代码</t>
   </si>
   <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
     <t>884251.WI</t>
   </si>
   <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
     <t>884062.WI</t>
   </si>
   <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
     <t>884037.WI</t>
   </si>
   <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
+    <t>884226.WI</t>
   </si>
   <si>
     <t>884219.WI</t>
   </si>
   <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
   </si>
   <si>
     <t>884189.WI</t>
   </si>
   <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
   </si>
   <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
     <t>猪指数</t>
   </si>
   <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
     <t>生物育种指数</t>
   </si>
   <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
     <t>乙醇汽油指数</t>
   </si>
   <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
+    <t>共享汽车指数</t>
   </si>
   <si>
     <t>扶贫指数</t>
   </si>
   <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
   </si>
   <si>
     <t>次新股指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1535524224465179</v>
+        <v>0.09528064302902961</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.01929602658939422</v>
+        <v>0.07918142756758217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.009837721098345797</v>
+        <v>0.04359500692161689</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.00636422297342798</v>
+        <v>0.03215083519886175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.00477473702605602</v>
+        <v>0.02271278499184959</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>-0.002290398075502131</v>
+        <v>0.02198211875779377</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>-0.00631402742669962</v>
+        <v>0.02197027200032298</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>-0.01133993593691729</v>
+        <v>0.01491010737212073</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>-0.01276123065075097</v>
+        <v>0.007037251995185345</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>-0.01355426546390692</v>
+        <v>0.005928383319372399</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>-0.0162055717011812</v>
+        <v>0.005306055533426779</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>-0.01673450540155708</v>
+        <v>0.0005479399456438383</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>-0.01694822149343578</v>
+        <v>-0.001238625675552996</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>-0.0172995388996392</v>
+        <v>-0.002507259323203725</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>-0.01758807055438627</v>
+        <v>-0.003034728743967929</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>-0.01827498943533767</v>
+        <v>-0.00358116895470062</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>-0.02017068667170052</v>
+        <v>-0.007123266746014045</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>-0.02118355197120914</v>
+        <v>-0.007460308021326689</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>-0.02200904690610528</v>
+        <v>-0.007472466269911049</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>-0.02530871679476465</v>
+        <v>-0.008520299689694255</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>-0.02740906215463501</v>
+        <v>-0.009233072502349282</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>-0.02817223833591764</v>
+        <v>-0.009237339612597872</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>-0.0288334589661704</v>
+        <v>-0.01250920504819952</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>-0.02982826744000777</v>
+        <v>-0.01314704393915034</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>-0.03057795636200544</v>
+        <v>-0.01369104238514385</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>-0.03059645831622293</v>
+        <v>-0.01489188659496821</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>-0.031017820111511</v>
+        <v>-0.01643660509345257</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>-0.03205102861617726</v>
+        <v>-0.01677615362922236</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>-0.03249042259229051</v>
+        <v>-0.01680779054646497</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>-0.0335686967451283</v>
+        <v>-0.01716930077133372</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>-0.03363760794310655</v>
+        <v>-0.01739754249569125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>-0.03386154278564579</v>
+        <v>-0.01743927572741322</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>-0.03390112951854762</v>
+        <v>-0.01747160898671241</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>-0.03397710785459074</v>
+        <v>-0.01820059833926191</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>-0.03463790654748111</v>
+        <v>-0.01880721291510035</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>-0.03650430829614981</v>
+        <v>-0.01929473357195766</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>-0.03754980823139187</v>
+        <v>-0.01958476921317087</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>-0.03811896426973138</v>
+        <v>-0.01978721725635391</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>-0.03833698934195029</v>
+        <v>-0.02007775651831245</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>-0.03861730259082208</v>
+        <v>-0.02043039995660356</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>-0.03883852303935531</v>
+        <v>-0.02145228483550443</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>-0.039184279875626</v>
+        <v>-0.02204162577459623</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>-0.03965379380915657</v>
+        <v>-0.02282522099784234</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>-0.04004000235781457</v>
+        <v>-0.0232249394304852</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>-0.0404911836277535</v>
+        <v>-0.02325756622636754</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>-0.04059639532247772</v>
+        <v>-0.02379369834607026</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>-0.04150627326632728</v>
+        <v>-0.02385581766838085</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>-0.04186612879309204</v>
+        <v>-0.02394026275264283</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>-0.04206644226976963</v>
+        <v>-0.02506046272885321</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>-0.04236418690839672</v>
+        <v>-0.02587933606359827</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>-0.0428613037274358</v>
+        <v>-0.02603839108301098</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>-0.04353690711744207</v>
+        <v>-0.0260586771580299</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>-0.04356740231202827</v>
+        <v>-0.02634792982101619</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>-0.0438112856369981</v>
+        <v>-0.02648640333935215</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>-0.04387732090319818</v>
+        <v>-0.02684850251375959</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>-0.04389485650375924</v>
+        <v>-0.02707183045682082</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.04402147777970677</v>
+        <v>-0.02715275856006294</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.04409182790499511</v>
+        <v>-0.02718873185252457</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.0448360510392859</v>
+        <v>-0.02720310255778879</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.04519342570218499</v>
+        <v>-0.02726815444523734</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.04521930148452946</v>
+        <v>-0.02737451867784324</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.04547227026963896</v>
+        <v>-0.02759236475018922</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.04549242898053063</v>
+        <v>-0.02759760677003797</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.0464850967868975</v>
+        <v>-0.02800261547359062</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.0470753909675572</v>
+        <v>-0.02838423653669031</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.04767969339595113</v>
+        <v>-0.02850245327385514</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.04785351212021238</v>
+        <v>-0.02852428903447779</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.04827684917362618</v>
+        <v>-0.02853166479356062</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.0485143374016489</v>
+        <v>-0.02856262612069793</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.04911227055746314</v>
+        <v>-0.02866211350682168</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.04913845248792892</v>
+        <v>-0.02866867293454922</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.04951992733606558</v>
+        <v>-0.02908330950109395</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.04993687958253246</v>
+        <v>-0.02936912095753652</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.05062463685351803</v>
+        <v>-0.02937436849741992</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.05070048527126059</v>
+        <v>-0.02947930805427101</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.05071618083629925</v>
+        <v>-0.02967607488721002</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.05090017031291205</v>
+        <v>-0.02969377120315664</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.05175411160554932</v>
+        <v>-0.02971654655603606</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.05178737780420628</v>
+        <v>-0.02972394464871753</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.05189087540888149</v>
+        <v>-0.0298786599203088</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.05197217866402004</v>
+        <v>-0.02991498814564175</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.05204802859874225</v>
+        <v>-0.03000351854265015</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.05215368766906459</v>
+        <v>-0.03034805433684273</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.05246218741805619</v>
+        <v>-0.03076373035205626</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.05260965057759515</v>
+        <v>-0.0312326907736703</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.05285225917657987</v>
+        <v>-0.03141790821466151</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.05357436376250624</v>
+        <v>-0.03153832875444418</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.05373303678045727</v>
+        <v>-0.0316159058395511</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.05376243051885587</v>
+        <v>-0.0317712109276479</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.05385313977521211</v>
+        <v>-0.0318502175890889</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.05408802975554561</v>
+        <v>-0.03201876012968641</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.05420689907149567</v>
+        <v>-0.03206139601085223</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.05458338506287364</v>
+        <v>-0.03246449225667047</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.05458920919503374</v>
+        <v>-0.03247195812042092</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.05476203559607706</v>
+        <v>-0.03255341297663594</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.05486198878132653</v>
+        <v>-0.03275620209170993</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.05493101993634386</v>
+        <v>-0.03290200187652914</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.05516522947676139</v>
+        <v>-0.03297105288090973</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.05534075051228926</v>
+        <v>-0.03306485498518641</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.05546702719546803</v>
+        <v>-0.03333922002224066</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.05561678879553966</v>
+        <v>-0.03342362255419318</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.05567976435613986</v>
+        <v>-0.03362728515415969</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.05578150109970226</v>
+        <v>-0.0338651812343399</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.05578894532272516</v>
+        <v>-0.03406244646848011</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.05580422036762078</v>
+        <v>-0.03413368512783943</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.0558281449457585</v>
+        <v>-0.03417125231882756</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.05641160659756461</v>
+        <v>-0.03449639127196369</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.0571992075432538</v>
+        <v>-0.03456008992186221</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.05723886042509696</v>
+        <v>-0.03460551866814032</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.05747381526185147</v>
+        <v>-0.03475721721601921</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.05774060301207651</v>
+        <v>-0.03514645992385623</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.05781372880110724</v>
+        <v>-0.03613708490818768</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.05812097075413569</v>
+        <v>-0.0363461237235293</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.05845309867627202</v>
+        <v>-0.03644640112893427</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.0595442312496306</v>
+        <v>-0.03646813236854307</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.05961495440554343</v>
+        <v>-0.03652465298320418</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.05972129295394368</v>
+        <v>-0.03656423137476428</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.05983012792609688</v>
+        <v>-0.03667914454967447</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.05994352925503688</v>
+        <v>-0.0369761881990659</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.06042173204530266</v>
+        <v>-0.03701834541387194</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.0607066603007016</v>
+        <v>-0.03756122465959788</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.06071619178442111</v>
+        <v>-0.03778066248970113</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.06110826284760251</v>
+        <v>-0.03779283783205234</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.06117804211547173</v>
+        <v>-0.03792107318927374</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.06121348719707109</v>
+        <v>-0.0383217249324459</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.06125571145637143</v>
+        <v>-0.03836724256927471</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.06150365087233123</v>
+        <v>-0.0385244005106169</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.06207774743032834</v>
+        <v>-0.03900018678353356</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.06209789412924815</v>
+        <v>-0.03945511374324229</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.06248269735313228</v>
+        <v>-0.03954483878510551</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.06342197520920123</v>
+        <v>-0.0397317086875999</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.06342618379134257</v>
+        <v>-0.04021899214396052</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.06362395625193273</v>
+        <v>-0.04025594444097891</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.06419304181643304</v>
+        <v>-0.04076184666759086</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.0649436444982765</v>
+        <v>-0.04080384631562106</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.06509244417136317</v>
+        <v>-0.04088524905642388</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.06537348019094258</v>
+        <v>-0.04130801383197757</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.06665808765329728</v>
+        <v>-0.04191517255566135</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.06722532544933901</v>
+        <v>-0.0419291464985998</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.06773649336507093</v>
+        <v>-0.04216530913780625</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.06778794601005733</v>
+        <v>-0.04240572967059397</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.0679415765466691</v>
+        <v>-0.04285436071205839</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.06825537340719634</v>
+        <v>-0.04286778909352751</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.06837341110085637</v>
+        <v>-0.04313200153786001</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.06845732850096553</v>
+        <v>-0.04335212748270156</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.06916023616622502</v>
+        <v>-0.04355813979545264</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.0693144504112585</v>
+        <v>-0.04376068061505978</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.06932519759708111</v>
+        <v>-0.04379118818682615</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.06958303860782911</v>
+        <v>-0.04379350434079121</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.06966777029891091</v>
+        <v>-0.04380623364450653</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.07015302487228414</v>
+        <v>-0.04394807350086449</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.07043043452272724</v>
+        <v>-0.04474585759403638</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.07068965918548598</v>
+        <v>-0.04485053686477281</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.07086978039718073</v>
+        <v>-0.04517318024127637</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.07098193164263833</v>
+        <v>-0.04599895467226223</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.07114713207879375</v>
+        <v>-0.04652015366822393</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.0722202482860933</v>
+        <v>-0.04680697111469834</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.07437580753594919</v>
+        <v>-0.04696023673517535</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.07480098016558068</v>
+        <v>-0.04731688435867687</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.07512353905218616</v>
+        <v>-0.04774279922195424</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.07608370617619098</v>
+        <v>-0.04789403976313167</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.07619348603935916</v>
+        <v>-0.04805938621104178</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.07639410605695507</v>
+        <v>-0.04813962771682057</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.07700819686218519</v>
+        <v>-0.04864176225542149</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.07731813625907746</v>
+        <v>-0.0486764227541685</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.07741612758536243</v>
+        <v>-0.04914193598306749</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.07757719563061083</v>
+        <v>-0.05087192152859077</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.07772683016401083</v>
+        <v>-0.05154398299842622</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.07845293508684636</v>
+        <v>-0.05270325077348093</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.07925167835987035</v>
+        <v>-0.05428774050470941</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.07932314129848994</v>
+        <v>-0.05463233093103825</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.08084095687729631</v>
+        <v>-0.05787907489744448</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.08296646847889455</v>
+        <v>-0.05887534861816224</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.0834974757870196</v>
+        <v>-0.05958772929501843</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.0841176226162107</v>
+        <v>-0.05988367555855478</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.08468856870549968</v>
+        <v>-0.0604317055980681</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.08749245494005242</v>
+        <v>-0.06062722096252315</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.09038514916775275</v>
+        <v>-0.06125129951037589</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.09192857838470558</v>
+        <v>-0.0619642453952286</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.09455812618610115</v>
+        <v>-0.06924105676230108</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.09940079764121212</v>
+        <v>-0.08158493265571354</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.099628476692049</v>
+        <v>-0.1282640585300306</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -25,1096 +25,1096 @@
     <t>代码</t>
   </si>
   <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884246.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
     <t>884160.WI</t>
   </si>
   <si>
-    <t>884169.WI</t>
+    <t>884104.WI</t>
   </si>
   <si>
     <t>884255.WI</t>
   </si>
   <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884246.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>打板指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
   </si>
   <si>
     <t>芯片国产化指数</t>
   </si>
   <si>
-    <t>去IOE指数</t>
+    <t>航母指数</t>
   </si>
   <si>
     <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>打板指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.09528064302902961</v>
+        <v>0.07817956808246529</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.07918142756758217</v>
+        <v>0.05707548489232073</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.04359500692161689</v>
+        <v>0.05166806684290881</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.03215083519886175</v>
+        <v>0.03533287731221635</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.02271278499184959</v>
+        <v>0.03133585818268014</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.02198211875779377</v>
+        <v>0.03038651885411148</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.02197027200032298</v>
+        <v>0.02969130070796155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.01491010737212073</v>
+        <v>0.02808521097456573</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.007037251995185345</v>
+        <v>0.02801097516051243</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.005928383319372399</v>
+        <v>0.0248950810760411</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.005306055533426779</v>
+        <v>0.02460735386055068</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.0005479399456438383</v>
+        <v>0.02340093350816219</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>-0.001238625675552996</v>
+        <v>0.02047503214604407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>-0.002507259323203725</v>
+        <v>0.01987248426751886</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>-0.003034728743967929</v>
+        <v>0.01779749160710309</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>-0.00358116895470062</v>
+        <v>0.01758486894623545</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>-0.007123266746014045</v>
+        <v>0.01714313812123369</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>-0.007460308021326689</v>
+        <v>0.01695469168581432</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>-0.007472466269911049</v>
+        <v>0.01627330927565218</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>-0.008520299689694255</v>
+        <v>0.01541749785211732</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>-0.009233072502349282</v>
+        <v>0.01515276710893221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>-0.009237339612597872</v>
+        <v>0.01488852877945801</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>-0.01250920504819952</v>
+        <v>0.01400640890091154</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>-0.01314704393915034</v>
+        <v>0.01377158547107982</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>-0.01369104238514385</v>
+        <v>0.01350369123985273</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>-0.01489188659496821</v>
+        <v>0.01337202980364238</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>-0.01643660509345257</v>
+        <v>0.01334584062831157</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>-0.01677615362922236</v>
+        <v>0.01331953083197357</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>-0.01680779054646497</v>
+        <v>0.01287208878688761</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>-0.01716930077133372</v>
+        <v>0.01259940762386491</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>-0.01739754249569125</v>
+        <v>0.01201024276016871</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>-0.01743927572741322</v>
+        <v>0.01190234398038248</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>-0.01747160898671241</v>
+        <v>0.01157743293550562</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>-0.01820059833926191</v>
+        <v>0.0113902079144097</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>-0.01880721291510035</v>
+        <v>0.01131826126881941</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>-0.01929473357195766</v>
+        <v>0.01118470991778686</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>-0.01958476921317087</v>
+        <v>0.01047398069081251</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>-0.01978721725635391</v>
+        <v>0.01047023979953177</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>-0.02007775651831245</v>
+        <v>0.01035683506044038</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>-0.02043039995660356</v>
+        <v>0.0101945236536376</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>-0.02145228483550443</v>
+        <v>0.009879817211414066</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>-0.02204162577459623</v>
+        <v>0.009367594602968321</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>-0.02282522099784234</v>
+        <v>0.008978128296695642</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>-0.0232249394304852</v>
+        <v>0.008749304590478513</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>-0.02325756622636754</v>
+        <v>0.008602940361715161</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>-0.02379369834607026</v>
+        <v>0.008594194961608403</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>-0.02385581766838085</v>
+        <v>0.007428691880718041</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>-0.02394026275264283</v>
+        <v>0.007379877550605318</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>-0.02506046272885321</v>
+        <v>0.007314811854974623</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>-0.02587933606359827</v>
+        <v>0.007294584334938792</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>-0.02603839108301098</v>
+        <v>0.007232483247877397</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>-0.0260586771580299</v>
+        <v>0.007048597916200494</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>-0.02634792982101619</v>
+        <v>0.006943280405687702</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>-0.02648640333935215</v>
+        <v>0.006909254548893129</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>-0.02684850251375959</v>
+        <v>0.006576964010518882</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>-0.02707183045682082</v>
+        <v>0.005747885826434596</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.02715275856006294</v>
+        <v>0.005349628972312725</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.02718873185252457</v>
+        <v>0.005100390243179653</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.02720310255778879</v>
+        <v>0.005003794361129188</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.02726815444523734</v>
+        <v>0.004978139563596828</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.02737451867784324</v>
+        <v>0.004920747001453618</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.02759236475018922</v>
+        <v>0.00482190264967497</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.02759760677003797</v>
+        <v>0.004638484457751835</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.02800261547359062</v>
+        <v>0.00411086985431286</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.02838423653669031</v>
+        <v>0.003855872404580962</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.02850245327385514</v>
+        <v>0.003765170875405843</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.02852428903447779</v>
+        <v>0.003744951443170219</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.02853166479356062</v>
+        <v>0.003341309861571551</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.02856262612069793</v>
+        <v>0.003105574351603302</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.02866211350682168</v>
+        <v>0.002867052906377898</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.02866867293454922</v>
+        <v>0.002224427258006534</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.02908330950109395</v>
+        <v>0.001956451057119279</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.02936912095753652</v>
+        <v>0.00189277847508551</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.02937436849741992</v>
+        <v>0.001472725572466471</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.02947930805427101</v>
+        <v>0.001100893388829016</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.02967607488721002</v>
+        <v>0.000921441019958058</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.02969377120315664</v>
+        <v>0.0008804292912052425</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.02971654655603606</v>
+        <v>0.0007083359156732083</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.02972394464871753</v>
+        <v>0.0006615245284620208</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.0298786599203088</v>
+        <v>0.0006262510666557031</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.02991498814564175</v>
+        <v>0.0001472427785991215</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.03000351854265015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.03034805433684273</v>
+        <v>-7.439408721210405e-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.03076373035205626</v>
+        <v>-0.0002110377456082668</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.0312326907736703</v>
+        <v>-0.0002311011574540611</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.03141790821466151</v>
+        <v>-0.0002742836218808664</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.03153832875444418</v>
+        <v>-0.0003492081631331079</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.0316159058395511</v>
+        <v>-0.0004457898761290879</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.0317712109276479</v>
+        <v>-0.0004575886704925036</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.0318502175890889</v>
+        <v>-0.000689783518758591</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.03201876012968641</v>
+        <v>-0.0009666349208038438</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.03206139601085223</v>
+        <v>-0.00137621172736746</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.03246449225667047</v>
+        <v>-0.001445395078912726</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.03247195812042092</v>
+        <v>-0.001494133261219166</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.03255341297663594</v>
+        <v>-0.001512180165741062</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.03275620209170993</v>
+        <v>-0.00180782811708502</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.03290200187652914</v>
+        <v>-0.001831165465762008</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.03297105288090973</v>
+        <v>-0.002141817245922994</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.03306485498518641</v>
+        <v>-0.002749818844113072</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.03333922002224066</v>
+        <v>-0.002849128643689691</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.03342362255419318</v>
+        <v>-0.002878962895907167</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.03362728515415969</v>
+        <v>-0.002921732567863655</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.0338651812343399</v>
+        <v>-0.003081450624698667</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.03406244646848011</v>
+        <v>-0.003160124303284495</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.03413368512783943</v>
+        <v>-0.003250050875354793</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.03417125231882756</v>
+        <v>-0.003461701920096316</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.03449639127196369</v>
+        <v>-0.003503138327470401</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.03456008992186221</v>
+        <v>-0.003601402811206467</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.03460551866814032</v>
+        <v>-0.003838768678796289</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.03475721721601921</v>
+        <v>-0.004165302469806509</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.03514645992385623</v>
+        <v>-0.004209170014893071</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.03613708490818768</v>
+        <v>-0.004299072399912007</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.0363461237235293</v>
+        <v>-0.004585269287342264</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.03644640112893427</v>
+        <v>-0.004653974309479336</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.03646813236854307</v>
+        <v>-0.005460773966392329</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.03652465298320418</v>
+        <v>-0.005573052140208756</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.03656423137476428</v>
+        <v>-0.005602328473531371</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.03667914454967447</v>
+        <v>-0.005653336824778976</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.0369761881990659</v>
+        <v>-0.005786518151945752</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.03701834541387194</v>
+        <v>-0.006720448596226891</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.03756122465959788</v>
+        <v>-0.006779100802125848</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.03778066248970113</v>
+        <v>-0.006855514147978692</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.03779283783205234</v>
+        <v>-0.007235506086099797</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.03792107318927374</v>
+        <v>-0.007275493698333246</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.0383217249324459</v>
+        <v>-0.007405066141556893</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.03836724256927471</v>
+        <v>-0.007664744709557136</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.0385244005106169</v>
+        <v>-0.007931942904199962</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.03900018678353356</v>
+        <v>-0.007994708766557723</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.03945511374324229</v>
+        <v>-0.008414137915210951</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.03954483878510551</v>
+        <v>-0.008909516468245227</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.0397317086875999</v>
+        <v>-0.008937146593066436</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.04021899214396052</v>
+        <v>-0.009162734141597739</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.04025594444097891</v>
+        <v>-0.009414676839611502</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.04076184666759086</v>
+        <v>-0.009763780468451944</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.04080384631562106</v>
+        <v>-0.01000951562687658</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.04088524905642388</v>
+        <v>-0.0102340545065116</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.04130801383197757</v>
+        <v>-0.01029303033723139</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.04191517255566135</v>
+        <v>-0.01049773424272749</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.0419291464985998</v>
+        <v>-0.01059782082542193</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.04216530913780625</v>
+        <v>-0.01072876930707367</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.04240572967059397</v>
+        <v>-0.01079565184879638</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.04285436071205839</v>
+        <v>-0.01082777134878288</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.04286778909352751</v>
+        <v>-0.01113628503677122</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.04313200153786001</v>
+        <v>-0.01136485074773352</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.04335212748270156</v>
+        <v>-0.01138141986389996</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.04355813979545264</v>
+        <v>-0.01139802881040353</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.04376068061505978</v>
+        <v>-0.01148246784151097</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.04379118818682615</v>
+        <v>-0.01153363645410965</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.04379350434079121</v>
+        <v>-0.01192036560769139</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.04380623364450653</v>
+        <v>-0.01256651458159974</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.04394807350086449</v>
+        <v>-0.01279598533572257</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.04474585759403638</v>
+        <v>-0.0128420236087714</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.04485053686477281</v>
+        <v>-0.01304712915652961</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.04517318024127637</v>
+        <v>-0.01396200759963262</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.04599895467226223</v>
+        <v>-0.01408317753677923</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.04652015366822393</v>
+        <v>-0.01458051862485099</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.04680697111469834</v>
+        <v>-0.01526311046449524</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.04696023673517535</v>
+        <v>-0.01542480679660641</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.04731688435867687</v>
+        <v>-0.0157852735419165</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.04774279922195424</v>
+        <v>-0.0178624927255826</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.04789403976313167</v>
+        <v>-0.01817505157983612</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.04805938621104178</v>
+        <v>-0.01839086791959832</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.04813962771682057</v>
+        <v>-0.01908692787898614</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.04864176225542149</v>
+        <v>-0.02063198981763958</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.0486764227541685</v>
+        <v>-0.02213552716976341</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.04914193598306749</v>
+        <v>-0.02283794277907203</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.05087192152859077</v>
+        <v>-0.02305654405219204</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.05154398299842622</v>
+        <v>-0.02306498472673235</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.05270325077348093</v>
+        <v>-0.02443641895083648</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.05428774050470941</v>
+        <v>-0.02484254190238488</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.05463233093103825</v>
+        <v>-0.02521564821764788</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.05787907489744448</v>
+        <v>-0.0268913504075794</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.05887534861816224</v>
+        <v>-0.02706032069623698</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.05958772929501843</v>
+        <v>-0.02793157071649965</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.05988367555855478</v>
+        <v>-0.02807632946684668</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.0604317055980681</v>
+        <v>-0.03130052871672218</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.06062722096252315</v>
+        <v>-0.03593048184948677</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.06125129951037589</v>
+        <v>-0.0364155405457498</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.0619642453952286</v>
+        <v>-0.04265493065254644</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.06924105676230108</v>
+        <v>-0.04579729771638563</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.08158493265571354</v>
+        <v>-0.0512072179067079</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.1282640585300306</v>
+        <v>-0.06074586539693927</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -25,1096 +25,1096 @@
     <t>代码</t>
   </si>
   <si>
+    <t>884246.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
     <t>884252.WI</t>
   </si>
   <si>
-    <t>884246.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
   </si>
   <si>
     <t>884176.WI</t>
   </si>
   <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
   </si>
   <si>
     <t>884121.WI</t>
   </si>
   <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
+    <t>打板指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
   </si>
   <si>
     <t>鸡指数</t>
   </si>
   <si>
-    <t>打板指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
   </si>
   <si>
     <t>北部湾自贸区指数</t>
   </si>
   <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
   </si>
   <si>
     <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.07817956808246529</v>
+        <v>0.1491522138433059</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.05707548489232073</v>
+        <v>0.08409355561864351</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.05166806684290881</v>
+        <v>0.05928245578599345</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.03533287731221635</v>
+        <v>0.05664976224147544</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.03133585818268014</v>
+        <v>0.03006585108049342</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.03038651885411148</v>
+        <v>0.02847255376093205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.02969130070796155</v>
+        <v>0.02768675308116975</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.02808521097456573</v>
+        <v>0.02310767442819417</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.02801097516051243</v>
+        <v>0.01956025825135121</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.0248950810760411</v>
+        <v>0.01944918588712863</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.02460735386055068</v>
+        <v>0.01839725686636395</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.02340093350816219</v>
+        <v>0.01764769616671757</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.02047503214604407</v>
+        <v>0.0173907144163179</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.01987248426751886</v>
+        <v>0.01435098004605218</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.01779749160710309</v>
+        <v>0.01405377662000351</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.01758486894623545</v>
+        <v>0.01373884855190233</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.01714313812123369</v>
+        <v>0.01272459633024359</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.01695469168581432</v>
+        <v>0.0120183820783244</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.01627330927565218</v>
+        <v>0.01057051105221318</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.01541749785211732</v>
+        <v>0.009508256020808403</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.01515276710893221</v>
+        <v>0.008599286584397792</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.01488852877945801</v>
+        <v>0.008173104791352026</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.01400640890091154</v>
+        <v>0.007672315046874045</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.01377158547107982</v>
+        <v>0.006996963818200364</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.01350369123985273</v>
+        <v>0.006924745418065426</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.01337202980364238</v>
+        <v>0.00635818024862167</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.01334584062831157</v>
+        <v>0.005926338844296053</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.01331953083197357</v>
+        <v>0.005110389170780882</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.01287208878688761</v>
+        <v>0.005098357169312173</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.01259940762386491</v>
+        <v>0.005073338777670022</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.01201024276016871</v>
+        <v>0.004962225751546478</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.01190234398038248</v>
+        <v>0.0048484416901724</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.01157743293550562</v>
+        <v>0.004196110454835811</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.0113902079144097</v>
+        <v>0.003995948240290925</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.01131826126881941</v>
+        <v>0.00399557910947812</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.01118470991778686</v>
+        <v>0.003850527307042606</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.01047398069081251</v>
+        <v>0.003547764172167733</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.01047023979953177</v>
+        <v>0.003189472276805105</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.01035683506044038</v>
+        <v>0.002163661891301238</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.0101945236536376</v>
+        <v>0.001834129122157746</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.009879817211414066</v>
+        <v>0.001720437882980264</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.009367594602968321</v>
+        <v>0.001592741165248102</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.008978128296695642</v>
+        <v>0.001383938727534728</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.008749304590478513</v>
+        <v>0.0002004400904433989</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.008602940361715161</v>
+        <v>0.0001241869673060947</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.008594194961608403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.007428691880718041</v>
+        <v>-1.232488588820413e-05</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.007379877550605318</v>
+        <v>-0.0002676438558386618</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.007314811854974623</v>
+        <v>-0.0004161825231151495</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.007294584334938792</v>
+        <v>-0.0006267413494353002</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.007232483247877397</v>
+        <v>-0.0009834276876434789</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.007048597916200494</v>
+        <v>-0.001217276619671526</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.006943280405687702</v>
+        <v>-0.001239288397228089</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.006909254548893129</v>
+        <v>-0.001468061041454805</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.006576964010518882</v>
+        <v>-0.001700559924162626</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.005747885826434596</v>
+        <v>-0.001965623150350648</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>0.005349628972312725</v>
+        <v>-0.002198692899563315</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>0.005100390243179653</v>
+        <v>-0.002215111296552386</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>0.005003794361129188</v>
+        <v>-0.002418142324229322</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>0.004978139563596828</v>
+        <v>-0.002791231327872956</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>0.004920747001453618</v>
+        <v>-0.003016707680395969</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>0.00482190264967497</v>
+        <v>-0.003053002361180557</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>0.004638484457751835</v>
+        <v>-0.003560190454339418</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>0.00411086985431286</v>
+        <v>-0.003869034398898408</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>0.003855872404580962</v>
+        <v>-0.004134771345628896</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>0.003765170875405843</v>
+        <v>-0.004546980669509315</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>0.003744951443170219</v>
+        <v>-0.004742634667031287</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>0.003341309861571551</v>
+        <v>-0.005042329128266076</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>0.003105574351603302</v>
+        <v>-0.005150009877541772</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>0.002867052906377898</v>
+        <v>-0.005351915943271002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>0.002224427258006534</v>
+        <v>-0.005474283955395287</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>0.001956451057119279</v>
+        <v>-0.005593989087617546</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>0.00189277847508551</v>
+        <v>-0.005599234159775923</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>0.001472725572466471</v>
+        <v>-0.005839952296477602</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>0.001100893388829016</v>
+        <v>-0.006018851974821438</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>0.000921441019958058</v>
+        <v>-0.006021916889451973</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>0.0008804292912052425</v>
+        <v>-0.006046631891210796</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>0.0007083359156732083</v>
+        <v>-0.006282223621749794</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>0.0006615245284620208</v>
+        <v>-0.006283606497868965</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>0.0006262510666557031</v>
+        <v>-0.006319545337235777</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>0.0001472427785991215</v>
+        <v>-0.006353613359047383</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>-0.00642400368167162</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-7.439408721210405e-05</v>
+        <v>-0.006507361002584533</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.0002110377456082668</v>
+        <v>-0.006595230297902099</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.0002311011574540611</v>
+        <v>-0.006873647046752751</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.0002742836218808664</v>
+        <v>-0.007441123166441521</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.0003492081631331079</v>
+        <v>-0.007641533224532759</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.0004457898761290879</v>
+        <v>-0.007685726766551104</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.0004575886704925036</v>
+        <v>-0.008544415964270136</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.000689783518758591</v>
+        <v>-0.008601794444301647</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.0009666349208038438</v>
+        <v>-0.008821318235450182</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.00137621172736746</v>
+        <v>-0.008930315535539246</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.001445395078912726</v>
+        <v>-0.009074777831305836</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.001494133261219166</v>
+        <v>-0.009213222505763174</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.001512180165741062</v>
+        <v>-0.009220779731001327</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.00180782811708502</v>
+        <v>-0.009246270099024012</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.001831165465762008</v>
+        <v>-0.009271788734026121</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.002141817245922994</v>
+        <v>-0.009300151002077595</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.002749818844113072</v>
+        <v>-0.009339482034732338</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.002849128643689691</v>
+        <v>-0.009499077801053524</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.002878962895907167</v>
+        <v>-0.009609889858376741</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.002921732567863655</v>
+        <v>-0.009684091936551287</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.003081450624698667</v>
+        <v>-0.009723126154076001</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.003160124303284495</v>
+        <v>-0.009749535537041942</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.003250050875354793</v>
+        <v>-0.01031370581017765</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.003461701920096316</v>
+        <v>-0.01038291325943941</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.003503138327470401</v>
+        <v>-0.01046360814201519</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.003601402811206467</v>
+        <v>-0.01077970138557216</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.003838768678796289</v>
+        <v>-0.01084535800288511</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.004165302469806509</v>
+        <v>-0.01108719444606099</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.004209170014893071</v>
+        <v>-0.01124317675653919</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.004299072399912007</v>
+        <v>-0.01132616355204252</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.004585269287342264</v>
+        <v>-0.01171913419763626</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.004653974309479336</v>
+        <v>-0.0117908680306249</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.005460773966392329</v>
+        <v>-0.01207776873384037</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.005573052140208756</v>
+        <v>-0.01211281758421356</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.005602328473531371</v>
+        <v>-0.01223869043341386</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.005653336824778976</v>
+        <v>-0.01236833523138248</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.005786518151945752</v>
+        <v>-0.01248596829392989</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.006720448596226891</v>
+        <v>-0.01251131842564435</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.006779100802125848</v>
+        <v>-0.01253026862055961</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.006855514147978692</v>
+        <v>-0.01276801332942967</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.007235506086099797</v>
+        <v>-0.01290078234058389</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.007275493698333246</v>
+        <v>-0.01305090166685463</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.007405066141556893</v>
+        <v>-0.01336968243880976</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.007664744709557136</v>
+        <v>-0.01341110860236516</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.007931942904199962</v>
+        <v>-0.01355644921470611</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.007994708766557723</v>
+        <v>-0.01356951598509781</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.008414137915210951</v>
+        <v>-0.01358852401617305</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.008909516468245227</v>
+        <v>-0.01359123550962316</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.008937146593066436</v>
+        <v>-0.01360603486332856</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.009162734141597739</v>
+        <v>-0.01364430607145584</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.009414676839611502</v>
+        <v>-0.01398507971316454</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.009763780468451944</v>
+        <v>-0.01444074263225015</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.01000951562687658</v>
+        <v>-0.01466936267030239</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.0102340545065116</v>
+        <v>-0.01468970274190617</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.01029303033723139</v>
+        <v>-0.01478351572939218</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.01049773424272749</v>
+        <v>-0.01480786711838522</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.01059782082542193</v>
+        <v>-0.01480952220502307</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.01072876930707367</v>
+        <v>-0.01483860298939443</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.01079565184879638</v>
+        <v>-0.01533371778412329</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.01082777134878288</v>
+        <v>-0.01543562411695443</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.01113628503677122</v>
+        <v>-0.01545202336385287</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.01136485074773352</v>
+        <v>-0.01589546179785928</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.01138141986389996</v>
+        <v>-0.01594313118098645</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.01139802881040353</v>
+        <v>-0.01608726283932826</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.01148246784151097</v>
+        <v>-0.01618580622004773</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.01153363645410965</v>
+        <v>-0.01627668825341944</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.01192036560769139</v>
+        <v>-0.01673665782589084</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.01256651458159974</v>
+        <v>-0.01719482440434461</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.01279598533572257</v>
+        <v>-0.01748460009424424</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.0128420236087714</v>
+        <v>-0.01750632865125779</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.01304712915652961</v>
+        <v>-0.01758163617026343</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.01396200759963262</v>
+        <v>-0.01763163538951174</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.01408317753677923</v>
+        <v>-0.01782995194325532</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.01458051862485099</v>
+        <v>-0.0183663908492091</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.01526311046449524</v>
+        <v>-0.01874628461646854</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.01542480679660641</v>
+        <v>-0.01877867930902566</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.0157852735419165</v>
+        <v>-0.01969634482016736</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.0178624927255826</v>
+        <v>-0.01976625532498222</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.01817505157983612</v>
+        <v>-0.02016731328469412</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.01839086791959832</v>
+        <v>-0.02016800751092196</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.01908692787898614</v>
+        <v>-0.02078386676214627</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.02063198981763958</v>
+        <v>-0.02199448341181909</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.02213552716976341</v>
+        <v>-0.02216003342337014</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.02283794277907203</v>
+        <v>-0.0223488181548005</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.02305654405219204</v>
+        <v>-0.02365161836747931</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.02306498472673235</v>
+        <v>-0.02399699727250437</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.02443641895083648</v>
+        <v>-0.02437863199880674</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.02484254190238488</v>
+        <v>-0.02473394832881515</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.02521564821764788</v>
+        <v>-0.02557953181001582</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.0268913504075794</v>
+        <v>-0.02810108777253928</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.02706032069623698</v>
+        <v>-0.02818792372135071</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.02793157071649965</v>
+        <v>-0.02901766790076388</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.02807632946684668</v>
+        <v>-0.02978926831071826</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.03130052871672218</v>
+        <v>-0.03100465378945205</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.03593048184948677</v>
+        <v>-0.03198608093147348</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.0364155405457498</v>
+        <v>-0.03336992553621365</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.04265493065254644</v>
+        <v>-0.03416057018078655</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.04579729771638563</v>
+        <v>-0.0348819857112117</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.0512072179067079</v>
+        <v>-0.03814929581053983</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.06074586539693927</v>
+        <v>-0.05215330139369578</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
     <t>884050.WI</t>
   </si>
   <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
   </si>
   <si>
     <t>884035.WI</t>
   </si>
   <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
     <t>884168.WI</t>
   </si>
   <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
     <t>884062.WI</t>
   </si>
   <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
+    <t>884040.WI</t>
   </si>
   <si>
     <t>884037.WI</t>
   </si>
   <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
     <t>海南旅游岛指数</t>
   </si>
   <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
   </si>
   <si>
     <t>新能源指数</t>
   </si>
   <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
     <t>长江经济带指数</t>
   </si>
   <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
     <t>生物育种指数</t>
   </si>
   <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
+    <t>垃圾发电指数</t>
   </si>
   <si>
     <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1491522138433059</v>
+        <v>0.1392756980873411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.08409355561864351</v>
+        <v>0.1127774082261908</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.05928245578599345</v>
+        <v>0.09666171456044292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.05664976224147544</v>
+        <v>0.09294895204611131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.03006585108049342</v>
+        <v>0.08446007379498677</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.02847255376093205</v>
+        <v>0.07485949884590259</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.02768675308116975</v>
+        <v>0.07106813905915477</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.02310767442819417</v>
+        <v>0.06781853205624788</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.01956025825135121</v>
+        <v>0.06578368275292079</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.01944918588712863</v>
+        <v>0.06546893005590726</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.01839725686636395</v>
+        <v>0.06545917365250453</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.01764769616671757</v>
+        <v>0.06480131892719565</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.0173907144163179</v>
+        <v>0.06371256398474601</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.01435098004605218</v>
+        <v>0.0621676815164256</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.01405377662000351</v>
+        <v>0.05914689085773284</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.01373884855190233</v>
+        <v>0.05850473854463933</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.01272459633024359</v>
+        <v>0.05732468139943303</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.0120183820783244</v>
+        <v>0.05624409367309258</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.01057051105221318</v>
+        <v>0.053276630550674</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.009508256020808403</v>
+        <v>0.05221662392698767</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.008599286584397792</v>
+        <v>0.05186107316723887</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.008173104791352026</v>
+        <v>0.05143566829665902</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.007672315046874045</v>
+        <v>0.05054006150303647</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.006996963818200364</v>
+        <v>0.04789580217534062</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.006924745418065426</v>
+        <v>0.04755563353053849</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.00635818024862167</v>
+        <v>0.04696713319424561</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.005926338844296053</v>
+        <v>0.04691690739959897</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.005110389170780882</v>
+        <v>0.0468035043528936</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.005098357169312173</v>
+        <v>0.04678009950418893</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.005073338777670022</v>
+        <v>0.0467767923925797</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.004962225751546478</v>
+        <v>0.04646542015488753</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.0048484416901724</v>
+        <v>0.04594388924631732</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.004196110454835811</v>
+        <v>0.04541341305483981</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.003995948240290925</v>
+        <v>0.04531192855466948</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.00399557910947812</v>
+        <v>0.04520841164121947</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.003850527307042606</v>
+        <v>0.04456994752399557</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.003547764172167733</v>
+        <v>0.04452312286201177</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.003189472276805105</v>
+        <v>0.04447760386072552</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.002163661891301238</v>
+        <v>0.04410528944921666</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.001834129122157746</v>
+        <v>0.04258620291896942</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.001720437882980264</v>
+        <v>0.04166466587181739</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.001592741165248102</v>
+        <v>0.0416330778837275</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.001383938727534728</v>
+        <v>0.04070280729199061</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.0002004400904433989</v>
+        <v>0.04025013417023859</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.0001241869673060947</v>
+        <v>0.0397781235854715</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.03847473139245183</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>-1.232488588820413e-05</v>
+        <v>0.03837483498805283</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>-0.0002676438558386618</v>
+        <v>0.03834988688165075</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>-0.0004161825231151495</v>
+        <v>0.03824482300188436</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>-0.0006267413494353002</v>
+        <v>0.0382018325603497</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>-0.0009834276876434789</v>
+        <v>0.03810328968615018</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>-0.001217276619671526</v>
+        <v>0.03737123450226676</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>-0.001239288397228089</v>
+        <v>0.03716916957841687</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>-0.001468061041454805</v>
+        <v>0.03706518763399602</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>-0.001700559924162626</v>
+        <v>0.03671179335235064</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>-0.001965623150350648</v>
+        <v>0.03599940210100105</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.002198692899563315</v>
+        <v>0.03550731601213486</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.002215111296552386</v>
+        <v>0.03529265845816587</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.002418142324229322</v>
+        <v>0.03521540619146157</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.002791231327872956</v>
+        <v>0.03501604695031046</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.003016707680395969</v>
+        <v>0.03474669039188938</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.003053002361180557</v>
+        <v>0.03472877383320649</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.003560190454339418</v>
+        <v>0.03435007819657798</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.003869034398898408</v>
+        <v>0.03297399918101696</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.004134771345628896</v>
+        <v>0.03278282162927337</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.004546980669509315</v>
+        <v>0.03246571264464215</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.004742634667031287</v>
+        <v>0.03237125385587891</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.005042329128266076</v>
+        <v>0.03224356539709872</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.005150009877541772</v>
+        <v>0.03207880941477437</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.005351915943271002</v>
+        <v>0.03185365934857765</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.005474283955395287</v>
+        <v>0.03148934328708597</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.005593989087617546</v>
+        <v>0.03143121722959763</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.005599234159775923</v>
+        <v>0.03134478420346865</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.005839952296477602</v>
+        <v>0.03095766961774982</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.006018851974821438</v>
+        <v>0.03090544791705918</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.006021916889451973</v>
+        <v>0.03068777390120991</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.006046631891210796</v>
+        <v>0.03039854022923372</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.006282223621749794</v>
+        <v>0.03024648582075007</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.006283606497868965</v>
+        <v>0.03021817952679196</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.006319545337235777</v>
+        <v>0.03004072855281392</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.006353613359047383</v>
+        <v>0.02992659743219606</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.00642400368167162</v>
+        <v>0.02980610965692998</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.006507361002584533</v>
+        <v>0.02972047933959021</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.006595230297902099</v>
+        <v>0.02963247276895653</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.006873647046752751</v>
+        <v>0.02953161132731941</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.007441123166441521</v>
+        <v>0.029470358796444</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.007641533224532759</v>
+        <v>0.02881389871399498</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.007685726766551104</v>
+        <v>0.02846880032483168</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.008544415964270136</v>
+        <v>0.02810357186458967</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.008601794444301647</v>
+        <v>0.02762647101901483</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.008821318235450182</v>
+        <v>0.02755692653084751</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.008930315535539246</v>
+        <v>0.02751719192449076</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.009074777831305836</v>
+        <v>0.0274003311108979</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.009213222505763174</v>
+        <v>0.0273935576895743</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.009220779731001327</v>
+        <v>0.02711829202686999</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.009246270099024012</v>
+        <v>0.02710360055956751</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.009271788734026121</v>
+        <v>0.02701421511710023</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.009300151002077595</v>
+        <v>0.02682699841213965</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.009339482034732338</v>
+        <v>0.02637685616240204</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.009499077801053524</v>
+        <v>0.02626981740277956</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.009609889858376741</v>
+        <v>0.02587544759169425</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.009684091936551287</v>
+        <v>0.02586801018351448</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.009723126154076001</v>
+        <v>0.02531730703087698</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.009749535537041942</v>
+        <v>0.0253009269035962</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.01031370581017765</v>
+        <v>0.02525668602593756</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.01038291325943941</v>
+        <v>0.02500284590690893</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.01046360814201519</v>
+        <v>0.0249749160378141</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.01077970138557216</v>
+        <v>0.02449884835403027</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.01084535800288511</v>
+        <v>0.02434295633432315</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.01108719444606099</v>
+        <v>0.02411639898046403</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.01124317675653919</v>
+        <v>0.02364754166695127</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.01132616355204252</v>
+        <v>0.0232970502514227</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.01171913419763626</v>
+        <v>0.02264434352178424</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.0117908680306249</v>
+        <v>0.02254639684498705</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.01207776873384037</v>
+        <v>0.02238066396286031</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.01211281758421356</v>
+        <v>0.02228769014724996</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.01223869043341386</v>
+        <v>0.02227533820298877</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.01236833523138248</v>
+        <v>0.02201342648519167</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.01248596829392989</v>
+        <v>0.02186662190585476</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.01251131842564435</v>
+        <v>0.02169828479865399</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.01253026862055961</v>
+        <v>0.02137306758885593</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.01276801332942967</v>
+        <v>0.02121792970325154</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.01290078234058389</v>
+        <v>0.02098638535726294</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.01305090166685463</v>
+        <v>0.02089990184027624</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.01336968243880976</v>
+        <v>0.02085814383555196</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.01341110860236516</v>
+        <v>0.0207964735707078</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.01355644921470611</v>
+        <v>0.02038004471097943</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.01356951598509781</v>
+        <v>0.02023899332185564</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.01358852401617305</v>
+        <v>0.02009262292465142</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.01359123550962316</v>
+        <v>0.01986609342591272</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.01360603486332856</v>
+        <v>0.01967178026221994</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.01364430607145584</v>
+        <v>0.01955452349465858</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.01398507971316454</v>
+        <v>0.01941618546221835</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.01444074263225015</v>
+        <v>0.01932373811522559</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.01466936267030239</v>
+        <v>0.01913360525132601</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.01468970274190617</v>
+        <v>0.01808755540999352</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.01478351572939218</v>
+        <v>0.01748143396995916</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.01480786711838522</v>
+        <v>0.01743429791114615</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.01480952220502307</v>
+        <v>0.01718158566287498</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.01483860298939443</v>
+        <v>0.01682261588563616</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.01533371778412329</v>
+        <v>0.01642020883428907</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.01543562411695443</v>
+        <v>0.01547615077039488</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.01545202336385287</v>
+        <v>0.01537661284113523</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.01589546179785928</v>
+        <v>0.01509235172476608</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.01594313118098645</v>
+        <v>0.01508609976874031</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.01608726283932826</v>
+        <v>0.01478258339661043</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.01618580622004773</v>
+        <v>0.01441997747359403</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.01627668825341944</v>
+        <v>0.0142729256172589</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.01673665782589084</v>
+        <v>0.01406766914835167</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.01719482440434461</v>
+        <v>0.01284737114282919</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.01748460009424424</v>
+        <v>0.01161215394323856</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.01750632865125779</v>
+        <v>0.01124490672005463</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.01758163617026343</v>
+        <v>0.01116061517465061</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.01763163538951174</v>
+        <v>0.01113960006886194</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.01782995194325532</v>
+        <v>0.01091264503283429</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.0183663908492091</v>
+        <v>0.01057266313845351</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.01874628461646854</v>
+        <v>0.01019409537012228</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.01877867930902566</v>
+        <v>0.009751228595895611</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.01969634482016736</v>
+        <v>0.009511104075424548</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.01976625532498222</v>
+        <v>0.009345373754279684</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.02016731328469412</v>
+        <v>0.009217626180547889</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.02016800751092196</v>
+        <v>0.009040720565872906</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.02078386676214627</v>
+        <v>0.008741697517998803</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.02199448341181909</v>
+        <v>0.008506151265081474</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.02216003342337014</v>
+        <v>0.007748634837538182</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.0223488181548005</v>
+        <v>0.007440915157493011</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.02365161836747931</v>
+        <v>0.007272418525076541</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.02399699727250437</v>
+        <v>0.007106997066936183</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.02437863199880674</v>
+        <v>0.006812708465777195</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.02473394832881515</v>
+        <v>0.006439432294661929</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.02557953181001582</v>
+        <v>0.004975985055910348</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.02810108777253928</v>
+        <v>0.004298720629913433</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.02818792372135071</v>
+        <v>0.004012977995549782</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.02901766790076388</v>
+        <v>0.003522731272652457</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.02978926831071826</v>
+        <v>0.0008637872320584883</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.03100465378945205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.03198608093147348</v>
+        <v>-6.661475079472456e-05</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.03336992553621365</v>
+        <v>-0.002705780327830087</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.03416057018078655</v>
+        <v>-0.003298579855136929</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.0348819857112117</v>
+        <v>-0.003418272738161976</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.03814929581053983</v>
+        <v>-0.007353444423185307</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.05215330139369578</v>
+        <v>-0.02920220561695874</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
     <t>884252.WI</t>
   </si>
   <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
     <t>884179.WI</t>
   </si>
   <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
   </si>
   <si>
     <t>884195.WI</t>
   </si>
   <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
     <t>884168.WI</t>
   </si>
   <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
     <t>鸡指数</t>
   </si>
   <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
     <t>医药电商指数</t>
   </si>
   <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
   </si>
   <si>
     <t>西藏振兴指数</t>
   </si>
   <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
     <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1392756980873411</v>
+        <v>0.06298883294045221</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.1127774082261908</v>
+        <v>0.02022619073005405</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.09666171456044292</v>
+        <v>0.0126940231886723</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.09294895204611131</v>
+        <v>0.01000190237198884</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.08446007379498677</v>
+        <v>0.00996572721679323</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.07485949884590259</v>
+        <v>0.009017742253669692</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.07106813905915477</v>
+        <v>0.006408177955271377</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.06781853205624788</v>
+        <v>0.004860334775210085</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.06578368275292079</v>
+        <v>0.004686148178137506</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.06546893005590726</v>
+        <v>0.004418510811393661</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.06545917365250453</v>
+        <v>0.003501329575530621</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.06480131892719565</v>
+        <v>0.002715249651594753</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.06371256398474601</v>
+        <v>0.001360731916416835</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.0621676815164256</v>
+        <v>0.001230352993453865</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.05914689085773284</v>
+        <v>0.001100170854896332</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.05850473854463933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.05732468139943303</v>
+        <v>-4.78986063444653e-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.05624409367309258</v>
+        <v>-0.001264852177722098</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.053276630550674</v>
+        <v>-0.00348955531573869</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.05221662392698767</v>
+        <v>-0.00385135929856173</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.05186107316723887</v>
+        <v>-0.004829003623450068</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.05143566829665902</v>
+        <v>-0.004998071866198828</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.05054006150303647</v>
+        <v>-0.007008839432735892</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.04789580217534062</v>
+        <v>-0.007897026581382804</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.04755563353053849</v>
+        <v>-0.009029789806977884</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.04696713319424561</v>
+        <v>-0.009503351360630408</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.04691690739959897</v>
+        <v>-0.01094790077111496</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.0468035043528936</v>
+        <v>-0.01102016628021529</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.04678009950418893</v>
+        <v>-0.01364638874827384</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.0467767923925797</v>
+        <v>-0.01386055666891384</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.04646542015488753</v>
+        <v>-0.01395347844148931</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.04594388924631732</v>
+        <v>-0.01445849568844604</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.04541341305483981</v>
+        <v>-0.01458916700366497</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.04531192855466948</v>
+        <v>-0.01617009409314785</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.04520841164121947</v>
+        <v>-0.01668498032088717</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.04456994752399557</v>
+        <v>-0.01695536197758218</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.04452312286201177</v>
+        <v>-0.0173341774265996</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.04447760386072552</v>
+        <v>-0.01740506329113922</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.04410528944921666</v>
+        <v>-0.01791417543106666</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.04258620291896942</v>
+        <v>-0.01843418777968364</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.04166466587181739</v>
+        <v>-0.01875191134239906</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.0416330778837275</v>
+        <v>-0.01877085907989051</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.04070280729199061</v>
+        <v>-0.01900254903481291</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.04025013417023859</v>
+        <v>-0.01916997773528284</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.0397781235854715</v>
+        <v>-0.01965036339799464</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.03847473139245183</v>
+        <v>-0.02043370635495911</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.03837483498805283</v>
+        <v>-0.02049217114139157</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.03834988688165075</v>
+        <v>-0.02196885380872693</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.03824482300188436</v>
+        <v>-0.02211282763751088</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.0382018325603497</v>
+        <v>-0.02225488369067785</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.03810328968615018</v>
+        <v>-0.0223595863748558</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.03737123450226676</v>
+        <v>-0.02245353191807886</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.03716916957841687</v>
+        <v>-0.02253435030938933</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.03706518763399602</v>
+        <v>-0.02253565194520413</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.03671179335235064</v>
+        <v>-0.02274923932619466</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.03599940210100105</v>
+        <v>-0.02310042563934445</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>0.03550731601213486</v>
+        <v>-0.02322000684632042</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>0.03529265845816587</v>
+        <v>-0.02359589848212085</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>0.03521540619146157</v>
+        <v>-0.02461179820818304</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>0.03501604695031046</v>
+        <v>-0.02498068327166547</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>0.03474669039188938</v>
+        <v>-0.024997279239098</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>0.03472877383320649</v>
+        <v>-0.02501122886238449</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>0.03435007819657798</v>
+        <v>-0.02519766881836072</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>0.03297399918101696</v>
+        <v>-0.02526674194589107</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>0.03278282162927337</v>
+        <v>-0.0253190860867919</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>0.03246571264464215</v>
+        <v>-0.0256146350061327</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>0.03237125385587891</v>
+        <v>-0.02644755892945583</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>0.03224356539709872</v>
+        <v>-0.02666669034828872</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>0.03207880941477437</v>
+        <v>-0.02716190100035676</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>0.03185365934857765</v>
+        <v>-0.02730513910560473</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>0.03148934328708597</v>
+        <v>-0.02765202874118944</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>0.03143121722959763</v>
+        <v>-0.02799520356075147</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>0.03134478420346865</v>
+        <v>-0.02821269813489968</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>0.03095766961774982</v>
+        <v>-0.02822323682172567</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>0.03090544791705918</v>
+        <v>-0.02825926106481935</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>0.03068777390120991</v>
+        <v>-0.02826464124252059</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>0.03039854022923372</v>
+        <v>-0.02832212637968601</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>0.03024648582075007</v>
+        <v>-0.02854418583371243</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>0.03021817952679196</v>
+        <v>-0.02900037818117085</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>0.03004072855281392</v>
+        <v>-0.02943869048214087</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>0.02992659743219606</v>
+        <v>-0.02964520899034684</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>0.02980610965692998</v>
+        <v>-0.02997373811581994</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>0.02972047933959021</v>
+        <v>-0.03043125302880956</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>0.02963247276895653</v>
+        <v>-0.03052515913652021</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>0.02953161132731941</v>
+        <v>-0.03072711575726927</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>0.029470358796444</v>
+        <v>-0.03151709206031617</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>0.02881389871399498</v>
+        <v>-0.03153913352872517</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>0.02846880032483168</v>
+        <v>-0.03268707181261121</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>0.02810357186458967</v>
+        <v>-0.03276924054022146</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>0.02762647101901483</v>
+        <v>-0.03281728942904649</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>0.02755692653084751</v>
+        <v>-0.03304822397302476</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>0.02751719192449076</v>
+        <v>-0.03415868408170175</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>0.0274003311108979</v>
+        <v>-0.03423125450540743</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>0.0273935576895743</v>
+        <v>-0.03453249931502511</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>0.02711829202686999</v>
+        <v>-0.03487360473066947</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>0.02710360055956751</v>
+        <v>-0.03499521018589569</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>0.02701421511710023</v>
+        <v>-0.03540407674998203</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>0.02682699841213965</v>
+        <v>-0.03578745846737619</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>0.02637685616240204</v>
+        <v>-0.03602404751451627</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>0.02626981740277956</v>
+        <v>-0.03611770806090975</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>0.02587544759169425</v>
+        <v>-0.03614512805933179</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>0.02586801018351448</v>
+        <v>-0.03648285418819852</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>0.02531730703087698</v>
+        <v>-0.03670863319012041</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>0.0253009269035962</v>
+        <v>-0.03719236150045324</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>0.02525668602593756</v>
+        <v>-0.03729564435823829</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>0.02500284590690893</v>
+        <v>-0.03753150866328026</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>0.0249749160378141</v>
+        <v>-0.03802835469304833</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>0.02449884835403027</v>
+        <v>-0.03824087936657927</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>0.02434295633432315</v>
+        <v>-0.03859148387785361</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>0.02411639898046403</v>
+        <v>-0.03906783603233421</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>0.02364754166695127</v>
+        <v>-0.03932468232044772</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>0.0232970502514227</v>
+        <v>-0.03945016114011746</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>0.02264434352178424</v>
+        <v>-0.03976924025564199</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>0.02254639684498705</v>
+        <v>-0.03992564216722017</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>0.02238066396286031</v>
+        <v>-0.04008081837193356</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>0.02228769014724996</v>
+        <v>-0.04036080288512434</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>0.02227533820298877</v>
+        <v>-0.04059381941700502</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>0.02201342648519167</v>
+        <v>-0.04086074946933216</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>0.02186662190585476</v>
+        <v>-0.04109682689024219</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>0.02169828479865399</v>
+        <v>-0.04150188623964968</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>0.02137306758885593</v>
+        <v>-0.04162942439570128</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>0.02121792970325154</v>
+        <v>-0.04186158499886539</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>0.02098638535726294</v>
+        <v>-0.0421871212598075</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>0.02089990184027624</v>
+        <v>-0.04232880899040403</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>0.02085814383555196</v>
+        <v>-0.04244235123510942</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>0.0207964735707078</v>
+        <v>-0.04249689515435018</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>0.02038004471097943</v>
+        <v>-0.0432774872587619</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>0.02023899332185564</v>
+        <v>-0.04336726375095579</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>0.02009262292465142</v>
+        <v>-0.04340562287601901</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>0.01986609342591272</v>
+        <v>-0.04383383689867815</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>0.01967178026221994</v>
+        <v>-0.04441363279790422</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>0.01955452349465858</v>
+        <v>-0.04462085907595859</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>0.01941618546221835</v>
+        <v>-0.04548242663778157</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>0.01932373811522559</v>
+        <v>-0.0457969342023824</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>0.01913360525132601</v>
+        <v>-0.04606326893531565</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>0.01808755540999352</v>
+        <v>-0.04606708643405411</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>0.01748143396995916</v>
+        <v>-0.04697470815065297</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>0.01743429791114615</v>
+        <v>-0.04730400220783482</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>0.01718158566287498</v>
+        <v>-0.04738897994784785</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>0.01682261588563616</v>
+        <v>-0.04777410732888909</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>0.01642020883428907</v>
+        <v>-0.04824341016021716</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>0.01547615077039488</v>
+        <v>-0.04830652125769463</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>0.01537661284113523</v>
+        <v>-0.04946553906022499</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>0.01509235172476608</v>
+        <v>-0.05005419900360342</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>0.01508609976874031</v>
+        <v>-0.05020743021473173</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>0.01478258339661043</v>
+        <v>-0.05046235065356286</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>0.01441997747359403</v>
+        <v>-0.05064338211988217</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>0.0142729256172589</v>
+        <v>-0.05100873734894684</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>0.01406766914835167</v>
+        <v>-0.05127703271455164</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>0.01284737114282919</v>
+        <v>-0.05131996738675482</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>0.01161215394323856</v>
+        <v>-0.05153863950474313</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>0.01124490672005463</v>
+        <v>-0.05169046187687976</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>0.01116061517465061</v>
+        <v>-0.05176086127717261</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>0.01113960006886194</v>
+        <v>-0.05187063231796074</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>0.01091264503283429</v>
+        <v>-0.05217335204066575</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>0.01057266313845351</v>
+        <v>-0.05236504970058187</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>0.01019409537012228</v>
+        <v>-0.05254904733147647</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>0.009751228595895611</v>
+        <v>-0.05416068518562811</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>0.009511104075424548</v>
+        <v>-0.05425085776034189</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>0.009345373754279684</v>
+        <v>-0.05539213450574532</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>0.009217626180547889</v>
+        <v>-0.05570256167932186</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>0.009040720565872906</v>
+        <v>-0.05692961712405087</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>0.008741697517998803</v>
+        <v>-0.05838451631572183</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>0.008506151265081474</v>
+        <v>-0.05899994194018066</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>0.007748634837538182</v>
+        <v>-0.05964230739764342</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>0.007440915157493011</v>
+        <v>-0.06094978947853991</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>0.007272418525076541</v>
+        <v>-0.06396244187986255</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>0.007106997066936183</v>
+        <v>-0.0650493479552896</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>0.006812708465777195</v>
+        <v>-0.06530667399752998</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>0.006439432294661929</v>
+        <v>-0.06757888073834739</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>0.004975985055910348</v>
+        <v>-0.06896811284385784</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>0.004298720629913433</v>
+        <v>-0.07223615770235603</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>0.004012977995549782</v>
+        <v>-0.07284290773290836</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>0.003522731272652457</v>
+        <v>-0.07540055759966147</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>0.0008637872320584883</v>
+        <v>-0.07736957547015799</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>-0.08060899812071498</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-6.661475079472456e-05</v>
+        <v>-0.08333628040061358</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.002705780327830087</v>
+        <v>-0.08359819136270119</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.003298579855136929</v>
+        <v>-0.08534450345348732</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.003418272738161976</v>
+        <v>-0.08699700999956439</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.007353444423185307</v>
+        <v>-0.09886186956493481</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.02920220561695874</v>
+        <v>-0.1141145223847343</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -28,1093 +28,1093 @@
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
     <t>884152.WI</t>
   </si>
   <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
     <t>884116.WI</t>
   </si>
   <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
   </si>
   <si>
     <t>884228.WI</t>
   </si>
   <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
     <t>884232.WI</t>
   </si>
   <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
     <t>粤港澳自贸区指数</t>
   </si>
   <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
     <t>苹果指数</t>
   </si>
   <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
   </si>
   <si>
     <t>无线充电指数</t>
   </si>
   <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
     <t>白马股指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.06298883294045221</v>
+        <v>0.101264515639178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.02022619073005405</v>
+        <v>0.08151352166198755</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.0126940231886723</v>
+        <v>0.075872942290935</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.01000190237198884</v>
+        <v>0.07072855595614835</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.00996572721679323</v>
+        <v>0.06948028387094807</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.009017742253669692</v>
+        <v>0.06252573279137197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.006408177955271377</v>
+        <v>0.05815329208537801</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.004860334775210085</v>
+        <v>0.0564251038786403</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.004686148178137506</v>
+        <v>0.04755266558072924</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.004418510811393661</v>
+        <v>0.04716821907573121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.003501329575530621</v>
+        <v>0.04057769940272538</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.002715249651594753</v>
+        <v>0.03965983821858132</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.001360731916416835</v>
+        <v>0.03881537976009564</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.001230352993453865</v>
+        <v>0.03871377794658115</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.001100170854896332</v>
+        <v>0.03868941362046319</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.03749526139605042</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>-4.78986063444653e-05</v>
+        <v>0.03668792012330058</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>-0.001264852177722098</v>
+        <v>0.03667670587148608</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>-0.00348955531573869</v>
+        <v>0.0365272940460073</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>-0.00385135929856173</v>
+        <v>0.03624737532714617</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>-0.004829003623450068</v>
+        <v>0.03614731888864231</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>-0.004998071866198828</v>
+        <v>0.0357296944392127</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>-0.007008839432735892</v>
+        <v>0.03550244866553331</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>-0.007897026581382804</v>
+        <v>0.03549969032441003</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>-0.009029789806977884</v>
+        <v>0.03502694608837631</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>-0.009503351360630408</v>
+        <v>0.03448267339941657</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>-0.01094790077111496</v>
+        <v>0.03441948014047158</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>-0.01102016628021529</v>
+        <v>0.03434652737169142</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>-0.01364638874827384</v>
+        <v>0.03414359164235026</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>-0.01386055666891384</v>
+        <v>0.03411213393817047</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>-0.01395347844148931</v>
+        <v>0.03395572079422449</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>-0.01445849568844604</v>
+        <v>0.0336163547389432</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>-0.01458916700366497</v>
+        <v>0.0333602384611138</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>-0.01617009409314785</v>
+        <v>0.03193226481681499</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>-0.01668498032088717</v>
+        <v>0.03173414712140277</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>-0.01695536197758218</v>
+        <v>0.03153038637412009</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>-0.0173341774265996</v>
+        <v>0.03113008924254435</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>-0.01740506329113922</v>
+        <v>0.0309137969695239</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>-0.01791417543106666</v>
+        <v>0.03025218815433894</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>-0.01843418777968364</v>
+        <v>0.02940369484887317</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>-0.01875191134239906</v>
+        <v>0.02929911287988363</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>-0.01877085907989051</v>
+        <v>0.0292785354018632</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>-0.01900254903481291</v>
+        <v>0.0289283378412557</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>-0.01916997773528284</v>
+        <v>0.02891860284914616</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>-0.01965036339799464</v>
+        <v>0.02873458612386548</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>-0.02043370635495911</v>
+        <v>0.02870733896417765</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>-0.02049217114139157</v>
+        <v>0.02835646114176726</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>-0.02196885380872693</v>
+        <v>0.02831868270228699</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>-0.02211282763751088</v>
+        <v>0.02827360130981638</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>-0.02225488369067785</v>
+        <v>0.0282445229087871</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>-0.0223595863748558</v>
+        <v>0.02811961303046706</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>-0.02245353191807886</v>
+        <v>0.02796593157538707</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>-0.02253435030938933</v>
+        <v>0.02782486973741727</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>-0.02253565194520413</v>
+        <v>0.02710420565505567</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>-0.02274923932619466</v>
+        <v>0.02617471088974099</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>-0.02310042563934445</v>
+        <v>0.02616619691050848</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>-0.02322000684632042</v>
+        <v>0.02599902421581768</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>-0.02359589848212085</v>
+        <v>0.02584050981814179</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>-0.02461179820818304</v>
+        <v>0.02575523631331711</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>-0.02498068327166547</v>
+        <v>0.02566272961154548</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>-0.024997279239098</v>
+        <v>0.02548827872981896</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>-0.02501122886238449</v>
+        <v>0.02541866290571759</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>-0.02519766881836072</v>
+        <v>0.02519648480072001</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>-0.02526674194589107</v>
+        <v>0.02478915860199815</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>-0.0253190860867919</v>
+        <v>0.02464433187984039</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>-0.0256146350061327</v>
+        <v>0.02448790156844494</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>-0.02644755892945583</v>
+        <v>0.02373947337482263</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>-0.02666669034828872</v>
+        <v>0.02329630058020182</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>-0.02716190100035676</v>
+        <v>0.023105295074072</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>-0.02730513910560473</v>
+        <v>0.02305385500563562</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>-0.02765202874118944</v>
+        <v>0.02262857380390138</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>-0.02799520356075147</v>
+        <v>0.02229697310238676</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>-0.02821269813489968</v>
+        <v>0.02160172067650934</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>-0.02822323682172567</v>
+        <v>0.02155632861942491</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>-0.02825926106481935</v>
+        <v>0.02154316646174204</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>-0.02826464124252059</v>
+        <v>0.02152179563150125</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>-0.02832212637968601</v>
+        <v>0.02139734520192893</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>-0.02854418583371243</v>
+        <v>0.02128581663685591</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>-0.02900037818117085</v>
+        <v>0.02114258276867531</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>-0.02943869048214087</v>
+        <v>0.02091862621904883</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>-0.02964520899034684</v>
+        <v>0.02091589908534708</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>-0.02997373811581994</v>
+        <v>0.02086675245465264</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>-0.03043125302880956</v>
+        <v>0.02078313934336173</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>-0.03052515913652021</v>
+        <v>0.02063486691959171</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>-0.03072711575726927</v>
+        <v>0.02039166803193337</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>-0.03151709206031617</v>
+        <v>0.01993355281771336</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>-0.03153913352872517</v>
+        <v>0.01961016826705109</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>-0.03268707181261121</v>
+        <v>0.01926283459622269</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>-0.03276924054022146</v>
+        <v>0.01914065612243099</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>-0.03281728942904649</v>
+        <v>0.01909721296883582</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>-0.03304822397302476</v>
+        <v>0.01905969111432415</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>-0.03415868408170175</v>
+        <v>0.01885282471233585</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>-0.03423125450540743</v>
+        <v>0.01884946344674754</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>-0.03453249931502511</v>
+        <v>0.01883358981135252</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>-0.03487360473066947</v>
+        <v>0.0186265073232923</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>-0.03499521018589569</v>
+        <v>0.01849870180127611</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>-0.03540407674998203</v>
+        <v>0.01836521378737088</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>-0.03578745846737619</v>
+        <v>0.01805897675346335</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>-0.03602404751451627</v>
+        <v>0.01784978808243776</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>-0.03611770806090975</v>
+        <v>0.01784915021097033</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>-0.03614512805933179</v>
+        <v>0.01762821917088009</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>-0.03648285418819852</v>
+        <v>0.0176245758634801</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>-0.03670863319012041</v>
+        <v>0.01755592791839389</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>-0.03719236150045324</v>
+        <v>0.01746561691828674</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>-0.03729564435823829</v>
+        <v>0.0170226808584355</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>-0.03753150866328026</v>
+        <v>0.01671393852125203</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>-0.03802835469304833</v>
+        <v>0.01650066451724941</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>-0.03824087936657927</v>
+        <v>0.01621590223868119</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>-0.03859148387785361</v>
+        <v>0.0161648038065465</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>-0.03906783603233421</v>
+        <v>0.01616247055173869</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>-0.03932468232044772</v>
+        <v>0.01593216567301203</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>-0.03945016114011746</v>
+        <v>0.01587692359433035</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>-0.03976924025564199</v>
+        <v>0.0155541564318542</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>-0.03992564216722017</v>
+        <v>0.01549858650637947</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>-0.04008081837193356</v>
+        <v>0.01532071697638737</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>-0.04036080288512434</v>
+        <v>0.01503735548565777</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>-0.04059381941700502</v>
+        <v>0.0148973568613362</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>-0.04086074946933216</v>
+        <v>0.01475876059721504</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>-0.04109682689024219</v>
+        <v>0.01472462519369278</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>-0.04150188623964968</v>
+        <v>0.01434906948001524</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>-0.04162942439570128</v>
+        <v>0.01403472856211518</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>-0.04186158499886539</v>
+        <v>0.01387542613524961</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>-0.0421871212598075</v>
+        <v>0.01373689124693955</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>-0.04232880899040403</v>
+        <v>0.01347396640003229</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>-0.04244235123510942</v>
+        <v>0.01289006639206813</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>-0.04249689515435018</v>
+        <v>0.01287259761326998</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>-0.0432774872587619</v>
+        <v>0.01262287247309191</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>-0.04336726375095579</v>
+        <v>0.01246585781624865</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>-0.04340562287601901</v>
+        <v>0.01226450933454037</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>-0.04383383689867815</v>
+        <v>0.01219233131819331</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>-0.04441363279790422</v>
+        <v>0.01214938553397449</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>-0.04462085907595859</v>
+        <v>0.01212107389170103</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>-0.04548242663778157</v>
+        <v>0.01201669846032649</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>-0.0457969342023824</v>
+        <v>0.01176652721360716</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>-0.04606326893531565</v>
+        <v>0.01162815313986187</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>-0.04606708643405411</v>
+        <v>0.01161063603298795</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>-0.04697470815065297</v>
+        <v>0.01118979956117228</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>-0.04730400220783482</v>
+        <v>0.01107255219246195</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>-0.04738897994784785</v>
+        <v>0.01106095442882893</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>-0.04777410732888909</v>
+        <v>0.01095592947841539</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>-0.04824341016021716</v>
+        <v>0.01095356442716078</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>-0.04830652125769463</v>
+        <v>0.01076570622687045</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>-0.04946553906022499</v>
+        <v>0.01064814741328868</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>-0.05005419900360342</v>
+        <v>0.01049608786505019</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>-0.05020743021473173</v>
+        <v>0.009383798483217909</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>-0.05046235065356286</v>
+        <v>0.008724686629466571</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>-0.05064338211988217</v>
+        <v>0.008688596006542593</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>-0.05100873734894684</v>
+        <v>0.008568627311906329</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>-0.05127703271455164</v>
+        <v>0.007997426458109969</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>-0.05131996738675482</v>
+        <v>0.007212150456695099</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>-0.05153863950474313</v>
+        <v>0.006839945683061233</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>-0.05169046187687976</v>
+        <v>0.006073946943668362</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>-0.05176086127717261</v>
+        <v>0.005538823458818065</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>-0.05187063231796074</v>
+        <v>0.005458176051626351</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>-0.05217335204066575</v>
+        <v>0.005405347264537452</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>-0.05236504970058187</v>
+        <v>0.003314756355464521</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>-0.05254904733147647</v>
+        <v>0.003103437309389445</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>-0.05416068518562811</v>
+        <v>0.002919863614952112</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>-0.05425085776034189</v>
+        <v>0.002882212463942935</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>-0.05539213450574532</v>
+        <v>0.002511389535152952</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>-0.05570256167932186</v>
+        <v>0.00177323858340972</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>-0.05692961712405087</v>
+        <v>0.001278353434146728</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>-0.05838451631572183</v>
+        <v>0.00108219437744439</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>-0.05899994194018066</v>
+        <v>0.0009403728698775815</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>-0.05964230739764342</v>
+        <v>0.000265077167120209</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>-0.06094978947853991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.06396244187986255</v>
+        <v>-0.001102570257720759</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.0650493479552896</v>
+        <v>-0.002673574451404259</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.06530667399752998</v>
+        <v>-0.002781285333465444</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.06757888073834739</v>
+        <v>-0.004354047917219162</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.06896811284385784</v>
+        <v>-0.005084340490254746</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.07223615770235603</v>
+        <v>-0.005290714311806166</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.07284290773290836</v>
+        <v>-0.006549899063702069</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.07540055759966147</v>
+        <v>-0.007357553714644971</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.07736957547015799</v>
+        <v>-0.008403789472368306</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.08060899812071498</v>
+        <v>-0.008657392900685013</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.08333628040061358</v>
+        <v>-0.0103503138731913</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.08359819136270119</v>
+        <v>-0.01137564884464359</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.08534450345348732</v>
+        <v>-0.01813469368180676</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.08699700999956439</v>
+        <v>-0.01832745594285834</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.09886186956493481</v>
+        <v>-0.01915795249044361</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.1141145223847343</v>
+        <v>-0.0206205132584808</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -25,1096 +25,1096 @@
     <t>代码</t>
   </si>
   <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884228.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884128.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
     <t>884190.WI</t>
   </si>
   <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
     <t>884104.WI</t>
   </si>
   <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884223.WI</t>
+  </si>
+  <si>
     <t>884175.WI</t>
   </si>
   <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884226.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884128.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884223.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884228.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
   </si>
   <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>无线充电指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>4G指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
     <t>特高压指数</t>
   </si>
   <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
     <t>航母指数</t>
   </si>
   <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>小程序指数</t>
+  </si>
+  <si>
     <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>共享汽车指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>4G指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>小程序指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>无线充电指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.101264515639178</v>
+        <v>0.1258257964999723</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.08151352166198755</v>
+        <v>0.1048308105068048</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.075872942290935</v>
+        <v>0.09908970381435145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.07072855595614835</v>
+        <v>0.09479196021978153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.06948028387094807</v>
+        <v>0.07188371721982234</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.06252573279137197</v>
+        <v>0.0714191901874941</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.05815329208537801</v>
+        <v>0.07044008929859835</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.0564251038786403</v>
+        <v>0.07025481823768431</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.04755266558072924</v>
+        <v>0.07022127014330559</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.04716821907573121</v>
+        <v>0.06683723771737982</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.04057769940272538</v>
+        <v>0.06508562117203054</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.03965983821858132</v>
+        <v>0.06053976828194307</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.03881537976009564</v>
+        <v>0.06026755463027511</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.03871377794658115</v>
+        <v>0.05754195530529094</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.03868941362046319</v>
+        <v>0.05728834890432788</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.03749526139605042</v>
+        <v>0.05637002665462942</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.03668792012330058</v>
+        <v>0.05628115949938373</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.03667670587148608</v>
+        <v>0.05573676629481805</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.0365272940460073</v>
+        <v>0.05520353832022007</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.03624737532714617</v>
+        <v>0.05511718184831871</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.03614731888864231</v>
+        <v>0.05478737188821503</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.0357296944392127</v>
+        <v>0.05388217445171906</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.03550244866553331</v>
+        <v>0.05277187194590161</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.03549969032441003</v>
+        <v>0.05153970117961348</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.03502694608837631</v>
+        <v>0.05036376147186905</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.03448267339941657</v>
+        <v>0.05010239101915848</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.03441948014047158</v>
+        <v>0.04959850081836481</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.03434652737169142</v>
+        <v>0.04930076465625133</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.03414359164235026</v>
+        <v>0.04927177904601732</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.03411213393817047</v>
+        <v>0.04819058899575146</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.03395572079422449</v>
+        <v>0.04790890716660212</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.0336163547389432</v>
+        <v>0.04745496577556674</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.0333602384611138</v>
+        <v>0.04629785964685396</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.03193226481681499</v>
+        <v>0.0456983364517014</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.03173414712140277</v>
+        <v>0.0446480511236782</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.03153038637412009</v>
+        <v>0.04438981091794614</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.03113008924254435</v>
+        <v>0.04422902109064064</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.0309137969695239</v>
+        <v>0.0432876266206923</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.03025218815433894</v>
+        <v>0.04258926304191379</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.02940369484887317</v>
+        <v>0.04239973589643364</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.02929911287988363</v>
+        <v>0.04235537697054159</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.0292785354018632</v>
+        <v>0.04218978409362117</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.0289283378412557</v>
+        <v>0.04211573622915288</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.02891860284914616</v>
+        <v>0.04195427928199402</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.02873458612386548</v>
+        <v>0.04186537673223878</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.02870733896417765</v>
+        <v>0.04154693049145841</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.02835646114176726</v>
+        <v>0.04102546167621313</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.02831868270228699</v>
+        <v>0.04062520745439913</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.02827360130981638</v>
+        <v>0.03996292253598455</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.0282445229087871</v>
+        <v>0.0394109554971076</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.02811961303046706</v>
+        <v>0.03883842807956284</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.02796593157538707</v>
+        <v>0.03851595058780122</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.02782486973741727</v>
+        <v>0.03845863101817026</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.02710420565505567</v>
+        <v>0.03804622854761952</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.02617471088974099</v>
+        <v>0.0379697402105843</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.02616619691050848</v>
+        <v>0.03795889502678595</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>0.02599902421581768</v>
+        <v>0.03791699649937752</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>0.02584050981814179</v>
+        <v>0.03765280556197914</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>0.02575523631331711</v>
+        <v>0.03758896538879664</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>0.02566272961154548</v>
+        <v>0.03756245243069078</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>0.02548827872981896</v>
+        <v>0.03699828078974643</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>0.02541866290571759</v>
+        <v>0.0366063252799893</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>0.02519648480072001</v>
+        <v>0.03638746986089214</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>0.02478915860199815</v>
+        <v>0.03533754246390641</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>0.02464433187984039</v>
+        <v>0.03530644220358847</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>0.02448790156844494</v>
+        <v>0.03488882381859204</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>0.02373947337482263</v>
+        <v>0.03485847137476594</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>0.02329630058020182</v>
+        <v>0.03485123173273919</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>0.023105295074072</v>
+        <v>0.03447725848913219</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>0.02305385500563562</v>
+        <v>0.03429847352656012</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>0.02262857380390138</v>
+        <v>0.0341912277885088</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>0.02229697310238676</v>
+        <v>0.03404808205607512</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>0.02160172067650934</v>
+        <v>0.03392566622509596</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>0.02155632861942491</v>
+        <v>0.03389196509581782</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>0.02154316646174204</v>
+        <v>0.03348288281620659</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>0.02152179563150125</v>
+        <v>0.03328551720792161</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>0.02139734520192893</v>
+        <v>0.03301202328944752</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>0.02128581663685591</v>
+        <v>0.03283668610935497</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>0.02114258276867531</v>
+        <v>0.03275689057086106</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>0.02091862621904883</v>
+        <v>0.0322457796983906</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>0.02091589908534708</v>
+        <v>0.03203247868022641</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>0.02086675245465264</v>
+        <v>0.03150055803521457</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>0.02078313934336173</v>
+        <v>0.03115019352157455</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>0.02063486691959171</v>
+        <v>0.03110286814067509</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>0.02039166803193337</v>
+        <v>0.03102864034460207</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>0.01993355281771336</v>
+        <v>0.03073622934584908</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>0.01961016826705109</v>
+        <v>0.03045363907404952</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>0.01926283459622269</v>
+        <v>0.02990366065760952</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>0.01914065612243099</v>
+        <v>0.02987198325421869</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>0.01909721296883582</v>
+        <v>0.0297841808558521</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>0.01905969111432415</v>
+        <v>0.02954585727590731</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>0.01885282471233585</v>
+        <v>0.02952394447747442</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>0.01884946344674754</v>
+        <v>0.02938990315362289</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>0.01883358981135252</v>
+        <v>0.0292191152755874</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>0.0186265073232923</v>
+        <v>0.02912284234404861</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>0.01849870180127611</v>
+        <v>0.02886511003015757</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>0.01836521378737088</v>
+        <v>0.02884009647876762</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>0.01805897675346335</v>
+        <v>0.02868254310264828</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>0.01784978808243776</v>
+        <v>0.02820261706561245</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>0.01784915021097033</v>
+        <v>0.02799767014108534</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>0.01762821917088009</v>
+        <v>0.0279251637092448</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>0.0176245758634801</v>
+        <v>0.02791564786391554</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>0.01755592791839389</v>
+        <v>0.0279032045044556</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>0.01746561691828674</v>
+        <v>0.02788348061619628</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>0.0170226808584355</v>
+        <v>0.0278673670408971</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>0.01671393852125203</v>
+        <v>0.02758261429750863</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>0.01650066451724941</v>
+        <v>0.02749137473895091</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>0.01621590223868119</v>
+        <v>0.02744322845163505</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>0.0161648038065465</v>
+        <v>0.02692598416507996</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>0.01616247055173869</v>
+        <v>0.02685031343356203</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>0.01593216567301203</v>
+        <v>0.02649410756407322</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>0.01587692359433035</v>
+        <v>0.02634240991074077</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>0.0155541564318542</v>
+        <v>0.02632671996447211</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>0.01549858650637947</v>
+        <v>0.02589688624899589</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>0.01532071697638737</v>
+        <v>0.02569604511612678</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>0.01503735548565777</v>
+        <v>0.02517858299876052</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>0.0148973568613362</v>
+        <v>0.02514716304680231</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>0.01475876059721504</v>
+        <v>0.02496167588757503</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>0.01472462519369278</v>
+        <v>0.02484448307496478</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>0.01434906948001524</v>
+        <v>0.02477860682738364</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>0.01403472856211518</v>
+        <v>0.0240468957849016</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>0.01387542613524961</v>
+        <v>0.0237335065301929</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>0.01373689124693955</v>
+        <v>0.02344409862915486</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>0.01347396640003229</v>
+        <v>0.02339632333332875</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>0.01289006639206813</v>
+        <v>0.02297212485137901</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>0.01287259761326998</v>
+        <v>0.02264299733676656</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>0.01262287247309191</v>
+        <v>0.02236756503314519</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>0.01246585781624865</v>
+        <v>0.02210237775413182</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>0.01226450933454037</v>
+        <v>0.02206561249510686</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>0.01219233131819331</v>
+        <v>0.02190925376260533</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>0.01214938553397449</v>
+        <v>0.02173868277667479</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>0.01212107389170103</v>
+        <v>0.02144849334500787</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>0.01201669846032649</v>
+        <v>0.02136955008375785</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>0.01176652721360716</v>
+        <v>0.02135774450822669</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>0.01162815313986187</v>
+        <v>0.0213302695160742</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>0.01161063603298795</v>
+        <v>0.02119339363658646</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>0.01118979956117228</v>
+        <v>0.02019676555573957</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>0.01107255219246195</v>
+        <v>0.02007550627112731</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>0.01106095442882893</v>
+        <v>0.01949316734420203</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>0.01095592947841539</v>
+        <v>0.01869182214080589</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>0.01095356442716078</v>
+        <v>0.01852590069549431</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>0.01076570622687045</v>
+        <v>0.01812968250775882</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>0.01064814741328868</v>
+        <v>0.01797898949746757</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>0.01049608786505019</v>
+        <v>0.01753233752252004</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>0.009383798483217909</v>
+        <v>0.01752031587933067</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>0.008724686629466571</v>
+        <v>0.01748074041831305</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>0.008688596006542593</v>
+        <v>0.01724634085216459</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>0.008568627311906329</v>
+        <v>0.01706687791689143</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>0.007997426458109969</v>
+        <v>0.01677852615173525</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>0.007212150456695099</v>
+        <v>0.01658716469376387</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>0.006839945683061233</v>
+        <v>0.01653533503651983</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>0.006073946943668362</v>
+        <v>0.01645682649818925</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>0.005538823458818065</v>
+        <v>0.01640567448380481</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>0.005458176051626351</v>
+        <v>0.01635408864102939</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>0.005405347264537452</v>
+        <v>0.01609817934043445</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>0.003314756355464521</v>
+        <v>0.01602779206224203</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>0.003103437309389445</v>
+        <v>0.01572610845625522</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>0.002919863614952112</v>
+        <v>0.01544463611688807</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>0.002882212463942935</v>
+        <v>0.01510059177929723</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>0.002511389535152952</v>
+        <v>0.01440582800635903</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>0.00177323858340972</v>
+        <v>0.0142498726293856</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>0.001278353434146728</v>
+        <v>0.01397976750568297</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>0.00108219437744439</v>
+        <v>0.01337558442204068</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>0.0009403728698775815</v>
+        <v>0.01310581264480448</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>0.000265077167120209</v>
+        <v>0.01301151397705569</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.0124998712666653</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>-0.001102570257720759</v>
+        <v>0.0114769177788383</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>-0.002673574451404259</v>
+        <v>0.0111245470527046</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>-0.002781285333465444</v>
+        <v>0.01103789984075942</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>-0.004354047917219162</v>
+        <v>0.01053603094367483</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>-0.005084340490254746</v>
+        <v>0.01008496804865278</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>-0.005290714311806166</v>
+        <v>0.009927989675303062</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>-0.006549899063702069</v>
+        <v>0.009646709089824235</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>-0.007357553714644971</v>
+        <v>0.00921767505491955</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>-0.008403789472368306</v>
+        <v>0.007349118407330213</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>-0.008657392900685013</v>
+        <v>0.007293484843087672</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>-0.0103503138731913</v>
+        <v>0.006076375482173324</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>-0.01137564884464359</v>
+        <v>0.004943639304541225</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>-0.01813469368180676</v>
+        <v>0.00369143860554999</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>-0.01832745594285834</v>
+        <v>0.001405788388445295</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>-0.01915795249044361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.0206205132584808</v>
+        <v>-0.006204438093037723</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -25,1096 +25,1096 @@
     <t>代码</t>
   </si>
   <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884246.WI</t>
+  </si>
+  <si>
+    <t>884136.WI</t>
+  </si>
+  <si>
+    <t>884212.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884040.WI</t>
+  </si>
+  <si>
+    <t>884099.WI</t>
+  </si>
+  <si>
+    <t>884124.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884219.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>884069.WI</t>
+  </si>
+  <si>
+    <t>884194.WI</t>
+  </si>
+  <si>
+    <t>884218.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884163.WI</t>
+  </si>
+  <si>
+    <t>884176.WI</t>
+  </si>
+  <si>
+    <t>884125.WI</t>
+  </si>
+  <si>
+    <t>884144.WI</t>
+  </si>
+  <si>
+    <t>884146.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884121.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884037.WI</t>
+  </si>
+  <si>
+    <t>884226.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884135.WI</t>
+  </si>
+  <si>
+    <t>884148.WI</t>
+  </si>
+  <si>
+    <t>884137.WI</t>
+  </si>
+  <si>
+    <t>884142.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>884079.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884140.WI</t>
+  </si>
+  <si>
+    <t>884145.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884213.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884207.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884086.WI</t>
+  </si>
+  <si>
+    <t>884225.WI</t>
+  </si>
+  <si>
+    <t>884179.WI</t>
+  </si>
+  <si>
+    <t>884211.WI</t>
+  </si>
+  <si>
+    <t>884167.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884234.WI</t>
+  </si>
+  <si>
+    <t>884193.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884096.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884089.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884180.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884031.WI</t>
+  </si>
+  <si>
+    <t>884245.WI</t>
+  </si>
+  <si>
+    <t>884220.WI</t>
+  </si>
+  <si>
+    <t>884187.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884196.WI</t>
+  </si>
+  <si>
+    <t>884191.WI</t>
+  </si>
+  <si>
+    <t>884236.WI</t>
+  </si>
+  <si>
+    <t>884159.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884198.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>884077.WI</t>
+  </si>
+  <si>
+    <t>884209.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884216.WI</t>
+  </si>
+  <si>
+    <t>884088.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>884203.WI</t>
+  </si>
+  <si>
+    <t>884177.WI</t>
+  </si>
+  <si>
+    <t>884210.WI</t>
+  </si>
+  <si>
+    <t>884170.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884106.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884192.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884139.WI</t>
+  </si>
+  <si>
+    <t>884244.WI</t>
+  </si>
+  <si>
+    <t>884231.WI</t>
+  </si>
+  <si>
+    <t>884090.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>884113.WI</t>
+  </si>
+  <si>
+    <t>884238.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884199.WI</t>
+  </si>
+  <si>
+    <t>884111.WI</t>
+  </si>
+  <si>
+    <t>884174.WI</t>
+  </si>
+  <si>
+    <t>884172.WI</t>
+  </si>
+  <si>
+    <t>884110.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884205.WI</t>
+  </si>
+  <si>
+    <t>884156.WI</t>
+  </si>
+  <si>
+    <t>884241.WI</t>
+  </si>
+  <si>
+    <t>884233.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884057.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>884158.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884237.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884119.WI</t>
+  </si>
+  <si>
+    <t>884141.WI</t>
+  </si>
+  <si>
+    <t>884093.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
     <t>884166.WI</t>
   </si>
   <si>
-    <t>884189.WI</t>
-  </si>
-  <si>
-    <t>884246.WI</t>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884127.WI</t>
+  </si>
+  <si>
+    <t>884168.WI</t>
+  </si>
+  <si>
+    <t>884153.WI</t>
+  </si>
+  <si>
+    <t>884183.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884222.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884028.WI</t>
+  </si>
+  <si>
+    <t>884032.WI</t>
+  </si>
+  <si>
+    <t>884134.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884115.WI</t>
+  </si>
+  <si>
+    <t>884208.WI</t>
+  </si>
+  <si>
+    <t>884152.WI</t>
+  </si>
+  <si>
+    <t>884149.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884255.WI</t>
+  </si>
+  <si>
+    <t>884182.WI</t>
+  </si>
+  <si>
+    <t>884188.WI</t>
+  </si>
+  <si>
+    <t>884116.WI</t>
+  </si>
+  <si>
+    <t>884041.WI</t>
+  </si>
+  <si>
+    <t>884154.WI</t>
+  </si>
+  <si>
+    <t>884107.WI</t>
   </si>
   <si>
     <t>884228.WI</t>
   </si>
   <si>
-    <t>884226.WI</t>
+    <t>884161.WI</t>
+  </si>
+  <si>
+    <t>884155.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884098.WI</t>
+  </si>
+  <si>
+    <t>884035.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884112.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
   </si>
   <si>
     <t>884224.WI</t>
   </si>
   <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884164.WI</t>
+  </si>
+  <si>
     <t>884128.WI</t>
   </si>
   <si>
-    <t>884112.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>884035.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884134.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884149.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884172.WI</t>
-  </si>
-  <si>
-    <t>884159.WI</t>
-  </si>
-  <si>
-    <t>884028.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884153.WI</t>
-  </si>
-  <si>
-    <t>884086.WI</t>
-  </si>
-  <si>
-    <t>884057.WI</t>
-  </si>
-  <si>
-    <t>884079.WI</t>
-  </si>
-  <si>
-    <t>884188.WI</t>
-  </si>
-  <si>
-    <t>884119.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884098.WI</t>
-  </si>
-  <si>
-    <t>884144.WI</t>
-  </si>
-  <si>
-    <t>884099.WI</t>
-  </si>
-  <si>
-    <t>884116.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884115.WI</t>
-  </si>
-  <si>
-    <t>884090.WI</t>
-  </si>
-  <si>
-    <t>884255.WI</t>
-  </si>
-  <si>
-    <t>884077.WI</t>
-  </si>
-  <si>
-    <t>884093.WI</t>
-  </si>
-  <si>
-    <t>884213.WI</t>
-  </si>
-  <si>
-    <t>884041.WI</t>
-  </si>
-  <si>
-    <t>884088.WI</t>
-  </si>
-  <si>
-    <t>884096.WI</t>
-  </si>
-  <si>
-    <t>884158.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884216.WI</t>
-  </si>
-  <si>
-    <t>884237.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>884170.WI</t>
-  </si>
-  <si>
-    <t>884110.WI</t>
-  </si>
-  <si>
-    <t>884220.WI</t>
-  </si>
-  <si>
-    <t>884156.WI</t>
-  </si>
-  <si>
-    <t>884155.WI</t>
-  </si>
-  <si>
-    <t>884192.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884154.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884205.WI</t>
-  </si>
-  <si>
-    <t>884167.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884164.WI</t>
-  </si>
-  <si>
-    <t>884208.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884180.WI</t>
-  </si>
-  <si>
-    <t>884183.WI</t>
-  </si>
-  <si>
-    <t>884191.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884222.WI</t>
-  </si>
-  <si>
-    <t>884137.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884089.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884163.WI</t>
-  </si>
-  <si>
-    <t>884111.WI</t>
-  </si>
-  <si>
-    <t>884069.WI</t>
-  </si>
-  <si>
-    <t>884161.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884218.WI</t>
-  </si>
-  <si>
-    <t>884174.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884212.WI</t>
-  </si>
-  <si>
-    <t>884135.WI</t>
-  </si>
-  <si>
-    <t>884168.WI</t>
-  </si>
-  <si>
-    <t>884231.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884207.WI</t>
-  </si>
-  <si>
-    <t>884210.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884225.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884031.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884113.WI</t>
-  </si>
-  <si>
-    <t>884245.WI</t>
-  </si>
-  <si>
-    <t>884141.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884187.WI</t>
-  </si>
-  <si>
-    <t>884193.WI</t>
-  </si>
-  <si>
-    <t>884124.WI</t>
-  </si>
-  <si>
-    <t>884121.WI</t>
-  </si>
-  <si>
-    <t>884125.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884140.WI</t>
-  </si>
-  <si>
-    <t>884233.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884244.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884219.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884199.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884234.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884127.WI</t>
-  </si>
-  <si>
-    <t>884209.WI</t>
-  </si>
-  <si>
-    <t>884182.WI</t>
-  </si>
-  <si>
-    <t>884211.WI</t>
-  </si>
-  <si>
-    <t>884176.WI</t>
-  </si>
-  <si>
-    <t>884241.WI</t>
-  </si>
-  <si>
-    <t>884203.WI</t>
-  </si>
-  <si>
-    <t>884194.WI</t>
-  </si>
-  <si>
-    <t>884238.WI</t>
-  </si>
-  <si>
-    <t>884145.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884032.WI</t>
-  </si>
-  <si>
-    <t>884040.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884146.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884196.WI</t>
-  </si>
-  <si>
-    <t>884106.WI</t>
-  </si>
-  <si>
-    <t>884177.WI</t>
-  </si>
-  <si>
-    <t>884198.WI</t>
-  </si>
-  <si>
-    <t>884179.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884136.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884236.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884152.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>884139.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884142.WI</t>
-  </si>
-  <si>
-    <t>884148.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884037.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
     <t>884223.WI</t>
   </si>
   <si>
-    <t>884175.WI</t>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>打板指数</t>
+  </si>
+  <si>
+    <t>互联网金融指数</t>
+  </si>
+  <si>
+    <t>征信指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>垃圾发电指数</t>
+  </si>
+  <si>
+    <t>移动互联网指数</t>
+  </si>
+  <si>
+    <t>PM2.5指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>新疆区域振兴指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>扶贫指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>移动支付指数</t>
+  </si>
+  <si>
+    <t>IP流量变现指数</t>
+  </si>
+  <si>
+    <t>PPP指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>在线旅游指数</t>
+  </si>
+  <si>
+    <t>北部湾自贸区指数</t>
+  </si>
+  <si>
+    <t>污水处理指数</t>
+  </si>
+  <si>
+    <t>网络彩票指数</t>
+  </si>
+  <si>
+    <t>第三方支付指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>美丽中国指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>乙醇汽油指数</t>
+  </si>
+  <si>
+    <t>共享汽车指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>电子商务指数</t>
+  </si>
+  <si>
+    <t>民营医院指数</t>
+  </si>
+  <si>
+    <t>智能电视指数</t>
+  </si>
+  <si>
+    <t>养老产业指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>建筑节能指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>二胎政策指数</t>
+  </si>
+  <si>
+    <t>O2O指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>债转股指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>互联网营销指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>稀土永磁指数</t>
+  </si>
+  <si>
+    <t>禽流感指数</t>
+  </si>
+  <si>
+    <t>医药电商指数</t>
+  </si>
+  <si>
+    <t>网红经济指数</t>
+  </si>
+  <si>
+    <t>京津冀一体化指数</t>
+  </si>
+  <si>
+    <t>核能核电指数</t>
+  </si>
+  <si>
+    <t>装配式建筑指数</t>
+  </si>
+  <si>
+    <t>质押式回购指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>水利水电建设指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>装饰园林指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>天津自贸区指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>重组指数</t>
+  </si>
+  <si>
+    <t>融资融券指数</t>
+  </si>
+  <si>
+    <t>股权转让指数</t>
+  </si>
+  <si>
+    <t>大央企重组指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>国家队指数</t>
+  </si>
+  <si>
+    <t>跨境电商指数</t>
+  </si>
+  <si>
+    <t>特色小镇指数</t>
+  </si>
+  <si>
+    <t>冷链物流指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>证金概念指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>三网融合指数</t>
+  </si>
+  <si>
+    <t>动漫指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>特斯拉指数</t>
+  </si>
+  <si>
+    <t>通用航空指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>健康中国指数</t>
+  </si>
+  <si>
+    <t>沪股通50指数</t>
+  </si>
+  <si>
+    <t>智慧城市指数</t>
+  </si>
+  <si>
+    <t>职业教育指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>浦东新区指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>员工持股指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>鸡指数</t>
+  </si>
+  <si>
+    <t>海南旅游岛指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>土地流转指数</t>
+  </si>
+  <si>
+    <t>小盘成长指数</t>
+  </si>
+  <si>
+    <t>可燃冰指数</t>
+  </si>
+  <si>
+    <t>合同能源管理指数</t>
+  </si>
+  <si>
+    <t>页岩气和煤层气指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>金融改革指数</t>
+  </si>
+  <si>
+    <t>煤电重组指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>举牌指数</t>
+  </si>
+  <si>
+    <t>文化传媒概念指数</t>
+  </si>
+  <si>
+    <t>体育指数</t>
+  </si>
+  <si>
+    <t>无人机指数</t>
+  </si>
+  <si>
+    <t>安防监控指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>海绵城市指数</t>
+  </si>
+  <si>
+    <t>在线教育指数</t>
+  </si>
+  <si>
+    <t>上海国资改革指数</t>
+  </si>
+  <si>
+    <t>增持指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>新材料指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>移动转售指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>保底增持指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>3D打印指数</t>
+  </si>
+  <si>
+    <t>民营银行指数</t>
+  </si>
+  <si>
+    <t>智能交通指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
   </si>
   <si>
     <t>燃料电池指数</t>
   </si>
   <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
-    <t>打板指数</t>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>食品安全指数</t>
+  </si>
+  <si>
+    <t>长江经济带指数</t>
+  </si>
+  <si>
+    <t>智能家居指数</t>
+  </si>
+  <si>
+    <t>生物识别指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>共享单车指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>去IOE指数</t>
+  </si>
+  <si>
+    <t>智能电网指数</t>
+  </si>
+  <si>
+    <t>迪士尼指数</t>
+  </si>
+  <si>
+    <t>智能穿戴指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>中日韩自贸区指数</t>
+  </si>
+  <si>
+    <t>量子通信指数</t>
+  </si>
+  <si>
+    <t>粤港澳自贸区指数</t>
+  </si>
+  <si>
+    <t>油气改革指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>3D传感指数</t>
+  </si>
+  <si>
+    <t>智慧农业指数</t>
+  </si>
+  <si>
+    <t>能源互联网指数</t>
+  </si>
+  <si>
+    <t>苹果指数</t>
+  </si>
+  <si>
+    <t>绿色节能照明指数</t>
+  </si>
+  <si>
+    <t>超级电容指数</t>
+  </si>
+  <si>
+    <t>黄金珠宝指数</t>
   </si>
   <si>
     <t>无线充电指数</t>
   </si>
   <si>
-    <t>共享汽车指数</t>
+    <t>传感器指数</t>
+  </si>
+  <si>
+    <t>蓝宝石指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>IPV6指数</t>
+  </si>
+  <si>
+    <t>新能源指数</t>
+  </si>
+  <si>
+    <t>猪指数</t>
+  </si>
+  <si>
+    <t>宽带提速指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
   </si>
   <si>
     <t>5G指数</t>
   </si>
   <si>
+    <t>太阳能发电指数</t>
+  </si>
+  <si>
+    <t>广东国资改革指数</t>
+  </si>
+  <si>
     <t>4G指数</t>
   </si>
   <si>
-    <t>宽带提速指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>太阳能发电指数</t>
-  </si>
-  <si>
-    <t>新能源指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>智能穿戴指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>油气改革指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>无人机指数</t>
-  </si>
-  <si>
-    <t>冷链物流指数</t>
-  </si>
-  <si>
-    <t>智能电网指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>智能家居指数</t>
-  </si>
-  <si>
-    <t>稀土永磁指数</t>
-  </si>
-  <si>
-    <t>新材料指数</t>
-  </si>
-  <si>
-    <t>建筑节能指数</t>
-  </si>
-  <si>
-    <t>能源互联网指数</t>
-  </si>
-  <si>
-    <t>3D打印指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>IPV6指数</t>
-  </si>
-  <si>
-    <t>网络彩票指数</t>
-  </si>
-  <si>
-    <t>移动互联网指数</t>
-  </si>
-  <si>
-    <t>苹果指数</t>
-  </si>
-  <si>
-    <t>新疆区域振兴指数</t>
-  </si>
-  <si>
-    <t>核能核电指数</t>
-  </si>
-  <si>
-    <t>中日韩自贸区指数</t>
-  </si>
-  <si>
-    <t>合同能源管理指数</t>
-  </si>
-  <si>
-    <t>3D传感指数</t>
-  </si>
-  <si>
-    <t>三网融合指数</t>
-  </si>
-  <si>
-    <t>智能交通指数</t>
-  </si>
-  <si>
-    <t>债转股指数</t>
-  </si>
-  <si>
-    <t>绿色节能照明指数</t>
-  </si>
-  <si>
-    <t>通用航空指数</t>
-  </si>
-  <si>
-    <t>水利水电建设指数</t>
-  </si>
-  <si>
-    <t>移动转售指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>特斯拉指数</t>
-  </si>
-  <si>
-    <t>保底增持指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>职业教育指数</t>
-  </si>
-  <si>
-    <t>安防监控指数</t>
-  </si>
-  <si>
-    <t>股权转让指数</t>
-  </si>
-  <si>
-    <t>在线教育指数</t>
-  </si>
-  <si>
-    <t>蓝宝石指数</t>
-  </si>
-  <si>
-    <t>员工持股指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>超级电容指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>海绵城市指数</t>
-  </si>
-  <si>
-    <t>京津冀一体化指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>广东国资改革指数</t>
-  </si>
-  <si>
-    <t>量子通信指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>天津自贸区指数</t>
-  </si>
-  <si>
-    <t>生物识别指数</t>
-  </si>
-  <si>
-    <t>跨境电商指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>共享单车指数</t>
-  </si>
-  <si>
-    <t>智能电视指数</t>
-  </si>
-  <si>
-    <t>猪指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>装饰园林指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>页岩气和煤层气指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>在线旅游指数</t>
-  </si>
-  <si>
-    <t>文化传媒概念指数</t>
-  </si>
-  <si>
-    <t>移动支付指数</t>
-  </si>
-  <si>
-    <t>传感器指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>PPP指数</t>
-  </si>
-  <si>
-    <t>体育指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>征信指数</t>
-  </si>
-  <si>
-    <t>电子商务指数</t>
-  </si>
-  <si>
-    <t>长江经济带指数</t>
-  </si>
-  <si>
-    <t>可燃冰指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>鸡指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>互联网营销指数</t>
-  </si>
-  <si>
-    <t>智慧城市指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>禽流感指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>重组指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>金融改革指数</t>
-  </si>
-  <si>
-    <t>融资融券指数</t>
-  </si>
-  <si>
-    <t>民营银行指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>大央企重组指数</t>
-  </si>
-  <si>
-    <t>质押式回购指数</t>
-  </si>
-  <si>
-    <t>PM2.5指数</t>
-  </si>
-  <si>
-    <t>美丽中国指数</t>
-  </si>
-  <si>
-    <t>污水处理指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>二胎政策指数</t>
-  </si>
-  <si>
-    <t>增持指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>小盘成长指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>扶贫指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>举牌指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>装配式建筑指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>食品安全指数</t>
-  </si>
-  <si>
-    <t>动漫指数</t>
-  </si>
-  <si>
-    <t>智慧农业指数</t>
-  </si>
-  <si>
-    <t>网红经济指数</t>
-  </si>
-  <si>
-    <t>北部湾自贸区指数</t>
-  </si>
-  <si>
-    <t>上海国资改革指数</t>
-  </si>
-  <si>
-    <t>健康中国指数</t>
-  </si>
-  <si>
-    <t>IP流量变现指数</t>
-  </si>
-  <si>
-    <t>煤电重组指数</t>
-  </si>
-  <si>
-    <t>O2O指数</t>
-  </si>
-  <si>
-    <t>去IOE指数</t>
-  </si>
-  <si>
-    <t>迪士尼指数</t>
-  </si>
-  <si>
-    <t>垃圾发电指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>第三方支付指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>国家队指数</t>
-  </si>
-  <si>
-    <t>浦东新区指数</t>
-  </si>
-  <si>
-    <t>沪股通50指数</t>
-  </si>
-  <si>
-    <t>证金概念指数</t>
-  </si>
-  <si>
-    <t>医药电商指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>互联网金融指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>特色小镇指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>粤港澳自贸区指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>土地流转指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>养老产业指数</t>
-  </si>
-  <si>
-    <t>民营医院指数</t>
-  </si>
-  <si>
-    <t>海南旅游岛指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>乙醇汽油指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
     <t>小程序指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
         <v>185</v>
       </c>
       <c r="C2">
-        <v>0.1258257964999723</v>
+        <v>0.1105765079888135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="C3">
-        <v>0.1048308105068048</v>
+        <v>0.1098798273999269</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>187</v>
       </c>
       <c r="C4">
-        <v>0.09908970381435145</v>
+        <v>0.1007081919373409</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>188</v>
       </c>
       <c r="C5">
-        <v>0.09479196021978153</v>
+        <v>0.09956075283077226</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>189</v>
       </c>
       <c r="C6">
-        <v>0.07188371721982234</v>
+        <v>0.09864256490854606</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>190</v>
       </c>
       <c r="C7">
-        <v>0.0714191901874941</v>
+        <v>0.09664300009111337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>191</v>
       </c>
       <c r="C8">
-        <v>0.07044008929859835</v>
+        <v>0.09361154164954288</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>192</v>
       </c>
       <c r="C9">
-        <v>0.07025481823768431</v>
+        <v>0.09333204566374476</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>193</v>
       </c>
       <c r="C10">
-        <v>0.07022127014330559</v>
+        <v>0.09141568434905611</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>194</v>
       </c>
       <c r="C11">
-        <v>0.06683723771737982</v>
+        <v>0.08958571849252217</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>195</v>
       </c>
       <c r="C12">
-        <v>0.06508562117203054</v>
+        <v>0.08846673037877051</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>196</v>
       </c>
       <c r="C13">
-        <v>0.06053976828194307</v>
+        <v>0.08683886576952027</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>197</v>
       </c>
       <c r="C14">
-        <v>0.06026755463027511</v>
+        <v>0.08654782544803408</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>198</v>
       </c>
       <c r="C15">
-        <v>0.05754195530529094</v>
+        <v>0.08565170092604735</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>199</v>
       </c>
       <c r="C16">
-        <v>0.05728834890432788</v>
+        <v>0.08396609010741773</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="C17">
-        <v>0.05637002665462942</v>
+        <v>0.08370889120288982</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <v>0.05628115949938373</v>
+        <v>0.08363073863135795</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>202</v>
       </c>
       <c r="C19">
-        <v>0.05573676629481805</v>
+        <v>0.08322875532150498</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>203</v>
       </c>
       <c r="C20">
-        <v>0.05520353832022007</v>
+        <v>0.08269013235589284</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>204</v>
       </c>
       <c r="C21">
-        <v>0.05511718184831871</v>
+        <v>0.08187133531187074</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>205</v>
       </c>
       <c r="C22">
-        <v>0.05478737188821503</v>
+        <v>0.08151858770297049</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>206</v>
       </c>
       <c r="C23">
-        <v>0.05388217445171906</v>
+        <v>0.08141987920088445</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>207</v>
       </c>
       <c r="C24">
-        <v>0.05277187194590161</v>
+        <v>0.08139255526519396</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>208</v>
       </c>
       <c r="C25">
-        <v>0.05153970117961348</v>
+        <v>0.0808345510177424</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>209</v>
       </c>
       <c r="C26">
-        <v>0.05036376147186905</v>
+        <v>0.08022925775794199</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>210</v>
       </c>
       <c r="C27">
-        <v>0.05010239101915848</v>
+        <v>0.07990360500536942</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>211</v>
       </c>
       <c r="C28">
-        <v>0.04959850081836481</v>
+        <v>0.07913813521877722</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="C29">
-        <v>0.04930076465625133</v>
+        <v>0.07876061484614549</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>213</v>
       </c>
       <c r="C30">
-        <v>0.04927177904601732</v>
+        <v>0.07830339731486879</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>214</v>
       </c>
       <c r="C31">
-        <v>0.04819058899575146</v>
+        <v>0.0776287098062034</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="C32">
-        <v>0.04790890716660212</v>
+        <v>0.07753851653062194</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>216</v>
       </c>
       <c r="C33">
-        <v>0.04745496577556674</v>
+        <v>0.07719690501397136</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="C34">
-        <v>0.04629785964685396</v>
+        <v>0.07670526896999807</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>218</v>
       </c>
       <c r="C35">
-        <v>0.0456983364517014</v>
+        <v>0.07639297014266355</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>219</v>
       </c>
       <c r="C36">
-        <v>0.0446480511236782</v>
+        <v>0.07633091148604532</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>220</v>
       </c>
       <c r="C37">
-        <v>0.04438981091794614</v>
+        <v>0.07522395779152435</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>221</v>
       </c>
       <c r="C38">
-        <v>0.04422902109064064</v>
+        <v>0.07479705675243875</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>222</v>
       </c>
       <c r="C39">
-        <v>0.0432876266206923</v>
+        <v>0.07461469168035162</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>223</v>
       </c>
       <c r="C40">
-        <v>0.04258926304191379</v>
+        <v>0.07437752894968885</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>224</v>
       </c>
       <c r="C41">
-        <v>0.04239973589643364</v>
+        <v>0.07400182512332854</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C42">
-        <v>0.04235537697054159</v>
+        <v>0.07312522163008617</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>226</v>
       </c>
       <c r="C43">
-        <v>0.04218978409362117</v>
+        <v>0.07286048360268316</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>227</v>
       </c>
       <c r="C44">
-        <v>0.04211573622915288</v>
+        <v>0.07234435225954017</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>228</v>
       </c>
       <c r="C45">
-        <v>0.04195427928199402</v>
+        <v>0.07180978865663157</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>229</v>
       </c>
       <c r="C46">
-        <v>0.04186537673223878</v>
+        <v>0.0713242756334298</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>230</v>
       </c>
       <c r="C47">
-        <v>0.04154693049145841</v>
+        <v>0.07059780513795055</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>231</v>
       </c>
       <c r="C48">
-        <v>0.04102546167621313</v>
+        <v>0.06965797714821886</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>232</v>
       </c>
       <c r="C49">
-        <v>0.04062520745439913</v>
+        <v>0.06963246568084736</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>233</v>
       </c>
       <c r="C50">
-        <v>0.03996292253598455</v>
+        <v>0.06880223826042631</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="C51">
-        <v>0.0394109554971076</v>
+        <v>0.06872921974813573</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>235</v>
       </c>
       <c r="C52">
-        <v>0.03883842807956284</v>
+        <v>0.06861628030084144</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="C53">
-        <v>0.03851595058780122</v>
+        <v>0.06834088525358828</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0.03845863101817026</v>
+        <v>0.06826390227096213</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>238</v>
       </c>
       <c r="C55">
-        <v>0.03804622854761952</v>
+        <v>0.0682541804953356</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>239</v>
       </c>
       <c r="C56">
-        <v>0.0379697402105843</v>
+        <v>0.06812934542034643</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>240</v>
       </c>
       <c r="C57">
-        <v>0.03795889502678595</v>
+        <v>0.06797831410236088</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>241</v>
       </c>
       <c r="C58">
-        <v>0.03791699649937752</v>
+        <v>0.06704270003349189</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>242</v>
       </c>
       <c r="C59">
-        <v>0.03765280556197914</v>
+        <v>0.06636175366430175</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>243</v>
       </c>
       <c r="C60">
-        <v>0.03758896538879664</v>
+        <v>0.06616380324255067</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>244</v>
       </c>
       <c r="C61">
-        <v>0.03756245243069078</v>
+        <v>0.06521225775298345</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>0.03699828078974643</v>
+        <v>0.06513281738171983</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="C63">
-        <v>0.0366063252799893</v>
+        <v>0.06502473613483595</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>247</v>
       </c>
       <c r="C64">
-        <v>0.03638746986089214</v>
+        <v>0.06490970064788004</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>248</v>
       </c>
       <c r="C65">
-        <v>0.03533754246390641</v>
+        <v>0.06487986884804076</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>249</v>
       </c>
       <c r="C66">
-        <v>0.03530644220358847</v>
+        <v>0.06480226761600116</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>250</v>
       </c>
       <c r="C67">
-        <v>0.03488882381859204</v>
+        <v>0.06475923713024523</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>251</v>
       </c>
       <c r="C68">
-        <v>0.03485847137476594</v>
+        <v>0.06451695379394207</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>0.03485123173273919</v>
+        <v>0.06444516119880839</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>253</v>
       </c>
       <c r="C70">
-        <v>0.03447725848913219</v>
+        <v>0.06442478509989469</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
       <c r="C71">
-        <v>0.03429847352656012</v>
+        <v>0.0643668245717397</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>255</v>
       </c>
       <c r="C72">
-        <v>0.0341912277885088</v>
+        <v>0.06419024076790603</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>256</v>
       </c>
       <c r="C73">
-        <v>0.03404808205607512</v>
+        <v>0.06391161724778516</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>0.03392566622509596</v>
+        <v>0.06374174358028695</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>0.03389196509581782</v>
+        <v>0.06365638839759269</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>259</v>
       </c>
       <c r="C76">
-        <v>0.03348288281620659</v>
+        <v>0.06348456096656441</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>0.03328551720792161</v>
+        <v>0.06345901607201765</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
       <c r="C78">
-        <v>0.03301202328944752</v>
+        <v>0.06331760184556101</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>0.03283668610935497</v>
+        <v>0.0629023724998059</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>263</v>
       </c>
       <c r="C80">
-        <v>0.03275689057086106</v>
+        <v>0.06276650835149522</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>264</v>
       </c>
       <c r="C81">
-        <v>0.0322457796983906</v>
+        <v>0.06269615929029526</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>265</v>
       </c>
       <c r="C82">
-        <v>0.03203247868022641</v>
+        <v>0.06258270214104056</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>0.03150055803521457</v>
+        <v>0.06205873275643325</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>267</v>
       </c>
       <c r="C84">
-        <v>0.03115019352157455</v>
+        <v>0.06153660848574849</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="C85">
-        <v>0.03110286814067509</v>
+        <v>0.06149642011978229</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>269</v>
       </c>
       <c r="C86">
-        <v>0.03102864034460207</v>
+        <v>0.0614519133614142</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>270</v>
       </c>
       <c r="C87">
-        <v>0.03073622934584908</v>
+        <v>0.06085180420556968</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="C88">
-        <v>0.03045363907404952</v>
+        <v>0.06078859826335781</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>272</v>
       </c>
       <c r="C89">
-        <v>0.02990366065760952</v>
+        <v>0.06057840503858136</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="C90">
-        <v>0.02987198325421869</v>
+        <v>0.06045395618927207</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>274</v>
       </c>
       <c r="C91">
-        <v>0.0297841808558521</v>
+        <v>0.06030204666634353</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>275</v>
       </c>
       <c r="C92">
-        <v>0.02954585727590731</v>
+        <v>0.0597898286216505</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>276</v>
       </c>
       <c r="C93">
-        <v>0.02952394447747442</v>
+        <v>0.05919796042610104</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>277</v>
       </c>
       <c r="C94">
-        <v>0.02938990315362289</v>
+        <v>0.05915382480775944</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>0.0292191152755874</v>
+        <v>0.05905157960905405</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>279</v>
       </c>
       <c r="C96">
-        <v>0.02912284234404861</v>
+        <v>0.05894055517449526</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>280</v>
       </c>
       <c r="C97">
-        <v>0.02886511003015757</v>
+        <v>0.05873575838636169</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>281</v>
       </c>
       <c r="C98">
-        <v>0.02884009647876762</v>
+        <v>0.05810038694529962</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>282</v>
       </c>
       <c r="C99">
-        <v>0.02868254310264828</v>
+        <v>0.05799856884073762</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>283</v>
       </c>
       <c r="C100">
-        <v>0.02820261706561245</v>
+        <v>0.05773903928110058</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>284</v>
       </c>
       <c r="C101">
-        <v>0.02799767014108534</v>
+        <v>0.05761449704234956</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>285</v>
       </c>
       <c r="C102">
-        <v>0.0279251637092448</v>
+        <v>0.05745522585418739</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>286</v>
       </c>
       <c r="C103">
-        <v>0.02791564786391554</v>
+        <v>0.05740068695139344</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>287</v>
       </c>
       <c r="C104">
-        <v>0.0279032045044556</v>
+        <v>0.0571025828966083</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>288</v>
       </c>
       <c r="C105">
-        <v>0.02788348061619628</v>
+        <v>0.05690684815648939</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>289</v>
       </c>
       <c r="C106">
-        <v>0.0278673670408971</v>
+        <v>0.05677123606938728</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>290</v>
       </c>
       <c r="C107">
-        <v>0.02758261429750863</v>
+        <v>0.05667154014249443</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>291</v>
       </c>
       <c r="C108">
-        <v>0.02749137473895091</v>
+        <v>0.05628818978574412</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>292</v>
       </c>
       <c r="C109">
-        <v>0.02744322845163505</v>
+        <v>0.05617562750190541</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>293</v>
       </c>
       <c r="C110">
-        <v>0.02692598416507996</v>
+        <v>0.05605206928476658</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>294</v>
       </c>
       <c r="C111">
-        <v>0.02685031343356203</v>
+        <v>0.05587401647050383</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>295</v>
       </c>
       <c r="C112">
-        <v>0.02649410756407322</v>
+        <v>0.05579426297596513</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>296</v>
       </c>
       <c r="C113">
-        <v>0.02634240991074077</v>
+        <v>0.05575390814906966</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>297</v>
       </c>
       <c r="C114">
-        <v>0.02632671996447211</v>
+        <v>0.05572048587834666</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>298</v>
       </c>
       <c r="C115">
-        <v>0.02589688624899589</v>
+        <v>0.05550709803176268</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2751,7 +2751,7 @@
         <v>299</v>
       </c>
       <c r="C116">
-        <v>0.02569604511612678</v>
+        <v>0.05519248243719233</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2762,7 +2762,7 @@
         <v>300</v>
       </c>
       <c r="C117">
-        <v>0.02517858299876052</v>
+        <v>0.0551915611575311</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2773,7 +2773,7 @@
         <v>301</v>
       </c>
       <c r="C118">
-        <v>0.02514716304680231</v>
+        <v>0.05503603572668592</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="C119">
-        <v>0.02496167588757503</v>
+        <v>0.05502154227402567</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>303</v>
       </c>
       <c r="C120">
-        <v>0.02484448307496478</v>
+        <v>0.05475887426396531</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2806,7 +2806,7 @@
         <v>304</v>
       </c>
       <c r="C121">
-        <v>0.02477860682738364</v>
+        <v>0.05443923021090624</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>305</v>
       </c>
       <c r="C122">
-        <v>0.0240468957849016</v>
+        <v>0.05401044414964629</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2828,7 +2828,7 @@
         <v>306</v>
       </c>
       <c r="C123">
-        <v>0.0237335065301929</v>
+        <v>0.05392452487483945</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2839,7 +2839,7 @@
         <v>307</v>
       </c>
       <c r="C124">
-        <v>0.02344409862915486</v>
+        <v>0.0537551884207581</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2850,7 +2850,7 @@
         <v>308</v>
       </c>
       <c r="C125">
-        <v>0.02339632333332875</v>
+        <v>0.05358302523179947</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2861,7 +2861,7 @@
         <v>309</v>
       </c>
       <c r="C126">
-        <v>0.02297212485137901</v>
+        <v>0.05356230455157518</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2872,7 +2872,7 @@
         <v>310</v>
       </c>
       <c r="C127">
-        <v>0.02264299733676656</v>
+        <v>0.05341883149613613</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2883,7 +2883,7 @@
         <v>311</v>
       </c>
       <c r="C128">
-        <v>0.02236756503314519</v>
+        <v>0.05308625660923694</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>312</v>
       </c>
       <c r="C129">
-        <v>0.02210237775413182</v>
+        <v>0.05300643546417128</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>313</v>
       </c>
       <c r="C130">
-        <v>0.02206561249510686</v>
+        <v>0.05260639600206796</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>314</v>
       </c>
       <c r="C131">
-        <v>0.02190925376260533</v>
+        <v>0.0523469541511723</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>315</v>
       </c>
       <c r="C132">
-        <v>0.02173868277667479</v>
+        <v>0.05217606723561308</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2938,7 +2938,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>0.02144849334500787</v>
+        <v>0.05088208961913487</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2949,7 +2949,7 @@
         <v>317</v>
       </c>
       <c r="C134">
-        <v>0.02136955008375785</v>
+        <v>0.05035630641394695</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2960,7 +2960,7 @@
         <v>318</v>
       </c>
       <c r="C135">
-        <v>0.02135774450822669</v>
+        <v>0.0499440752794218</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2971,7 +2971,7 @@
         <v>319</v>
       </c>
       <c r="C136">
-        <v>0.0213302695160742</v>
+        <v>0.04978545050849159</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2982,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="C137">
-        <v>0.02119339363658646</v>
+        <v>0.04967535886166363</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>321</v>
       </c>
       <c r="C138">
-        <v>0.02019676555573957</v>
+        <v>0.04890612677853112</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3004,7 +3004,7 @@
         <v>322</v>
       </c>
       <c r="C139">
-        <v>0.02007550627112731</v>
+        <v>0.0486941519780264</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="C140">
-        <v>0.01949316734420203</v>
+        <v>0.04788457262709223</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3026,7 +3026,7 @@
         <v>324</v>
       </c>
       <c r="C141">
-        <v>0.01869182214080589</v>
+        <v>0.0473257953631212</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>325</v>
       </c>
       <c r="C142">
-        <v>0.01852590069549431</v>
+        <v>0.04651647893199828</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3048,7 +3048,7 @@
         <v>326</v>
       </c>
       <c r="C143">
-        <v>0.01812968250775882</v>
+        <v>0.04632456115591177</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="C144">
-        <v>0.01797898949746757</v>
+        <v>0.04490797845281169</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3070,7 +3070,7 @@
         <v>328</v>
       </c>
       <c r="C145">
-        <v>0.01753233752252004</v>
+        <v>0.04433282793429627</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3081,7 +3081,7 @@
         <v>329</v>
       </c>
       <c r="C146">
-        <v>0.01752031587933067</v>
+        <v>0.04403631263850216</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3092,7 +3092,7 @@
         <v>330</v>
       </c>
       <c r="C147">
-        <v>0.01748074041831305</v>
+        <v>0.04398098699055364</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>331</v>
       </c>
       <c r="C148">
-        <v>0.01724634085216459</v>
+        <v>0.04363160088282947</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3114,7 +3114,7 @@
         <v>332</v>
       </c>
       <c r="C149">
-        <v>0.01706687791689143</v>
+        <v>0.04362561014977473</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>333</v>
       </c>
       <c r="C150">
-        <v>0.01677852615173525</v>
+        <v>0.04331259368040352</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>334</v>
       </c>
       <c r="C151">
-        <v>0.01658716469376387</v>
+        <v>0.04320285682473446</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3147,7 +3147,7 @@
         <v>335</v>
       </c>
       <c r="C152">
-        <v>0.01653533503651983</v>
+        <v>0.04319921626806478</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3158,7 +3158,7 @@
         <v>336</v>
       </c>
       <c r="C153">
-        <v>0.01645682649818925</v>
+        <v>0.043176697886536</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3169,7 +3169,7 @@
         <v>337</v>
       </c>
       <c r="C154">
-        <v>0.01640567448380481</v>
+        <v>0.04294999621081286</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3180,7 +3180,7 @@
         <v>338</v>
       </c>
       <c r="C155">
-        <v>0.01635408864102939</v>
+        <v>0.04196822624584562</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3191,7 +3191,7 @@
         <v>339</v>
       </c>
       <c r="C156">
-        <v>0.01609817934043445</v>
+        <v>0.04060776135378519</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>340</v>
       </c>
       <c r="C157">
-        <v>0.01602779206224203</v>
+        <v>0.04057792929999104</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>341</v>
       </c>
       <c r="C158">
-        <v>0.01572610845625522</v>
+        <v>0.03976591193513923</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>342</v>
       </c>
       <c r="C159">
-        <v>0.01544463611688807</v>
+        <v>0.03915665657595135</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>343</v>
       </c>
       <c r="C160">
-        <v>0.01510059177929723</v>
+        <v>0.0388728009653474</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>344</v>
       </c>
       <c r="C161">
-        <v>0.01440582800635903</v>
+        <v>0.03849266306940469</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3257,7 +3257,7 @@
         <v>345</v>
       </c>
       <c r="C162">
-        <v>0.0142498726293856</v>
+        <v>0.03814853235408111</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>346</v>
       </c>
       <c r="C163">
-        <v>0.01397976750568297</v>
+        <v>0.03769476487376133</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3279,7 +3279,7 @@
         <v>347</v>
       </c>
       <c r="C164">
-        <v>0.01337558442204068</v>
+        <v>0.03602050625085185</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3290,7 +3290,7 @@
         <v>348</v>
       </c>
       <c r="C165">
-        <v>0.01310581264480448</v>
+        <v>0.03594376949258105</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3301,7 +3301,7 @@
         <v>349</v>
       </c>
       <c r="C166">
-        <v>0.01301151397705569</v>
+        <v>0.03579636539955433</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="C167">
-        <v>0.0124998712666653</v>
+        <v>0.03504573411260581</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>351</v>
       </c>
       <c r="C168">
-        <v>0.0114769177788383</v>
+        <v>0.03376298131882005</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>352</v>
       </c>
       <c r="C169">
-        <v>0.0111245470527046</v>
+        <v>0.03375649204503151</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3345,7 +3345,7 @@
         <v>353</v>
       </c>
       <c r="C170">
-        <v>0.01103789984075942</v>
+        <v>0.03344872540058863</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>354</v>
       </c>
       <c r="C171">
-        <v>0.01053603094367483</v>
+        <v>0.03255730100188492</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
       <c r="C172">
-        <v>0.01008496804865278</v>
+        <v>0.03208896937875361</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3378,7 +3378,7 @@
         <v>356</v>
       </c>
       <c r="C173">
-        <v>0.009927989675303062</v>
+        <v>0.03059208884087528</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3389,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="C174">
-        <v>0.009646709089824235</v>
+        <v>0.02750420154740674</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="C175">
-        <v>0.00921767505491955</v>
+        <v>0.0269863118418745</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3411,7 +3411,7 @@
         <v>359</v>
       </c>
       <c r="C176">
-        <v>0.007349118407330213</v>
+        <v>0.026860596681622</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>360</v>
       </c>
       <c r="C177">
-        <v>0.007293484843087672</v>
+        <v>0.02654778906878441</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3433,7 +3433,7 @@
         <v>361</v>
       </c>
       <c r="C178">
-        <v>0.006076375482173324</v>
+        <v>0.0244336628104882</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3444,7 +3444,7 @@
         <v>362</v>
       </c>
       <c r="C179">
-        <v>0.004943639304541225</v>
+        <v>0.02250549167199689</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>363</v>
       </c>
       <c r="C180">
-        <v>0.00369143860554999</v>
+        <v>0.01962795560396424</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>364</v>
       </c>
       <c r="C181">
-        <v>0.001405788388445295</v>
+        <v>0.009859789325410206</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3477,7 +3477,7 @@
         <v>365</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>0.001576598779514216</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3488,7 +3488,7 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>-0.006204438093037723</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -25,832 +25,832 @@
     <t>代码</t>
   </si>
   <si>
+    <t>884107.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>8841149.WI</t>
+  </si>
+  <si>
+    <t>884714.WI</t>
+  </si>
+  <si>
+    <t>8841091.WI</t>
+  </si>
+  <si>
     <t>884246.WI</t>
   </si>
   <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>8841101.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>8841136.WI</t>
+  </si>
+  <si>
+    <t>8841173.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>8841014.WI</t>
+  </si>
+  <si>
+    <t>8841164.WI</t>
+  </si>
+  <si>
+    <t>884118.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>8841228.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>8841093.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884785.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>8841089.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884969.WI</t>
+  </si>
+  <si>
+    <t>8841226.WI</t>
+  </si>
+  <si>
+    <t>8841163.WI</t>
+  </si>
+  <si>
+    <t>8841007.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>8841021.WI</t>
+  </si>
+  <si>
+    <t>8841070.WI</t>
+  </si>
+  <si>
+    <t>8841020.WI</t>
+  </si>
+  <si>
+    <t>8841145.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884995.WI</t>
+  </si>
+  <si>
+    <t>884895.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>8841187.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884705.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>8841024.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884774.WI</t>
+  </si>
+  <si>
+    <t>8841000.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884204.WI</t>
+  </si>
+  <si>
+    <t>884834.WI</t>
+  </si>
+  <si>
+    <t>8841083.WI</t>
+  </si>
+  <si>
+    <t>8841035.WI</t>
+  </si>
+  <si>
+    <t>884095.WI</t>
+  </si>
+  <si>
+    <t>8841050.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>8841040.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>8841188.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>8841192.WI</t>
+  </si>
+  <si>
     <t>8841072.WI</t>
   </si>
   <si>
+    <t>884987.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>8841044.WI</t>
+  </si>
+  <si>
+    <t>8841039.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>8841227.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>884677.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>8841191.WI</t>
+  </si>
+  <si>
+    <t>884782.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884927.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>8841114.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>884953.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>8841002.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>8841049.WI</t>
+  </si>
+  <si>
+    <t>8841098.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>8841183.WI</t>
+  </si>
+  <si>
+    <t>884800.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
+  </si>
+  <si>
+    <t>8841080.WI</t>
+  </si>
+  <si>
+    <t>8841087.WI</t>
+  </si>
+  <si>
+    <t>8841194.WI</t>
+  </si>
+  <si>
     <t>8841107.WI</t>
   </si>
   <si>
+    <t>8841105.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>8841185.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>8841135.WI</t>
+  </si>
+  <si>
     <t>884189.WI</t>
   </si>
   <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>8841105.WI</t>
-  </si>
-  <si>
-    <t>884953.WI</t>
-  </si>
-  <si>
-    <t>8841089.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>8841098.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>8841164.WI</t>
-  </si>
-  <si>
-    <t>8841173.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>8841227.WI</t>
-  </si>
-  <si>
-    <t>8841002.WI</t>
-  </si>
-  <si>
-    <t>884224.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>8841191.WI</t>
-  </si>
-  <si>
-    <t>8841083.WI</t>
-  </si>
-  <si>
-    <t>8841188.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884834.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>8841007.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>8841050.WI</t>
-  </si>
-  <si>
-    <t>8841000.WI</t>
-  </si>
-  <si>
-    <t>884800.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>8841024.WI</t>
-  </si>
-  <si>
-    <t>884782.WI</t>
-  </si>
-  <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884107.WI</t>
-  </si>
-  <si>
-    <t>884995.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>884895.WI</t>
-  </si>
-  <si>
-    <t>8841020.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884969.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>8841093.WI</t>
-  </si>
-  <si>
-    <t>884118.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>8841021.WI</t>
-  </si>
-  <si>
-    <t>8841226.WI</t>
-  </si>
-  <si>
-    <t>8841070.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>8841040.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>884785.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>8841014.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>8841039.WI</t>
-  </si>
-  <si>
-    <t>8841187.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>8841163.WI</t>
-  </si>
-  <si>
-    <t>8841044.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>884677.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>8841080.WI</t>
-  </si>
-  <si>
-    <t>8841194.WI</t>
-  </si>
-  <si>
-    <t>8841183.WI</t>
-  </si>
-  <si>
-    <t>884927.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>884095.WI</t>
-  </si>
-  <si>
-    <t>8841101.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>8841228.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884204.WI</t>
-  </si>
-  <si>
-    <t>884774.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>8841136.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>8841145.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884714.WI</t>
-  </si>
-  <si>
-    <t>8841192.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
-  </si>
-  <si>
-    <t>8841049.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>8841149.WI</t>
-  </si>
-  <si>
-    <t>8841035.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>8841087.WI</t>
-  </si>
-  <si>
-    <t>884987.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884705.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>8841114.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>8841091.WI</t>
-  </si>
-  <si>
-    <t>8841185.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>8841135.WI</t>
+    <t>黄金珠宝指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>大基建央企指数</t>
+  </si>
+  <si>
+    <t>草甘膦指数</t>
+  </si>
+  <si>
+    <t>海南省国资指数</t>
   </si>
   <si>
     <t>打板指数</t>
   </si>
   <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>陆股通重仓指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>品牌龙头指数</t>
+  </si>
+  <si>
+    <t>广电系指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>工业互联网指数</t>
+  </si>
+  <si>
+    <t>电路板指数</t>
+  </si>
+  <si>
+    <t>中朝经济特区指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>护城河指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>海南自贸港指数</t>
+  </si>
+  <si>
+    <t>核电指数</t>
+  </si>
+  <si>
+    <t>知识产权指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>锂矿指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>稀土指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>超高清视频指数</t>
+  </si>
+  <si>
+    <t>高盈利成长股指数</t>
+  </si>
+  <si>
+    <t>大消费指数</t>
+  </si>
+  <si>
+    <t>华为概念指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>独角兽概念指数</t>
+  </si>
+  <si>
+    <t>出口型企业指数</t>
+  </si>
+  <si>
+    <t>富士康概念指数</t>
+  </si>
+  <si>
+    <t>西部大基建指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>轨道交通指数</t>
+  </si>
+  <si>
+    <t>手机产业指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>边缘计算指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>自主可控指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>白酒指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>国产化创新指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>甲醇指数</t>
+  </si>
+  <si>
+    <t>金融科技指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>金控平台指数</t>
+  </si>
+  <si>
+    <t>期货概念指数</t>
+  </si>
+  <si>
+    <t>钴矿指数</t>
+  </si>
+  <si>
+    <t>西部水泥指数</t>
+  </si>
+  <si>
+    <t>触摸屏指数</t>
+  </si>
+  <si>
+    <t>智能音箱指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>CAR-T疗法指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>参股科创板指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>数字孪生指数</t>
+  </si>
+  <si>
     <t>反关税指数</t>
   </si>
   <si>
+    <t>操作系统国产化指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>啤酒指数</t>
+  </si>
+  <si>
+    <t>氟化工指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>人造肉指数</t>
+  </si>
+  <si>
+    <t>新疆振兴指数</t>
+  </si>
+  <si>
+    <t>医疗器械指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>泛在电力物联网指数</t>
+  </si>
+  <si>
+    <t>影视指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>中国一汽概念指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>超级细菌指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>集成电路指数</t>
+  </si>
+  <si>
+    <t>页岩气指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>光伏指数</t>
+  </si>
+  <si>
+    <t>乡村振兴指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>创新药指数</t>
+  </si>
+  <si>
+    <t>高送转预期指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>业绩爆雷指数</t>
+  </si>
+  <si>
+    <t>十大军工集团指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
+  </si>
+  <si>
+    <t>南北船合并指数</t>
+  </si>
+  <si>
+    <t>仿制药指数</t>
+  </si>
+  <si>
+    <t>电子烟指数</t>
+  </si>
+  <si>
     <t>次新股指数</t>
   </si>
   <si>
+    <t>大豆指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>工业大麻指数</t>
+  </si>
+  <si>
+    <t>猪产业指数</t>
+  </si>
+  <si>
+    <t>鸡产业指数</t>
+  </si>
+  <si>
+    <t>低价股指数</t>
+  </si>
+  <si>
     <t>近端次新股指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>猪产业指数</t>
-  </si>
-  <si>
-    <t>大豆指数</t>
-  </si>
-  <si>
-    <t>集成电路指数</t>
-  </si>
-  <si>
-    <t>稀土指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>高送转预期指数</t>
-  </si>
-  <si>
-    <t>页岩气指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>电路板指数</t>
-  </si>
-  <si>
-    <t>广电系指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>人造肉指数</t>
-  </si>
-  <si>
-    <t>乡村振兴指数</t>
-  </si>
-  <si>
-    <t>5G指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>泛在电力物联网指数</t>
-  </si>
-  <si>
-    <t>钴矿指数</t>
-  </si>
-  <si>
-    <t>参股科创板指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>期货概念指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>光伏指数</t>
-  </si>
-  <si>
-    <t>华为概念指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>智能音箱指数</t>
-  </si>
-  <si>
-    <t>金融科技指数</t>
-  </si>
-  <si>
-    <t>十大军工集团指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>国产化创新指数</t>
-  </si>
-  <si>
-    <t>影视指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>黄金珠宝指数</t>
-  </si>
-  <si>
-    <t>轨道交通指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>手机产业指数</t>
-  </si>
-  <si>
-    <t>富士康概念指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>鸡产业指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>超高清视频指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>知识产权指数</t>
-  </si>
-  <si>
-    <t>中朝经济特区指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>独角兽概念指数</t>
-  </si>
-  <si>
-    <t>高盈利成长股指数</t>
-  </si>
-  <si>
-    <t>出口型企业指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>CAR-T疗法指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>锂矿指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>工业互联网指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>核电指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>氟化工指数</t>
-  </si>
-  <si>
-    <t>边缘计算指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>大消费指数</t>
-  </si>
-  <si>
-    <t>啤酒指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>医疗器械指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>南北船合并指数</t>
-  </si>
-  <si>
-    <t>电子烟指数</t>
-  </si>
-  <si>
-    <t>业绩爆雷指数</t>
-  </si>
-  <si>
-    <t>中国一汽概念指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>新疆振兴指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>触摸屏指数</t>
-  </si>
-  <si>
-    <t>陆股通重仓指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>护城河指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>金控平台指数</t>
-  </si>
-  <si>
-    <t>甲醇指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>自主可控指数</t>
-  </si>
-  <si>
-    <t>品牌龙头指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>西部大基建指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>草甘膦指数</t>
-  </si>
-  <si>
-    <t>数字孪生指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
-  </si>
-  <si>
-    <t>创新药指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>大基建央企指数</t>
-  </si>
-  <si>
-    <t>西部水泥指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>仿制药指数</t>
-  </si>
-  <si>
-    <t>操作系统国产化指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>白酒指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>超级细菌指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>海南省国资指数</t>
-  </si>
-  <si>
-    <t>工业大麻指数</t>
-  </si>
-  <si>
-    <t>海南自贸港指数</t>
-  </si>
-  <si>
-    <t>低价股指数</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
         <v>141</v>
       </c>
       <c r="C2">
-        <v>0.1753535243353406</v>
+        <v>0.01426858810416731</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1244,7 +1244,7 @@
         <v>142</v>
       </c>
       <c r="C3">
-        <v>0.1466187776307146</v>
+        <v>0.006042367618561917</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1255,7 +1255,7 @@
         <v>143</v>
       </c>
       <c r="C4">
-        <v>0.1445505059553049</v>
+        <v>-0.007715630982326416</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>144</v>
       </c>
       <c r="C5">
-        <v>0.1330849185508693</v>
+        <v>-0.0137435722515612</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1277,7 +1277,7 @@
         <v>145</v>
       </c>
       <c r="C6">
-        <v>0.1305417076257023</v>
+        <v>-0.01472701570428137</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>146</v>
       </c>
       <c r="C7">
-        <v>0.1181210461069195</v>
+        <v>-0.02354899645904629</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>147</v>
       </c>
       <c r="C8">
-        <v>0.11181472279357</v>
+        <v>-0.02441800051060095</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>148</v>
       </c>
       <c r="C9">
-        <v>0.1047741932695103</v>
+        <v>-0.02469141060651647</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>149</v>
       </c>
       <c r="C10">
-        <v>0.09265055419709811</v>
+        <v>-0.02551093003960658</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>0.0882819409604616</v>
+        <v>-0.02551358826772943</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1343,7 +1343,7 @@
         <v>151</v>
       </c>
       <c r="C12">
-        <v>0.07499459296005773</v>
+        <v>-0.02613528709311463</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1354,7 +1354,7 @@
         <v>152</v>
       </c>
       <c r="C13">
-        <v>0.07083319607115235</v>
+        <v>-0.02614788201832996</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1365,7 +1365,7 @@
         <v>153</v>
       </c>
       <c r="C14">
-        <v>0.06854633010154143</v>
+        <v>-0.02971222814128671</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1376,7 +1376,7 @@
         <v>154</v>
       </c>
       <c r="C15">
-        <v>0.06673446164008756</v>
+        <v>-0.03122058980243703</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1387,7 +1387,7 @@
         <v>155</v>
       </c>
       <c r="C16">
-        <v>0.06023219136441171</v>
+        <v>-0.0328408336946121</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>156</v>
       </c>
       <c r="C17">
-        <v>0.05738675894505341</v>
+        <v>-0.03463341309297086</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1409,7 +1409,7 @@
         <v>157</v>
       </c>
       <c r="C18">
-        <v>0.05530918676827801</v>
+        <v>-0.03548819470647868</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>158</v>
       </c>
       <c r="C19">
-        <v>0.05392913673839961</v>
+        <v>-0.03548878097075803</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>159</v>
       </c>
       <c r="C20">
-        <v>0.04930398875499775</v>
+        <v>-0.03588220076680959</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>160</v>
       </c>
       <c r="C21">
-        <v>0.04733743214595676</v>
+        <v>-0.03634691965710735</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>161</v>
       </c>
       <c r="C22">
-        <v>0.0465614670372545</v>
+        <v>-0.03676577674753001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1464,7 +1464,7 @@
         <v>162</v>
       </c>
       <c r="C23">
-        <v>0.04626882530301435</v>
+        <v>-0.03719152211064147</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>163</v>
       </c>
       <c r="C24">
-        <v>0.04619880784474661</v>
+        <v>-0.03790983037906936</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1486,7 +1486,7 @@
         <v>164</v>
       </c>
       <c r="C25">
-        <v>0.04470477587929711</v>
+        <v>-0.03882763233687503</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>165</v>
       </c>
       <c r="C26">
-        <v>0.04336996596063103</v>
+        <v>-0.03944681667414518</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>166</v>
       </c>
       <c r="C27">
-        <v>0.04321570822620102</v>
+        <v>-0.04068097226891221</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>167</v>
       </c>
       <c r="C28">
-        <v>0.04253203882490997</v>
+        <v>-0.04083699074457647</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>168</v>
       </c>
       <c r="C29">
-        <v>0.04233420647463104</v>
+        <v>-0.04106532841367427</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>169</v>
       </c>
       <c r="C30">
-        <v>0.04207962559204326</v>
+        <v>-0.04212455307909035</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>170</v>
       </c>
       <c r="C31">
-        <v>0.04119950192170485</v>
+        <v>-0.0423843333048578</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>171</v>
       </c>
       <c r="C32">
-        <v>0.04047686486737589</v>
+        <v>-0.04282773253295924</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>0.04037727206296671</v>
+        <v>-0.04331863681640757</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>173</v>
       </c>
       <c r="C34">
-        <v>0.04015803595044587</v>
+        <v>-0.04416319461656126</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>174</v>
       </c>
       <c r="C35">
-        <v>0.04000108753462506</v>
+        <v>-0.04477102262765553</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>175</v>
       </c>
       <c r="C36">
-        <v>0.03960937291921973</v>
+        <v>-0.04520732149904405</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>176</v>
       </c>
       <c r="C37">
-        <v>0.03872056131452783</v>
+        <v>-0.04534711091210497</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>177</v>
       </c>
       <c r="C38">
-        <v>0.03732094127347607</v>
+        <v>-0.04565705413413446</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>178</v>
       </c>
       <c r="C39">
-        <v>0.0368248605843855</v>
+        <v>-0.04570915131037567</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>179</v>
       </c>
       <c r="C40">
-        <v>0.03647506746111029</v>
+        <v>-0.04579146547904056</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>180</v>
       </c>
       <c r="C41">
-        <v>0.03624498414676824</v>
+        <v>-0.04590841238910148</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>181</v>
       </c>
       <c r="C42">
-        <v>0.03529483617266949</v>
+        <v>-0.04652156773641924</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>182</v>
       </c>
       <c r="C43">
-        <v>0.03489639410013212</v>
+        <v>-0.04692456226531294</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>183</v>
       </c>
       <c r="C44">
-        <v>0.03488084234951638</v>
+        <v>-0.04817791483813072</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>184</v>
       </c>
       <c r="C45">
-        <v>0.034065391551239</v>
+        <v>-0.04834182253284469</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>185</v>
       </c>
       <c r="C46">
-        <v>0.0338423846874607</v>
+        <v>-0.04867829464541973</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>186</v>
       </c>
       <c r="C47">
-        <v>0.03353487575876279</v>
+        <v>-0.04870383866506467</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>187</v>
       </c>
       <c r="C48">
-        <v>0.03318980111491254</v>
+        <v>-0.04895550961613182</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>188</v>
       </c>
       <c r="C49">
-        <v>0.03315184087999845</v>
+        <v>-0.0490897845514473</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>189</v>
       </c>
       <c r="C50">
-        <v>0.03264875885212337</v>
+        <v>-0.04909756647880281</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>190</v>
       </c>
       <c r="C51">
-        <v>0.03233542003567558</v>
+        <v>-0.04928789292660718</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>191</v>
       </c>
       <c r="C52">
-        <v>0.03210851030909279</v>
+        <v>-0.04975225218407986</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>192</v>
       </c>
       <c r="C53">
-        <v>0.03159415932084064</v>
+        <v>-0.04987954933587924</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>193</v>
       </c>
       <c r="C54">
-        <v>0.0310928221786233</v>
+        <v>-0.05040936796030082</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>194</v>
       </c>
       <c r="C55">
-        <v>0.03058784995422026</v>
+        <v>-0.05078809802867179</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>195</v>
       </c>
       <c r="C56">
-        <v>0.02977550740222346</v>
+        <v>-0.05093277985080524</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>196</v>
       </c>
       <c r="C57">
-        <v>0.02956743831926989</v>
+        <v>-0.05110902229793612</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>197</v>
       </c>
       <c r="C58">
-        <v>0.02934010329142223</v>
+        <v>-0.05119429016213695</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>198</v>
       </c>
       <c r="C59">
-        <v>0.02932597397600079</v>
+        <v>-0.05138841756335077</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>199</v>
       </c>
       <c r="C60">
-        <v>0.02922384336179773</v>
+        <v>-0.05164897967582149</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>200</v>
       </c>
       <c r="C61">
-        <v>0.02908165588252842</v>
+        <v>-0.0518042127791899</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>201</v>
       </c>
       <c r="C62">
-        <v>0.02869543083911652</v>
+        <v>-0.0518602312415114</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>202</v>
       </c>
       <c r="C63">
-        <v>0.02867245696371845</v>
+        <v>-0.0520715201566323</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>203</v>
       </c>
       <c r="C64">
-        <v>0.02849821495373428</v>
+        <v>-0.05236937492967042</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>204</v>
       </c>
       <c r="C65">
-        <v>0.02842837982352675</v>
+        <v>-0.05238751369794437</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>205</v>
       </c>
       <c r="C66">
-        <v>0.02785660653733912</v>
+        <v>-0.05242092206703852</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>206</v>
       </c>
       <c r="C67">
-        <v>0.02768306085517325</v>
+        <v>-0.05263631595216256</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>207</v>
       </c>
       <c r="C68">
-        <v>0.02759511424268224</v>
+        <v>-0.05263915478304138</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>208</v>
       </c>
       <c r="C69">
-        <v>0.02741046684515847</v>
+        <v>-0.05306520334337361</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>209</v>
       </c>
       <c r="C70">
-        <v>0.02676831991353024</v>
+        <v>-0.05318191255684213</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>210</v>
       </c>
       <c r="C71">
-        <v>0.02630963687683319</v>
+        <v>-0.05354075267815295</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>211</v>
       </c>
       <c r="C72">
-        <v>0.02616878089194818</v>
+        <v>-0.05421714536153599</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>212</v>
       </c>
       <c r="C73">
-        <v>0.02608434549061189</v>
+        <v>-0.0543254473755046</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>213</v>
       </c>
       <c r="C74">
-        <v>0.02608351670533993</v>
+        <v>-0.05455916169407649</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>214</v>
       </c>
       <c r="C75">
-        <v>0.02585625038274642</v>
+        <v>-0.05472413775627427</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>215</v>
       </c>
       <c r="C76">
-        <v>0.02520464482044038</v>
+        <v>-0.05500547496468466</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>216</v>
       </c>
       <c r="C77">
-        <v>0.0235427295567141</v>
+        <v>-0.05567206325939611</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>217</v>
       </c>
       <c r="C78">
-        <v>0.0220582068011439</v>
+        <v>-0.05580556154057614</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>218</v>
       </c>
       <c r="C79">
-        <v>0.02201450557129236</v>
+        <v>-0.05634093861042355</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>219</v>
       </c>
       <c r="C80">
-        <v>0.02173746329438764</v>
+        <v>-0.0567664729216566</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>220</v>
       </c>
       <c r="C81">
-        <v>0.02152220774452585</v>
+        <v>-0.05760062012677025</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>221</v>
       </c>
       <c r="C82">
-        <v>0.02074687997069047</v>
+        <v>-0.05826663330787718</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>222</v>
       </c>
       <c r="C83">
-        <v>0.02024753429996773</v>
+        <v>-0.0583681257113754</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>223</v>
       </c>
       <c r="C84">
-        <v>0.02015601593426219</v>
+        <v>-0.05841613960312531</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>224</v>
       </c>
       <c r="C85">
-        <v>0.01916606487071482</v>
+        <v>-0.05853182610609053</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>225</v>
       </c>
       <c r="C86">
-        <v>0.01880312246335469</v>
+        <v>-0.05905250864345557</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>226</v>
       </c>
       <c r="C87">
-        <v>0.01858484080327982</v>
+        <v>-0.05935611560231413</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>227</v>
       </c>
       <c r="C88">
-        <v>0.01833532190743092</v>
+        <v>-0.05954158005994858</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>228</v>
       </c>
       <c r="C89">
-        <v>0.01785913175021392</v>
+        <v>-0.05956975650522645</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>229</v>
       </c>
       <c r="C90">
-        <v>0.01777228836754996</v>
+        <v>-0.05967427423045535</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>230</v>
       </c>
       <c r="C91">
-        <v>0.01755038188203462</v>
+        <v>-0.05998250832388596</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>231</v>
       </c>
       <c r="C92">
-        <v>0.01749964280305982</v>
+        <v>-0.06045024096049678</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>232</v>
       </c>
       <c r="C93">
-        <v>0.01677915496714233</v>
+        <v>-0.06115373049895234</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>233</v>
       </c>
       <c r="C94">
-        <v>0.01669285517249564</v>
+        <v>-0.06145704092782323</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="C95">
-        <v>0.01662523419002992</v>
+        <v>-0.06159112808367961</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>235</v>
       </c>
       <c r="C96">
-        <v>0.01643112150147519</v>
+        <v>-0.0617854949205745</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="C97">
-        <v>0.01608866671936338</v>
+        <v>-0.06192221270060794</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>237</v>
       </c>
       <c r="C98">
-        <v>0.01605587894505711</v>
+        <v>-0.06234081843016337</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>238</v>
       </c>
       <c r="C99">
-        <v>0.01526846926156566</v>
+        <v>-0.06312920533592081</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>239</v>
       </c>
       <c r="C100">
-        <v>0.01524356784541259</v>
+        <v>-0.06472167454316957</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>240</v>
       </c>
       <c r="C101">
-        <v>0.01521014359704376</v>
+        <v>-0.06472678523170627</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>241</v>
       </c>
       <c r="C102">
-        <v>0.01494557215016323</v>
+        <v>-0.06517691452089491</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>242</v>
       </c>
       <c r="C103">
-        <v>0.01434420645320844</v>
+        <v>-0.06585834307735561</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>243</v>
       </c>
       <c r="C104">
-        <v>0.01427537523838196</v>
+        <v>-0.06593454956137379</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>244</v>
       </c>
       <c r="C105">
-        <v>0.01338587143262759</v>
+        <v>-0.06694068024391664</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>245</v>
       </c>
       <c r="C106">
-        <v>0.01310997061661578</v>
+        <v>-0.0669666363038004</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>246</v>
       </c>
       <c r="C107">
-        <v>0.01270596687317149</v>
+        <v>-0.06821630471837703</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>247</v>
       </c>
       <c r="C108">
-        <v>0.01242753301567423</v>
+        <v>-0.06824814413720659</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>248</v>
       </c>
       <c r="C109">
-        <v>0.01225226795766754</v>
+        <v>-0.06841655152866322</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>249</v>
       </c>
       <c r="C110">
-        <v>0.01170643929289406</v>
+        <v>-0.06878741940981214</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>250</v>
       </c>
       <c r="C111">
-        <v>0.01154475345089634</v>
+        <v>-0.0694360476984055</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>251</v>
       </c>
       <c r="C112">
-        <v>0.01047159338752257</v>
+        <v>-0.06948962899239131</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>252</v>
       </c>
       <c r="C113">
-        <v>0.01044902807542547</v>
+        <v>-0.07008996429768222</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>253</v>
       </c>
       <c r="C114">
-        <v>0.01040374643149899</v>
+        <v>-0.07074402718245765</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>254</v>
       </c>
       <c r="C115">
-        <v>0.0103911605673852</v>
+        <v>-0.07106289010293698</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>255</v>
       </c>
       <c r="C116">
-        <v>0.01018707148699405</v>
+        <v>-0.07133013022982493</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="C117">
-        <v>0.01013050652263936</v>
+        <v>-0.0718953907506541</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>257</v>
       </c>
       <c r="C118">
-        <v>0.009237748246508914</v>
+        <v>-0.07296755433005053</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>258</v>
       </c>
       <c r="C119">
-        <v>0.008608673117010524</v>
+        <v>-0.07316826706840163</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>259</v>
       </c>
       <c r="C120">
-        <v>0.008071628085591698</v>
+        <v>-0.07343286985427244</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>260</v>
       </c>
       <c r="C121">
-        <v>0.007445104779898681</v>
+        <v>-0.07366419906302035</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>261</v>
       </c>
       <c r="C122">
-        <v>0.006684763437409869</v>
+        <v>-0.07394743039308205</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>262</v>
       </c>
       <c r="C123">
-        <v>0.005949354143079288</v>
+        <v>-0.07442091412686214</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>263</v>
       </c>
       <c r="C124">
-        <v>0.005793572427885474</v>
+        <v>-0.07618624255533557</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>264</v>
       </c>
       <c r="C125">
-        <v>0.005028098564597627</v>
+        <v>-0.07634745852181957</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>265</v>
       </c>
       <c r="C126">
-        <v>0.004600270512629567</v>
+        <v>-0.07680849893436015</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>266</v>
       </c>
       <c r="C127">
-        <v>0.004343446097207826</v>
+        <v>-0.07696093207527155</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>267</v>
       </c>
       <c r="C128">
-        <v>0.004140517346175043</v>
+        <v>-0.07821608031399196</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>268</v>
       </c>
       <c r="C129">
-        <v>0.003882950288645715</v>
+        <v>-0.08118225141166902</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>269</v>
       </c>
       <c r="C130">
-        <v>0.0023623982136185</v>
+        <v>-0.08266863408234593</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>270</v>
       </c>
       <c r="C131">
-        <v>0.0006420063443020041</v>
+        <v>-0.08400453311843281</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>271</v>
       </c>
       <c r="C132">
-        <v>-0.00338116834280755</v>
+        <v>-0.08510297401339195</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>272</v>
       </c>
       <c r="C133">
-        <v>-0.00397960766989025</v>
+        <v>-0.08777721055544618</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>273</v>
       </c>
       <c r="C134">
-        <v>-0.004298637000636707</v>
+        <v>-0.09045033338494146</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>274</v>
       </c>
       <c r="C135">
-        <v>-0.004382452535486525</v>
+        <v>-0.09767508570234573</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>275</v>
       </c>
       <c r="C136">
-        <v>-0.006335408233299478</v>
+        <v>-0.1138783860880473</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>276</v>
       </c>
       <c r="C137">
-        <v>-0.01359556641946513</v>
+        <v>-0.1181427289573541</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>277</v>
       </c>
       <c r="C138">
-        <v>-0.01496077045664645</v>
+        <v>-0.1195869375039055</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>278</v>
       </c>
       <c r="C139">
-        <v>-0.02409808588264406</v>
+        <v>-0.1412174109856732</v>
       </c>
     </row>
   </sheetData>

--- a/FOF/data/概念.xlsx
+++ b/FOF/data/概念.xlsx
@@ -25,832 +25,832 @@
     <t>代码</t>
   </si>
   <si>
+    <t>884246.WI</t>
+  </si>
+  <si>
+    <t>884705.WI</t>
+  </si>
+  <si>
+    <t>8841050.WI</t>
+  </si>
+  <si>
+    <t>8841107.WI</t>
+  </si>
+  <si>
+    <t>884075.WI</t>
+  </si>
+  <si>
+    <t>884895.WI</t>
+  </si>
+  <si>
+    <t>8841164.WI</t>
+  </si>
+  <si>
+    <t>8841007.WI</t>
+  </si>
+  <si>
+    <t>884953.WI</t>
+  </si>
+  <si>
+    <t>8841226.WI</t>
+  </si>
+  <si>
+    <t>8841044.WI</t>
+  </si>
+  <si>
+    <t>884080.WI</t>
+  </si>
+  <si>
+    <t>884189.WI</t>
+  </si>
+  <si>
+    <t>884197.WI</t>
+  </si>
+  <si>
+    <t>884160.WI</t>
+  </si>
+  <si>
+    <t>884185.WI</t>
+  </si>
+  <si>
+    <t>884162.WI</t>
+  </si>
+  <si>
+    <t>884169.WI</t>
+  </si>
+  <si>
+    <t>8841098.WI</t>
+  </si>
+  <si>
+    <t>884202.WI</t>
+  </si>
+  <si>
+    <t>884235.WI</t>
+  </si>
+  <si>
+    <t>884200.WI</t>
+  </si>
+  <si>
+    <t>884249.WI</t>
+  </si>
+  <si>
+    <t>884214.WI</t>
+  </si>
+  <si>
+    <t>8841070.WI</t>
+  </si>
+  <si>
+    <t>884995.WI</t>
+  </si>
+  <si>
+    <t>884677.WI</t>
+  </si>
+  <si>
+    <t>884095.WI</t>
+  </si>
+  <si>
+    <t>884834.WI</t>
+  </si>
+  <si>
+    <t>884253.WI</t>
+  </si>
+  <si>
+    <t>8841163.WI</t>
+  </si>
+  <si>
+    <t>8841024.WI</t>
+  </si>
+  <si>
+    <t>8841101.WI</t>
+  </si>
+  <si>
+    <t>8841039.WI</t>
+  </si>
+  <si>
+    <t>8841020.WI</t>
+  </si>
+  <si>
+    <t>884081.WI</t>
+  </si>
+  <si>
+    <t>8841191.WI</t>
+  </si>
+  <si>
+    <t>884138.WI</t>
+  </si>
+  <si>
+    <t>8841188.WI</t>
+  </si>
+  <si>
+    <t>8841136.WI</t>
+  </si>
+  <si>
+    <t>884232.WI</t>
+  </si>
+  <si>
+    <t>8841087.WI</t>
+  </si>
+  <si>
+    <t>884201.WI</t>
+  </si>
+  <si>
+    <t>884129.WI</t>
+  </si>
+  <si>
+    <t>884100.WI</t>
+  </si>
+  <si>
+    <t>884184.WI</t>
+  </si>
+  <si>
+    <t>884217.WI</t>
+  </si>
+  <si>
+    <t>8841145.WI</t>
+  </si>
+  <si>
+    <t>884224.WI</t>
+  </si>
+  <si>
+    <t>884243.WI</t>
+  </si>
+  <si>
+    <t>884050.WI</t>
+  </si>
+  <si>
+    <t>8841228.WI</t>
+  </si>
+  <si>
+    <t>884242.WI</t>
+  </si>
+  <si>
+    <t>884248.WI</t>
+  </si>
+  <si>
+    <t>884045.WI</t>
+  </si>
+  <si>
+    <t>884215.WI</t>
+  </si>
+  <si>
+    <t>884091.WI</t>
+  </si>
+  <si>
+    <t>884927.WI</t>
+  </si>
+  <si>
+    <t>884782.WI</t>
+  </si>
+  <si>
+    <t>8841040.WI</t>
+  </si>
+  <si>
+    <t>884254.WI</t>
+  </si>
+  <si>
+    <t>8841049.WI</t>
+  </si>
+  <si>
+    <t>884131.WI</t>
+  </si>
+  <si>
+    <t>884126.WI</t>
+  </si>
+  <si>
+    <t>8841035.WI</t>
+  </si>
+  <si>
+    <t>884133.WI</t>
+  </si>
+  <si>
+    <t>884074.WI</t>
+  </si>
+  <si>
+    <t>8841080.WI</t>
+  </si>
+  <si>
+    <t>884969.WI</t>
+  </si>
+  <si>
+    <t>884206.WI</t>
+  </si>
+  <si>
+    <t>884039.WI</t>
+  </si>
+  <si>
+    <t>884157.WI</t>
+  </si>
+  <si>
+    <t>884227.WI</t>
+  </si>
+  <si>
+    <t>884181.WI</t>
+  </si>
+  <si>
+    <t>884190.WI</t>
+  </si>
+  <si>
+    <t>8841089.WI</t>
+  </si>
+  <si>
+    <t>884132.WI</t>
+  </si>
+  <si>
+    <t>884030.WI</t>
+  </si>
+  <si>
+    <t>884114.WI</t>
+  </si>
+  <si>
+    <t>884087.WI</t>
+  </si>
+  <si>
+    <t>884240.WI</t>
+  </si>
+  <si>
+    <t>884239.WI</t>
+  </si>
+  <si>
+    <t>884221.WI</t>
+  </si>
+  <si>
+    <t>8841091.WI</t>
+  </si>
+  <si>
+    <t>884252.WI</t>
+  </si>
+  <si>
+    <t>884229.WI</t>
+  </si>
+  <si>
+    <t>884785.WI</t>
+  </si>
+  <si>
+    <t>884175.WI</t>
+  </si>
+  <si>
     <t>884107.WI</t>
   </si>
   <si>
-    <t>884224.WI</t>
+    <t>884195.WI</t>
+  </si>
+  <si>
+    <t>884103.WI</t>
+  </si>
+  <si>
+    <t>884230.WI</t>
+  </si>
+  <si>
+    <t>8841021.WI</t>
+  </si>
+  <si>
+    <t>8841000.WI</t>
+  </si>
+  <si>
+    <t>884076.WI</t>
+  </si>
+  <si>
+    <t>884109.WI</t>
+  </si>
+  <si>
+    <t>8841192.WI</t>
+  </si>
+  <si>
+    <t>8841014.WI</t>
+  </si>
+  <si>
+    <t>884165.WI</t>
+  </si>
+  <si>
+    <t>8841093.WI</t>
+  </si>
+  <si>
+    <t>884046.WI</t>
+  </si>
+  <si>
+    <t>884178.WI</t>
+  </si>
+  <si>
+    <t>884130.WI</t>
+  </si>
+  <si>
+    <t>8841183.WI</t>
+  </si>
+  <si>
+    <t>884171.WI</t>
+  </si>
+  <si>
+    <t>884251.WI</t>
+  </si>
+  <si>
+    <t>884092.WI</t>
+  </si>
+  <si>
+    <t>884987.WI</t>
+  </si>
+  <si>
+    <t>8841135.WI</t>
+  </si>
+  <si>
+    <t>884173.WI</t>
+  </si>
+  <si>
+    <t>884101.WI</t>
+  </si>
+  <si>
+    <t>884714.WI</t>
+  </si>
+  <si>
+    <t>884247.WI</t>
+  </si>
+  <si>
+    <t>884034.WI</t>
+  </si>
+  <si>
+    <t>884118.WI</t>
+  </si>
+  <si>
+    <t>8841114.WI</t>
+  </si>
+  <si>
+    <t>8841227.WI</t>
+  </si>
+  <si>
+    <t>884800.WI</t>
+  </si>
+  <si>
+    <t>884186.WI</t>
+  </si>
+  <si>
+    <t>884062.WI</t>
+  </si>
+  <si>
+    <t>884250.WI</t>
+  </si>
+  <si>
+    <t>8841002.WI</t>
+  </si>
+  <si>
+    <t>8841185.WI</t>
+  </si>
+  <si>
+    <t>8841072.WI</t>
   </si>
   <si>
     <t>8841149.WI</t>
   </si>
   <si>
-    <t>884714.WI</t>
-  </si>
-  <si>
-    <t>8841091.WI</t>
-  </si>
-  <si>
-    <t>884246.WI</t>
-  </si>
-  <si>
-    <t>884227.WI</t>
-  </si>
-  <si>
-    <t>8841101.WI</t>
-  </si>
-  <si>
-    <t>884240.WI</t>
-  </si>
-  <si>
-    <t>884242.WI</t>
-  </si>
-  <si>
-    <t>8841136.WI</t>
+    <t>8841187.WI</t>
+  </si>
+  <si>
+    <t>884001.WI</t>
+  </si>
+  <si>
+    <t>884123.WI</t>
+  </si>
+  <si>
+    <t>884774.WI</t>
   </si>
   <si>
     <t>8841173.WI</t>
   </si>
   <si>
-    <t>884162.WI</t>
-  </si>
-  <si>
-    <t>884254.WI</t>
-  </si>
-  <si>
-    <t>8841014.WI</t>
-  </si>
-  <si>
-    <t>8841164.WI</t>
-  </si>
-  <si>
-    <t>884118.WI</t>
-  </si>
-  <si>
-    <t>884230.WI</t>
-  </si>
-  <si>
-    <t>8841228.WI</t>
-  </si>
-  <si>
-    <t>884206.WI</t>
-  </si>
-  <si>
-    <t>884050.WI</t>
-  </si>
-  <si>
-    <t>884046.WI</t>
-  </si>
-  <si>
-    <t>8841093.WI</t>
-  </si>
-  <si>
-    <t>884181.WI</t>
-  </si>
-  <si>
-    <t>884785.WI</t>
-  </si>
-  <si>
-    <t>884175.WI</t>
-  </si>
-  <si>
-    <t>884075.WI</t>
-  </si>
-  <si>
-    <t>884232.WI</t>
-  </si>
-  <si>
-    <t>8841089.WI</t>
-  </si>
-  <si>
-    <t>884247.WI</t>
-  </si>
-  <si>
-    <t>884133.WI</t>
-  </si>
-  <si>
-    <t>884969.WI</t>
-  </si>
-  <si>
-    <t>8841226.WI</t>
-  </si>
-  <si>
-    <t>8841163.WI</t>
-  </si>
-  <si>
-    <t>8841007.WI</t>
-  </si>
-  <si>
-    <t>884034.WI</t>
-  </si>
-  <si>
-    <t>884229.WI</t>
-  </si>
-  <si>
-    <t>8841021.WI</t>
-  </si>
-  <si>
-    <t>8841070.WI</t>
-  </si>
-  <si>
-    <t>8841020.WI</t>
-  </si>
-  <si>
-    <t>8841145.WI</t>
-  </si>
-  <si>
-    <t>884123.WI</t>
-  </si>
-  <si>
-    <t>884185.WI</t>
-  </si>
-  <si>
-    <t>884250.WI</t>
-  </si>
-  <si>
-    <t>884202.WI</t>
-  </si>
-  <si>
-    <t>884995.WI</t>
-  </si>
-  <si>
-    <t>884895.WI</t>
-  </si>
-  <si>
-    <t>884173.WI</t>
-  </si>
-  <si>
-    <t>884201.WI</t>
-  </si>
-  <si>
-    <t>884217.WI</t>
-  </si>
-  <si>
-    <t>884076.WI</t>
-  </si>
-  <si>
-    <t>884001.WI</t>
-  </si>
-  <si>
-    <t>8841187.WI</t>
-  </si>
-  <si>
-    <t>884243.WI</t>
-  </si>
-  <si>
-    <t>884169.WI</t>
-  </si>
-  <si>
-    <t>884091.WI</t>
-  </si>
-  <si>
-    <t>884705.WI</t>
-  </si>
-  <si>
-    <t>884253.WI</t>
-  </si>
-  <si>
-    <t>884221.WI</t>
-  </si>
-  <si>
-    <t>8841024.WI</t>
-  </si>
-  <si>
-    <t>884200.WI</t>
-  </si>
-  <si>
-    <t>884774.WI</t>
-  </si>
-  <si>
-    <t>8841000.WI</t>
-  </si>
-  <si>
-    <t>884171.WI</t>
-  </si>
-  <si>
-    <t>884235.WI</t>
-  </si>
-  <si>
-    <t>884030.WI</t>
-  </si>
-  <si>
-    <t>884039.WI</t>
-  </si>
-  <si>
-    <t>884126.WI</t>
-  </si>
-  <si>
-    <t>884190.WI</t>
-  </si>
-  <si>
-    <t>884109.WI</t>
-  </si>
-  <si>
-    <t>884131.WI</t>
-  </si>
-  <si>
-    <t>884157.WI</t>
+    <t>884036.WI</t>
+  </si>
+  <si>
+    <t>884166.WI</t>
+  </si>
+  <si>
+    <t>8841083.WI</t>
+  </si>
+  <si>
+    <t>884151.WI</t>
+  </si>
+  <si>
+    <t>884104.WI</t>
   </si>
   <si>
     <t>884204.WI</t>
   </si>
   <si>
-    <t>884834.WI</t>
-  </si>
-  <si>
-    <t>8841083.WI</t>
-  </si>
-  <si>
-    <t>8841035.WI</t>
-  </si>
-  <si>
-    <t>884095.WI</t>
-  </si>
-  <si>
-    <t>8841050.WI</t>
-  </si>
-  <si>
-    <t>884249.WI</t>
-  </si>
-  <si>
-    <t>884178.WI</t>
-  </si>
-  <si>
-    <t>8841040.WI</t>
-  </si>
-  <si>
-    <t>884092.WI</t>
-  </si>
-  <si>
-    <t>8841188.WI</t>
-  </si>
-  <si>
-    <t>884165.WI</t>
-  </si>
-  <si>
-    <t>8841192.WI</t>
-  </si>
-  <si>
-    <t>8841072.WI</t>
-  </si>
-  <si>
-    <t>884987.WI</t>
-  </si>
-  <si>
-    <t>884214.WI</t>
-  </si>
-  <si>
-    <t>884080.WI</t>
-  </si>
-  <si>
-    <t>884114.WI</t>
-  </si>
-  <si>
-    <t>8841044.WI</t>
-  </si>
-  <si>
-    <t>8841039.WI</t>
-  </si>
-  <si>
-    <t>884239.WI</t>
-  </si>
-  <si>
-    <t>884087.WI</t>
-  </si>
-  <si>
-    <t>884062.WI</t>
-  </si>
-  <si>
-    <t>884197.WI</t>
-  </si>
-  <si>
-    <t>8841227.WI</t>
-  </si>
-  <si>
-    <t>884074.WI</t>
-  </si>
-  <si>
-    <t>884677.WI</t>
-  </si>
-  <si>
-    <t>884160.WI</t>
-  </si>
-  <si>
-    <t>884215.WI</t>
-  </si>
-  <si>
-    <t>884195.WI</t>
-  </si>
-  <si>
-    <t>8841191.WI</t>
-  </si>
-  <si>
-    <t>884782.WI</t>
-  </si>
-  <si>
-    <t>884132.WI</t>
-  </si>
-  <si>
-    <t>884036.WI</t>
-  </si>
-  <si>
-    <t>884151.WI</t>
-  </si>
-  <si>
-    <t>884927.WI</t>
-  </si>
-  <si>
-    <t>884081.WI</t>
-  </si>
-  <si>
-    <t>8841114.WI</t>
-  </si>
-  <si>
-    <t>884186.WI</t>
-  </si>
-  <si>
-    <t>884130.WI</t>
-  </si>
-  <si>
-    <t>884953.WI</t>
-  </si>
-  <si>
-    <t>884103.WI</t>
-  </si>
-  <si>
-    <t>884248.WI</t>
-  </si>
-  <si>
-    <t>884045.WI</t>
-  </si>
-  <si>
-    <t>8841002.WI</t>
-  </si>
-  <si>
-    <t>884100.WI</t>
-  </si>
-  <si>
-    <t>884101.WI</t>
-  </si>
-  <si>
-    <t>884184.WI</t>
-  </si>
-  <si>
-    <t>8841049.WI</t>
-  </si>
-  <si>
-    <t>8841098.WI</t>
-  </si>
-  <si>
-    <t>884129.WI</t>
-  </si>
-  <si>
-    <t>8841183.WI</t>
-  </si>
-  <si>
-    <t>884800.WI</t>
-  </si>
-  <si>
-    <t>884166.WI</t>
-  </si>
-  <si>
-    <t>884104.WI</t>
-  </si>
-  <si>
-    <t>8841080.WI</t>
-  </si>
-  <si>
-    <t>8841087.WI</t>
-  </si>
-  <si>
     <t>8841194.WI</t>
   </si>
   <si>
-    <t>8841107.WI</t>
-  </si>
-  <si>
     <t>8841105.WI</t>
   </si>
   <si>
-    <t>884138.WI</t>
-  </si>
-  <si>
-    <t>8841185.WI</t>
-  </si>
-  <si>
-    <t>884251.WI</t>
-  </si>
-  <si>
-    <t>884252.WI</t>
-  </si>
-  <si>
-    <t>8841135.WI</t>
-  </si>
-  <si>
-    <t>884189.WI</t>
+    <t>打板指数</t>
+  </si>
+  <si>
+    <t>白酒指数</t>
+  </si>
+  <si>
+    <t>智能音箱指数</t>
+  </si>
+  <si>
+    <t>次新股指数</t>
+  </si>
+  <si>
+    <t>高铁指数</t>
+  </si>
+  <si>
+    <t>手机产业指数</t>
+  </si>
+  <si>
+    <t>电路板指数</t>
+  </si>
+  <si>
+    <t>华为概念指数</t>
+  </si>
+  <si>
+    <t>集成电路指数</t>
+  </si>
+  <si>
+    <t>高盈利成长股指数</t>
+  </si>
+  <si>
+    <t>啤酒指数</t>
+  </si>
+  <si>
+    <t>网络游戏指数</t>
+  </si>
+  <si>
+    <t>近端次新股指数</t>
+  </si>
+  <si>
+    <t>ST概念指数</t>
+  </si>
+  <si>
+    <t>芯片国产化指数</t>
+  </si>
+  <si>
+    <t>高送转概念指数</t>
+  </si>
+  <si>
+    <t>智能汽车指数</t>
+  </si>
+  <si>
+    <t>自主可控指数</t>
+  </si>
+  <si>
+    <t>高送转预期指数</t>
+  </si>
+  <si>
+    <t>虚拟现实指数</t>
+  </si>
+  <si>
+    <t>最小市值指数</t>
+  </si>
+  <si>
+    <t>高校指数</t>
+  </si>
+  <si>
+    <t>维生素指数</t>
+  </si>
+  <si>
+    <t>OLED指数</t>
+  </si>
+  <si>
+    <t>出口型企业指数</t>
+  </si>
+  <si>
+    <t>轨道交通指数</t>
+  </si>
+  <si>
+    <t>医疗器械指数</t>
+  </si>
+  <si>
+    <t>触摸屏指数</t>
+  </si>
+  <si>
+    <t>期货概念指数</t>
+  </si>
+  <si>
+    <t>中小创蓝筹指数</t>
+  </si>
+  <si>
+    <t>大消费指数</t>
+  </si>
+  <si>
+    <t>国产化创新指数</t>
+  </si>
+  <si>
+    <t>陆股通重仓指数</t>
+  </si>
+  <si>
+    <t>氟化工指数</t>
+  </si>
+  <si>
+    <t>富士康概念指数</t>
+  </si>
+  <si>
+    <t>上海本地重组指数</t>
+  </si>
+  <si>
+    <t>泛在电力物联网指数</t>
+  </si>
+  <si>
+    <t>上海自贸区指数</t>
+  </si>
+  <si>
+    <t>参股科创板指数</t>
+  </si>
+  <si>
+    <t>品牌龙头指数</t>
+  </si>
+  <si>
+    <t>白马股指数</t>
+  </si>
+  <si>
+    <t>仿制药指数</t>
+  </si>
+  <si>
+    <t>人工智能指数</t>
+  </si>
+  <si>
+    <t>生物疫苗指数</t>
+  </si>
+  <si>
+    <t>新三板指数</t>
+  </si>
+  <si>
+    <t>基因检测指数</t>
+  </si>
+  <si>
+    <t>电子竞技指数</t>
+  </si>
+  <si>
+    <t>西部大基建指数</t>
+  </si>
+  <si>
+    <t>5G指数</t>
+  </si>
+  <si>
+    <t>二线龙头指数</t>
+  </si>
+  <si>
+    <t>海南自贸港指数</t>
+  </si>
+  <si>
+    <t>护城河指数</t>
+  </si>
+  <si>
+    <t>一线龙头指数</t>
+  </si>
+  <si>
+    <t>染料指数</t>
+  </si>
+  <si>
+    <t>光伏指数</t>
+  </si>
+  <si>
+    <t>区块链指数</t>
+  </si>
+  <si>
+    <t>云计算指数</t>
+  </si>
+  <si>
+    <t>中国一汽概念指数</t>
+  </si>
+  <si>
+    <t>影视指数</t>
+  </si>
+  <si>
+    <t>CAR-T疗法指数</t>
+  </si>
+  <si>
+    <t>行业龙头指数</t>
+  </si>
+  <si>
+    <t>创新药指数</t>
+  </si>
+  <si>
+    <t>大数据指数</t>
+  </si>
+  <si>
+    <t>机器人指数</t>
+  </si>
+  <si>
+    <t>西部水泥指数</t>
+  </si>
+  <si>
+    <t>网络安全指数</t>
+  </si>
+  <si>
+    <t>新疆振兴指数</t>
+  </si>
+  <si>
+    <t>南北船合并指数</t>
+  </si>
+  <si>
+    <t>超高清视频指数</t>
+  </si>
+  <si>
+    <t>汽车后市场指数</t>
+  </si>
+  <si>
+    <t>锂电池指数</t>
+  </si>
+  <si>
+    <t>智慧医疗指数</t>
+  </si>
+  <si>
+    <t>新零售指数</t>
+  </si>
+  <si>
+    <t>一带一路指数</t>
+  </si>
+  <si>
+    <t>特高压指数</t>
+  </si>
+  <si>
+    <t>稀土指数</t>
+  </si>
+  <si>
+    <t>智能物流指数</t>
+  </si>
+  <si>
+    <t>物联网指数</t>
+  </si>
+  <si>
+    <t>充电桩指数</t>
+  </si>
+  <si>
+    <t>卫星导航指数</t>
+  </si>
+  <si>
+    <t>MSCI概念指数</t>
+  </si>
+  <si>
+    <t>小金属指数</t>
+  </si>
+  <si>
+    <t>国企混改指数</t>
+  </si>
+  <si>
+    <t>海南省国资指数</t>
+  </si>
+  <si>
+    <t>鸡产业指数</t>
+  </si>
+  <si>
+    <t>雄安新区指数</t>
+  </si>
+  <si>
+    <t>锂矿指数</t>
+  </si>
+  <si>
+    <t>福建自贸区指数</t>
   </si>
   <si>
     <t>黄金珠宝指数</t>
   </si>
   <si>
-    <t>5G指数</t>
+    <t>西藏振兴指数</t>
+  </si>
+  <si>
+    <t>页岩气指数</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区指数</t>
+  </si>
+  <si>
+    <t>独角兽概念指数</t>
+  </si>
+  <si>
+    <t>金融科技指数</t>
+  </si>
+  <si>
+    <t>新能源汽车指数</t>
+  </si>
+  <si>
+    <t>石墨烯指数</t>
+  </si>
+  <si>
+    <t>数字孪生指数</t>
+  </si>
+  <si>
+    <t>工业互联网指数</t>
+  </si>
+  <si>
+    <t>丝绸之路指数</t>
+  </si>
+  <si>
+    <t>知识产权指数</t>
+  </si>
+  <si>
+    <t>核电指数</t>
+  </si>
+  <si>
+    <t>工业4.0指数</t>
+  </si>
+  <si>
+    <t>LNG指数</t>
+  </si>
+  <si>
+    <t>业绩爆雷指数</t>
+  </si>
+  <si>
+    <t>国资改革指数</t>
+  </si>
+  <si>
+    <t>猪产业指数</t>
+  </si>
+  <si>
+    <t>高端装备制造指数</t>
+  </si>
+  <si>
+    <t>操作系统国产化指数</t>
+  </si>
+  <si>
+    <t>低价股指数</t>
+  </si>
+  <si>
+    <t>赛马指数</t>
+  </si>
+  <si>
+    <t>抗癌指数</t>
+  </si>
+  <si>
+    <t>草甘膦指数</t>
+  </si>
+  <si>
+    <t>房屋租赁指数</t>
+  </si>
+  <si>
+    <t>环保概念指数</t>
+  </si>
+  <si>
+    <t>中朝经济特区指数</t>
+  </si>
+  <si>
+    <t>超级细菌指数</t>
+  </si>
+  <si>
+    <t>人造肉指数</t>
+  </si>
+  <si>
+    <t>十大军工集团指数</t>
+  </si>
+  <si>
+    <t>军民融合指数</t>
+  </si>
+  <si>
+    <t>生物育种指数</t>
+  </si>
+  <si>
+    <t>钛白粉指数</t>
+  </si>
+  <si>
+    <t>乡村振兴指数</t>
+  </si>
+  <si>
+    <t>工业大麻指数</t>
+  </si>
+  <si>
+    <t>反关税指数</t>
   </si>
   <si>
     <t>大基建央企指数</t>
   </si>
   <si>
-    <t>草甘膦指数</t>
-  </si>
-  <si>
-    <t>海南省国资指数</t>
-  </si>
-  <si>
-    <t>打板指数</t>
-  </si>
-  <si>
-    <t>新零售指数</t>
-  </si>
-  <si>
-    <t>陆股通重仓指数</t>
-  </si>
-  <si>
-    <t>MSCI概念指数</t>
-  </si>
-  <si>
-    <t>一线龙头指数</t>
-  </si>
-  <si>
-    <t>品牌龙头指数</t>
+    <t>边缘计算指数</t>
+  </si>
+  <si>
+    <t>参股金融指数</t>
+  </si>
+  <si>
+    <t>智能IC卡指数</t>
+  </si>
+  <si>
+    <t>甲醇指数</t>
   </si>
   <si>
     <t>广电系指数</t>
   </si>
   <si>
-    <t>智能汽车指数</t>
-  </si>
-  <si>
-    <t>行业龙头指数</t>
-  </si>
-  <si>
-    <t>工业互联网指数</t>
-  </si>
-  <si>
-    <t>电路板指数</t>
-  </si>
-  <si>
-    <t>中朝经济特区指数</t>
-  </si>
-  <si>
-    <t>粤港澳大湾区指数</t>
-  </si>
-  <si>
-    <t>护城河指数</t>
-  </si>
-  <si>
-    <t>汽车后市场指数</t>
-  </si>
-  <si>
-    <t>海南自贸港指数</t>
-  </si>
-  <si>
-    <t>核电指数</t>
-  </si>
-  <si>
-    <t>知识产权指数</t>
-  </si>
-  <si>
-    <t>一带一路指数</t>
-  </si>
-  <si>
-    <t>锂矿指数</t>
-  </si>
-  <si>
-    <t>福建自贸区指数</t>
-  </si>
-  <si>
-    <t>高铁指数</t>
-  </si>
-  <si>
-    <t>白马股指数</t>
-  </si>
-  <si>
-    <t>稀土指数</t>
-  </si>
-  <si>
-    <t>房屋租赁指数</t>
-  </si>
-  <si>
-    <t>网络安全指数</t>
-  </si>
-  <si>
-    <t>超高清视频指数</t>
-  </si>
-  <si>
-    <t>高盈利成长股指数</t>
-  </si>
-  <si>
-    <t>大消费指数</t>
-  </si>
-  <si>
-    <t>华为概念指数</t>
-  </si>
-  <si>
-    <t>环保概念指数</t>
-  </si>
-  <si>
-    <t>雄安新区指数</t>
-  </si>
-  <si>
-    <t>独角兽概念指数</t>
-  </si>
-  <si>
-    <t>出口型企业指数</t>
-  </si>
-  <si>
-    <t>富士康概念指数</t>
-  </si>
-  <si>
-    <t>西部大基建指数</t>
-  </si>
-  <si>
-    <t>智能IC卡指数</t>
-  </si>
-  <si>
-    <t>高送转概念指数</t>
-  </si>
-  <si>
-    <t>钛白粉指数</t>
-  </si>
-  <si>
-    <t>虚拟现实指数</t>
-  </si>
-  <si>
-    <t>轨道交通指数</t>
-  </si>
-  <si>
-    <t>手机产业指数</t>
-  </si>
-  <si>
-    <t>赛马指数</t>
-  </si>
-  <si>
-    <t>人工智能指数</t>
-  </si>
-  <si>
-    <t>电子竞技指数</t>
-  </si>
-  <si>
-    <t>新能源汽车指数</t>
-  </si>
-  <si>
-    <t>参股金融指数</t>
-  </si>
-  <si>
-    <t>边缘计算指数</t>
-  </si>
-  <si>
-    <t>二线龙头指数</t>
-  </si>
-  <si>
-    <t>自主可控指数</t>
-  </si>
-  <si>
-    <t>云计算指数</t>
-  </si>
-  <si>
-    <t>白酒指数</t>
-  </si>
-  <si>
-    <t>中小创蓝筹指数</t>
-  </si>
-  <si>
-    <t>国企混改指数</t>
-  </si>
-  <si>
-    <t>国产化创新指数</t>
-  </si>
-  <si>
-    <t>高校指数</t>
-  </si>
-  <si>
-    <t>甲醇指数</t>
-  </si>
-  <si>
-    <t>金融科技指数</t>
-  </si>
-  <si>
-    <t>国资改革指数</t>
-  </si>
-  <si>
-    <t>最小市值指数</t>
-  </si>
-  <si>
-    <t>物联网指数</t>
-  </si>
-  <si>
-    <t>锂电池指数</t>
-  </si>
-  <si>
-    <t>机器人指数</t>
-  </si>
-  <si>
-    <t>特高压指数</t>
-  </si>
-  <si>
-    <t>石墨烯指数</t>
-  </si>
-  <si>
-    <t>大数据指数</t>
-  </si>
-  <si>
-    <t>智慧医疗指数</t>
+    <t>风力发电指数</t>
+  </si>
+  <si>
+    <t>燃料电池指数</t>
+  </si>
+  <si>
+    <t>钴矿指数</t>
+  </si>
+  <si>
+    <t>创投指数</t>
+  </si>
+  <si>
+    <t>航母指数</t>
   </si>
   <si>
     <t>金控平台指数</t>
   </si>
   <si>
-    <t>期货概念指数</t>
-  </si>
-  <si>
-    <t>钴矿指数</t>
-  </si>
-  <si>
-    <t>西部水泥指数</t>
-  </si>
-  <si>
-    <t>触摸屏指数</t>
-  </si>
-  <si>
-    <t>智能音箱指数</t>
-  </si>
-  <si>
-    <t>维生素指数</t>
-  </si>
-  <si>
-    <t>工业4.0指数</t>
-  </si>
-  <si>
-    <t>CAR-T疗法指数</t>
-  </si>
-  <si>
-    <t>高端装备制造指数</t>
-  </si>
-  <si>
-    <t>参股科创板指数</t>
-  </si>
-  <si>
-    <t>丝绸之路指数</t>
-  </si>
-  <si>
-    <t>数字孪生指数</t>
-  </si>
-  <si>
-    <t>反关税指数</t>
-  </si>
-  <si>
-    <t>操作系统国产化指数</t>
-  </si>
-  <si>
-    <t>OLED指数</t>
-  </si>
-  <si>
-    <t>网络游戏指数</t>
-  </si>
-  <si>
-    <t>充电桩指数</t>
-  </si>
-  <si>
-    <t>啤酒指数</t>
-  </si>
-  <si>
-    <t>氟化工指数</t>
-  </si>
-  <si>
-    <t>小金属指数</t>
-  </si>
-  <si>
-    <t>卫星导航指数</t>
-  </si>
-  <si>
-    <t>生物育种指数</t>
-  </si>
-  <si>
-    <t>ST概念指数</t>
-  </si>
-  <si>
-    <t>人造肉指数</t>
-  </si>
-  <si>
-    <t>新疆振兴指数</t>
-  </si>
-  <si>
-    <t>医疗器械指数</t>
-  </si>
-  <si>
-    <t>芯片国产化指数</t>
-  </si>
-  <si>
-    <t>区块链指数</t>
-  </si>
-  <si>
-    <t>西藏振兴指数</t>
-  </si>
-  <si>
-    <t>泛在电力物联网指数</t>
-  </si>
-  <si>
-    <t>影视指数</t>
-  </si>
-  <si>
-    <t>智能物流指数</t>
-  </si>
-  <si>
-    <t>风力发电指数</t>
-  </si>
-  <si>
-    <t>创投指数</t>
-  </si>
-  <si>
-    <t>中国一汽概念指数</t>
-  </si>
-  <si>
-    <t>上海本地重组指数</t>
-  </si>
-  <si>
-    <t>超级细菌指数</t>
-  </si>
-  <si>
-    <t>军民融合指数</t>
-  </si>
-  <si>
-    <t>LNG指数</t>
-  </si>
-  <si>
-    <t>集成电路指数</t>
-  </si>
-  <si>
-    <t>页岩气指数</t>
-  </si>
-  <si>
-    <t>染料指数</t>
-  </si>
-  <si>
-    <t>光伏指数</t>
-  </si>
-  <si>
-    <t>乡村振兴指数</t>
-  </si>
-  <si>
-    <t>新三板指数</t>
-  </si>
-  <si>
-    <t>抗癌指数</t>
-  </si>
-  <si>
-    <t>基因检测指数</t>
-  </si>
-  <si>
-    <t>创新药指数</t>
-  </si>
-  <si>
-    <t>高送转预期指数</t>
-  </si>
-  <si>
-    <t>生物疫苗指数</t>
-  </si>
-  <si>
-    <t>业绩爆雷指数</t>
-  </si>
-  <si>
-    <t>十大军工集团指数</t>
-  </si>
-  <si>
-    <t>燃料电池指数</t>
-  </si>
-  <si>
-    <t>航母指数</t>
-  </si>
-  <si>
-    <t>南北船合并指数</t>
-  </si>
-  <si>
-    <t>仿制药指数</t>
-  </si>
-  <si>
     <t>电子烟指数</t>
   </si>
   <si>
-    <t>次新股指数</t>
-  </si>
-  <si>
     <t>大豆指数</t>
-  </si>
-  <si>
-    <t>上海自贸区指数</t>
-  </si>
-  <si>
-    <t>工业大麻指数</t>
-  </si>
-  <si>
-    <t>猪产业指数</t>
-  </si>
-  <si>
-    <t>鸡产业指数</t>
-  </si>
-  <si>
-    <t>低价股指数</t>
-  </si>
-  <si>
-    <t>近端次新股指数</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
         <v>141</v>
       </c>
       <c r="C2">
-        <v>0.01426858810416731</v>
+        <v>0.05912226662257769</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1244,7 +1244,7 @@
         <v>142</v>
       </c>
       <c r="C3">
-        <v>0.006042367618561917</v>
+        <v>0.05576121827979597</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1255,7 +1255,7 @@
         <v>143</v>
       </c>
       <c r="C4">
-        <v>-0.007715630982326416</v>
+        <v>0.05348658436972253</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>144</v>
       </c>
       <c r="C5">
-        <v>-0.0137435722515612</v>
+        <v>0.03030361232569878</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1277,7 +1277,7 @@
         <v>145</v>
       </c>
       <c r="C6">
-        <v>-0.01472701570428137</v>
+        <v>0.02800704444924618</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>146</v>
       </c>
       <c r="C7">
-        <v>-0.02354899645904629</v>
+        <v>0.02690813479717225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>147</v>
       </c>
       <c r="C8">
-        <v>-0.02441800051060095</v>
+        <v>0.02488144200360765</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>148</v>
       </c>
       <c r="C9">
-        <v>-0.02469141060651647</v>
+        <v>0.02341378114162529</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>149</v>
       </c>
       <c r="C10">
-        <v>-0.02551093003960658</v>
+        <v>0.02131903990514949</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>-0.02551358826772943</v>
+        <v>0.021299083637214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1343,7 +1343,7 @@
         <v>151</v>
       </c>
       <c r="C12">
-        <v>-0.02613528709311463</v>
+        <v>0.01678998385408814</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1354,7 +1354,7 @@
         <v>152</v>
       </c>
       <c r="C13">
-        <v>-0.02614788201832996</v>
+        <v>0.01597397161409675</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1365,7 +1365,7 @@
         <v>153</v>
       </c>
       <c r="C14">
-        <v>-0.02971222814128671</v>
+        <v>0.01422164508631396</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1376,7 +1376,7 @@
         <v>154</v>
       </c>
       <c r="C15">
-        <v>-0.03122058980243703</v>
+        <v>0.0130404374539832</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1387,7 +1387,7 @@
         <v>155</v>
       </c>
       <c r="C16">
-        <v>-0.0328408336946121</v>
+        <v>0.01283771367921771</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>156</v>
       </c>
       <c r="C17">
-        <v>-0.03463341309297086</v>
+        <v>0.01219381815665987</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1409,7 +1409,7 @@
         <v>157</v>
       </c>
       <c r="C18">
-        <v>-0.03548819470647868</v>
+        <v>0.01125681801981337</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>158</v>
       </c>
       <c r="C19">
-        <v>-0.03548878097075803</v>
+        <v>0.01076607984772959</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>159</v>
       </c>
       <c r="C20">
-        <v>-0.03588220076680959</v>
+        <v>0.01061551792869375</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>160</v>
       </c>
       <c r="C21">
-        <v>-0.03634691965710735</v>
+        <v>0.01016775027011119</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>161</v>
       </c>
       <c r="C22">
-        <v>-0.03676577674753001</v>
+        <v>0.009471320988639231</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1464,7 +1464,7 @@
         <v>162</v>
       </c>
       <c r="C23">
-        <v>-0.03719152211064147</v>
+        <v>0.008866521768845725</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>163</v>
       </c>
       <c r="C24">
-        <v>-0.03790983037906936</v>
+        <v>0.008456515696740663</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1486,7 +1486,7 @@
         <v>164</v>
       </c>
       <c r="C25">
-        <v>-0.03882763233687503</v>
+        <v>0.008454563687612104</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>165</v>
       </c>
       <c r="C26">
-        <v>-0.03944681667414518</v>
+        <v>0.0082257977436484</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1508,7 +1508,7 @@
         <v>166</v>
       </c>
       <c r="C27">
-        <v>-0.04068097226891221</v>
+        <v>0.007446919666339369</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>167</v>
       </c>
       <c r="C28">
-        <v>-0.04083699074457647</v>
+        <v>0.00537890256542517</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>168</v>
       </c>
       <c r="C29">
-        <v>-0.04106532841367427</v>
+        <v>0.004681774297601304</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>169</v>
       </c>
       <c r="C30">
-        <v>-0.04212455307909035</v>
+        <v>0.004227608568225349</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>170</v>
       </c>
       <c r="C31">
-        <v>-0.0423843333048578</v>
+        <v>0.003668166764336345</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>171</v>
       </c>
       <c r="C32">
-        <v>-0.04282773253295924</v>
+        <v>0.003455941979194854</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>-0.04331863681640757</v>
+        <v>0.003329267808399816</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>173</v>
       </c>
       <c r="C34">
-        <v>-0.04416319461656126</v>
+        <v>0.001294216895909361</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>174</v>
       </c>
       <c r="C35">
-        <v>-0.04477102262765553</v>
+        <v>0.0012656166213183</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>175</v>
       </c>
       <c r="C36">
-        <v>-0.04520732149904405</v>
+        <v>0.001195864788116729</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>176</v>
       </c>
       <c r="C37">
-        <v>-0.04534711091210497</v>
+        <v>0.0006744419025703774</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>177</v>
       </c>
       <c r="C38">
-        <v>-0.04565705413413446</v>
+        <v>0.000496789673851028</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>178</v>
       </c>
       <c r="C39">
-        <v>-0.04570915131037567</v>
+        <v>6.29493200965392e-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>179</v>
       </c>
       <c r="C40">
-        <v>-0.04579146547904056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>180</v>
       </c>
       <c r="C41">
-        <v>-0.04590841238910148</v>
+        <v>-0.0007795105479598829</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>181</v>
       </c>
       <c r="C42">
-        <v>-0.04652156773641924</v>
+        <v>-0.001097142373760573</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>182</v>
       </c>
       <c r="C43">
-        <v>-0.04692456226531294</v>
+        <v>-0.001395955293217344</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>183</v>
       </c>
       <c r="C44">
-        <v>-0.04817791483813072</v>
+        <v>-0.001421460615143255</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>184</v>
       </c>
       <c r="C45">
-        <v>-0.04834182253284469</v>
+        <v>-0.001749956744599324</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>185</v>
       </c>
       <c r="C46">
-        <v>-0.04867829464541973</v>
+        <v>-0.002541541112022982</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>186</v>
       </c>
       <c r="C47">
-        <v>-0.04870383866506467</v>
+        <v>-0.002790017026921388</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>187</v>
       </c>
       <c r="C48">
-        <v>-0.04895550961613182</v>
+        <v>-0.003058317296531166</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>188</v>
       </c>
       <c r="C49">
-        <v>-0.0490897845514473</v>
+        <v>-0.003485273958874879</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>189</v>
       </c>
       <c r="C50">
-        <v>-0.04909756647880281</v>
+        <v>-0.003709911723771775</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>190</v>
       </c>
       <c r="C51">
-        <v>-0.04928789292660718</v>
+        <v>-0.00375797231675401</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>191</v>
       </c>
       <c r="C52">
-        <v>-0.04975225218407986</v>
+        <v>-0.004613464036019477</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>192</v>
       </c>
       <c r="C53">
-        <v>-0.04987954933587924</v>
+        <v>-0.004906285289239309</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>193</v>
       </c>
       <c r="C54">
-        <v>-0.05040936796030082</v>
+        <v>-0.004932658119051747</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>194</v>
       </c>
       <c r="C55">
-        <v>-0.05078809802867179</v>
+        <v>-0.005889348540854766</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>195</v>
       </c>
       <c r="C56">
-        <v>-0.05093277985080524</v>
+        <v>-0.006343379659451198</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>196</v>
       </c>
       <c r="C57">
-        <v>-0.05110902229793612</v>
+        <v>-0.006532458287003884</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>197</v>
       </c>
       <c r="C58">
-        <v>-0.05119429016213695</v>
+        <v>-0.006565958550334372</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>198</v>
       </c>
       <c r="C59">
-        <v>-0.05138841756335077</v>
+        <v>-0.006619756419967704</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>199</v>
       </c>
       <c r="C60">
-        <v>-0.05164897967582149</v>
+        <v>-0.007223042360915866</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>200</v>
       </c>
       <c r="C61">
-        <v>-0.0518042127791899</v>
+        <v>-0.007225828084544639</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>201</v>
       </c>
       <c r="C62">
-        <v>-0.0518602312415114</v>
+        <v>-0.007244383532499121</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>202</v>
       </c>
       <c r="C63">
-        <v>-0.0520715201566323</v>
+        <v>-0.007336102385808507</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>203</v>
       </c>
       <c r="C64">
-        <v>-0.05236937492967042</v>
+        <v>-0.007699263763300435</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>204</v>
       </c>
       <c r="C65">
-        <v>-0.05238751369794437</v>
+        <v>-0.007788585251462865</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>205</v>
       </c>
       <c r="C66">
-        <v>-0.05242092206703852</v>
+        <v>-0.007838099583927782</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>206</v>
       </c>
       <c r="C67">
-        <v>-0.05263631595216256</v>
+        <v>-0.007947744522824984</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>207</v>
       </c>
       <c r="C68">
-        <v>-0.05263915478304138</v>
+        <v>-0.008272341426626362</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>208</v>
       </c>
       <c r="C69">
-        <v>-0.05306520334337361</v>
+        <v>-0.008923384204539642</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>209</v>
       </c>
       <c r="C70">
-        <v>-0.05318191255684213</v>
+        <v>-0.009226623363685293</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>210</v>
       </c>
       <c r="C71">
-        <v>-0.05354075267815295</v>
+        <v>-0.009569451034244336</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>211</v>
       </c>
       <c r="C72">
-        <v>-0.05421714536153599</v>
+        <v>-0.009828749702303408</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>212</v>
       </c>
       <c r="C73">
-        <v>-0.0543254473755046</v>
+        <v>-0.0102844173253035</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>213</v>
       </c>
       <c r="C74">
-        <v>-0.05455916169407649</v>
+        <v>-0.01074670998746685</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>214</v>
       </c>
       <c r="C75">
-        <v>-0.05472413775627427</v>
+        <v>-0.01108301887188989</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>215</v>
       </c>
       <c r="C76">
-        <v>-0.05500547496468466</v>
+        <v>-0.01115580512156655</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>216</v>
       </c>
       <c r="C77">
-        <v>-0.05567206325939611</v>
+        <v>-0.01120799928386607</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>217</v>
       </c>
       <c r="C78">
-        <v>-0.05580556154057614</v>
+        <v>-0.01150486479763568</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>218</v>
       </c>
       <c r="C79">
-        <v>-0.05634093861042355</v>
+        <v>-0.01158551374798789</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>219</v>
       </c>
       <c r="C80">
-        <v>-0.0567664729216566</v>
+        <v>-0.01201599399227316</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2102,7 +2102,7 @@
         <v>220</v>
       </c>
       <c r="C81">
-        <v>-0.05760062012677025</v>
+        <v>-0.0121033421737724</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>221</v>
       </c>
       <c r="C82">
-        <v>-0.05826663330787718</v>
+        <v>-0.01212149984532385</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>222</v>
       </c>
       <c r="C83">
-        <v>-0.0583681257113754</v>
+        <v>-0.01259527595028342</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>223</v>
       </c>
       <c r="C84">
-        <v>-0.05841613960312531</v>
+        <v>-0.0126752991399689</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>224</v>
       </c>
       <c r="C85">
-        <v>-0.05853182610609053</v>
+        <v>-0.01301860325164894</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>225</v>
       </c>
       <c r="C86">
-        <v>-0.05905250864345557</v>
+        <v>-0.01314994489845633</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>226</v>
       </c>
       <c r="C87">
-        <v>-0.05935611560231413</v>
+        <v>-0.01319932873943641</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>227</v>
       </c>
       <c r="C88">
-        <v>-0.05954158005994858</v>
+        <v>-0.01345252906759387</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2190,7 +2190,7 @@
         <v>228</v>
       </c>
       <c r="C89">
-        <v>-0.05956975650522645</v>
+        <v>-0.01346878385731276</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>229</v>
       </c>
       <c r="C90">
-        <v>-0.05967427423045535</v>
+        <v>-0.01349750349910961</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2212,7 +2212,7 @@
         <v>230</v>
       </c>
       <c r="C91">
-        <v>-0.05998250832388596</v>
+        <v>-0.01353283724287835</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2223,7 +2223,7 @@
         <v>231</v>
       </c>
       <c r="C92">
-        <v>-0.06045024096049678</v>
+        <v>-0.01368069003519168</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>232</v>
       </c>
       <c r="C93">
-        <v>-0.06115373049895234</v>
+        <v>-0.01383660468269432</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>233</v>
       </c>
       <c r="C94">
-        <v>-0.06145704092782323</v>
+        <v>-0.01443013551330208</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="C95">
-        <v>-0.06159112808367961</v>
+        <v>-0.0162529507334519</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>235</v>
       </c>
       <c r="C96">
-        <v>-0.0617854949205745</v>
+        <v>-0.01636602951031452</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="C97">
-        <v>-0.06192221270060794</v>
+        <v>-0.01663937379042946</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>237</v>
       </c>
       <c r="C98">
-        <v>-0.06234081843016337</v>
+        <v>-0.01669622749063171</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>238</v>
       </c>
       <c r="C99">
-        <v>-0.06312920533592081</v>
+        <v>-0.01693268448393392</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>239</v>
       </c>
       <c r="C100">
-        <v>-0.06472167454316957</v>
+        <v>-0.01716858186955772</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>240</v>
       </c>
       <c r="C101">
-        <v>-0.06472678523170627</v>
+        <v>-0.01751002319020045</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>241</v>
       </c>
       <c r="C102">
-        <v>-0.06517691452089491</v>
+        <v>-0.01757434103630517</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>242</v>
       </c>
       <c r="C103">
-        <v>-0.06585834307735561</v>
+        <v>-0.01778167676416986</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>243</v>
       </c>
       <c r="C104">
-        <v>-0.06593454956137379</v>
+        <v>-0.01807752280942032</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2366,7 +2366,7 @@
         <v>244</v>
       </c>
       <c r="C105">
-        <v>-0.06694068024391664</v>
+        <v>-0.01824369659110947</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>245</v>
       </c>
       <c r="C106">
-        <v>-0.0669666363038004</v>
+        <v>-0.01841297760429106</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>246</v>
       </c>
       <c r="C107">
-        <v>-0.06821630471837703</v>
+        <v>-0.01891850541250761</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>247</v>
       </c>
       <c r="C108">
-        <v>-0.06824814413720659</v>
+        <v>-0.01905610611644704</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>248</v>
       </c>
       <c r="C109">
-        <v>-0.06841655152866322</v>
+        <v>-0.01959196774945837</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>249</v>
       </c>
       <c r="C110">
-        <v>-0.06878741940981214</v>
+        <v>-0.01974008971939012</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>250</v>
       </c>
       <c r="C111">
-        <v>-0.0694360476984055</v>
+        <v>-0.02013994167684441</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>251</v>
       </c>
       <c r="C112">
-        <v>-0.06948962899239131</v>
+        <v>-0.02014478678250342</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>252</v>
       </c>
       <c r="C113">
-        <v>-0.07008996429768222</v>
+        <v>-0.0201493423043515</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>253</v>
       </c>
       <c r="C114">
-        <v>-0.07074402718245765</v>
+        <v>-0.02045480291857427</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>254</v>
       </c>
       <c r="C115">
-        <v>-0.07106289010293698</v>
+        <v>-0.02076467257390902</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>255</v>
       </c>
       <c r="C116">
-        <v>-0.07133013022982493</v>
+        <v>-0.02113041983371489</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="C117">
-        <v>-0.0718953907506541</v>
+        <v>-0.02205885748629588</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>257</v>
       </c>
       <c r="C118">
-        <v>-0.07296755433005053</v>
+        <v>-0.02213948472412108</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>258</v>
       </c>
       <c r="C119">
-        <v>-0.07316826706840163</v>
+        <v>-0.0229327069520926</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>259</v>
       </c>
       <c r="C120">
-        <v>-0.07343286985427244</v>
+        <v>-0.02295989879394644</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>260</v>
       </c>
       <c r="C121">
-        <v>-0.07366419906302035</v>
+        <v>-0.02299377803219926</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2553,7 +2553,7 @@
         <v>261</v>
       </c>
       <c r="C122">
-        <v>-0.07394743039308205</v>
+        <v>-0.02311018326332359</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>262</v>
       </c>
       <c r="C123">
-        <v>-0.07442091412686214</v>
+        <v>-0.02492569439526493</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2575,7 +2575,7 @@
         <v>263</v>
       </c>
       <c r="C124">
-        <v>-0.07618624255533557</v>
+        <v>-0.02549400398839852</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>264</v>
       </c>
       <c r="C125">
-        <v>-0.07634745852181957</v>
+        <v>-0.02610082123610458</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2597,7 +2597,7 @@
         <v>265</v>
       </c>
       <c r="C126">
-        <v>-0.07680849893436015</v>
+        <v>-0.02658818787572315</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>266</v>
       </c>
       <c r="C127">
-        <v>-0.07696093207527155</v>
+        <v>-0.02681904997417861</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2619,7 +2619,7 @@
         <v>267</v>
       </c>
       <c r="C128">
-        <v>-0.07821608031399196</v>
+        <v>-0.02683735219260053</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2630,7 +2630,7 @@
         <v>268</v>
       </c>
       <c r="C129">
-        <v>-0.08118225141166902</v>
+        <v>-0.02712124384267389</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2641,7 +2641,7 @@
         <v>269</v>
       </c>
       <c r="C130">
-        <v>-0.08266863408234593</v>
+        <v>-0.02795649841033399</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2652,7 +2652,7 @@
         <v>270</v>
       </c>
       <c r="C131">
-        <v>-0.08400453311843281</v>
+        <v>-0.02849819389761077</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>271</v>
       </c>
       <c r="C132">
-        <v>-0.08510297401339195</v>
+        <v>-0.0299970081577563</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>272</v>
       </c>
       <c r="C133">
-        <v>-0.08777721055544618</v>
+        <v>-0.03011887205790031</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2685,7 +2685,7 @@
         <v>273</v>
       </c>
       <c r="C134">
-        <v>-0.09045033338494146</v>
+        <v>-0.0302563509804421</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>274</v>
       </c>
       <c r="C135">
-        <v>-0.09767508570234573</v>
+        <v>-0.03058532344807052</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>275</v>
       </c>
       <c r="C136">
-        <v>-0.1138783860880473</v>
+        <v>-0.03462750871763531</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2718,7 +2718,7 @@
         <v>276</v>
       </c>
       <c r="C137">
-        <v>-0.1181427289573541</v>
+        <v>-0.03725649619678095</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>277</v>
       </c>
       <c r="C138">
-        <v>-0.1195869375039055</v>
+        <v>-0.04842952662510713</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2740,7 +2740,7 @@
         <v>278</v>
       </c>
       <c r="C139">
-        <v>-0.1412174109856732</v>
+        <v>-0.05602587374473011</v>
       </c>
     </row>
   </sheetData>
